--- a/RT_radpat_80deg.xlsx
+++ b/RT_radpat_80deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-16.51716344779203</v>
+        <v>-14.38965639957976</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-16.58926390735893</v>
+        <v>-14.0868657934748</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-16.69313273375354</v>
+        <v>-13.78555337076046</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-16.83125215754386</v>
+        <v>-13.48597947048035</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-17.00630309398501</v>
+        <v>-13.18839342301024</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-17.22113073562527</v>
+        <v>-12.89303384745624</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.47865631905547</v>
+        <v>-12.60012972505151</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.78169810517716</v>
+        <v>-12.30990052756329</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-18.13261863933734</v>
+        <v>-12.02255700516159</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-18.53267799760939</v>
+        <v>-11.73830239608259</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-18.98086914377782</v>
+        <v>-11.45733247076415</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-19.47188952826792</v>
+        <v>-11.17983639771417</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-19.99277602314129</v>
+        <v>-10.9059976209025</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-20.5177875877556</v>
+        <v>-10.63599428635299</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-21.00198271402999</v>
+        <v>-10.36999979676376</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-21.37670767142733</v>
+        <v>-10.10818377402353</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-21.5551334473037</v>
+        <v>-9.85071250193117</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-21.45714557508549</v>
+        <v>-9.597749074298278</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-21.04758269751511</v>
+        <v>-9.349454603182968</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-20.35726304623209</v>
+        <v>-9.105988332826024</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-19.46470783155667</v>
+        <v>-8.867508498867101</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-18.4579352113494</v>
+        <v>-8.634172437159101</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-17.40796723348896</v>
+        <v>-8.406137178869935</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-16.36205116341239</v>
+        <v>-8.183560258006816</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-15.34774590767772</v>
+        <v>-7.966599737408437</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-14.37936726006624</v>
+        <v>-7.755414995532306</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-13.46324456613541</v>
+        <v>-7.550166942290821</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-12.60121494141452</v>
+        <v>-7.351018730871608</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-11.79273885589382</v>
+        <v>-7.158135935185044</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-11.03611930093762</v>
+        <v>-6.971687125926358</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-10.32918355866991</v>
+        <v>-6.791844463422649</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-9.669653301991353</v>
+        <v>-6.618784045519583</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-9.055338117016891</v>
+        <v>-6.452686330329559</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-8.484230802736995</v>
+        <v>-6.293736833479394</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-7.954547952889891</v>
+        <v>-6.142126451653177</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-7.464741648293622</v>
+        <v>-5.998052141457938</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.01349596238776</v>
+        <v>-5.861717522206382</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-6.599716672559883</v>
+        <v>-5.73333331077453</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-6.222517991388755</v>
+        <v>-5.61311828073022</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.88120939352766</v>
+        <v>-5.501299640481758</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.575283704370733</v>
+        <v>-5.39811405539187</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.304406658200162</v>
+        <v>-5.303808280344873</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.068409157851604</v>
+        <v>-5.218640199142792</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.867281426270292</v>
+        <v>-5.142879709531691</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.70116997055035</v>
+        <v>-5.076809827006521</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-4.570377108049638</v>
+        <v>-5.020727843837354</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-4.475362995949478</v>
+        <v>-4.974946654377667</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.416750761947431</v>
+        <v>-4.939796177757922</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-4.395334876046854</v>
+        <v>-4.915624975378106</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.412093061978335</v>
+        <v>-4.902802031384653</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.468202534831891</v>
+        <v>-4.901718758971155</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.5650611351006</v>
+        <v>-4.912791291827684</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.704314936011762</v>
+        <v>-4.936462972369623</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.887893089561643</v>
+        <v>-4.973207311653283</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.118052688110673</v>
+        <v>-5.023531253052257</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.397435837869864</v>
+        <v>-5.087978911412775</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.729143287179667</v>
+        <v>-5.167135980964392</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-6.116829439694039</v>
+        <v>-5.261634559402314</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.564826900890662</v>
+        <v>-5.372159067740574</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.078310969127105</v>
+        <v>-5.499452902868754</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.663519677586255</v>
+        <v>-5.644326182040282</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-8.328054103077498</v>
+        <v>-5.807665282197521</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-9.081290858244081</v>
+        <v>-5.99044334220903</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-9.934961182132778</v>
+        <v>-6.193733652510672</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-10.90397290484932</v>
+        <v>-6.418725094771924</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-12.00758707441186</v>
+        <v>-6.666740983021838</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-13.27108854822572</v>
+        <v>-6.939261894655372</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-14.72803707050149</v>
+        <v>-7.237954301382458</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-16.42268436208656</v>
+        <v>-7.564704561413903</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-18.40952563447846</v>
+        <v>-7.921663336056133</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-20.73444503838825</v>
+        <v>-8.311300390044639</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-23.32618244627496</v>
+        <v>-8.736474751611183</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-25.58430832980055</v>
+        <v>-9.200527103196601</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-26.0879726589591</v>
+        <v>-9.707398872317514</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-24.71286298379009</v>
+        <v>-10.26179440757825</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-22.89298008556266</v>
+        <v>-10.8693992850502</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-21.32868936618546</v>
+        <v>-11.53718558860032</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-20.12645697891733</v>
+        <v>-12.27384651750817</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-19.25233710748723</v>
+        <v>-13.09043194273646</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-18.65993615940193</v>
+        <v>-14.00131136554348</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-18.31398097806184</v>
+        <v>-15.02568418687869</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-18.19216099867851</v>
+        <v>-16.1900693103349</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-18.28367512683326</v>
+        <v>-17.53263825601655</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-18.58829133160622</v>
+        <v>-19.11133384971458</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-19.11682128912754</v>
+        <v>-21.02058890959931</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-19.893648202321</v>
+        <v>-23.43059386463959</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-20.96271475645943</v>
+        <v>-26.69953234054432</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-22.4005137720499</v>
+        <v>-31.82332595868445</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-24.34596817065993</v>
+        <v>-44.60284025442213</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-27.07957608519344</v>
+        <v>-37.06652275125052</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-31.28875664131441</v>
+        <v>-29.76019363326892</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-39.23723642198686</v>
+        <v>-25.98671823401533</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-39.2370249096698</v>
+        <v>-23.48622527168785</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-31.45446569984618</v>
+        <v>-21.65487638985017</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-27.39111253579453</v>
+        <v>-20.24209841878185</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-24.80014974085776</v>
+        <v>-19.11996791809253</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-22.99966092444772</v>
+        <v>-18.21462461982314</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-21.71186682263342</v>
+        <v>-17.47983401490797</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-20.79991325982474</v>
+        <v>-16.88500373355849</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-20.18927334699204</v>
+        <v>-16.40910907250761</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-19.83810451986184</v>
+        <v>-16.03735399017849</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-19.7244658620034</v>
+        <v>-15.75921814094374</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-19.84062722943565</v>
+        <v>-15.56726779751193</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-20.19107431523873</v>
+        <v>-15.45640777923292</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-20.79312860236361</v>
+        <v>-15.42341139752134</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-21.68032514150861</v>
+        <v>-15.466631090767</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-22.90984566648989</v>
+        <v>-15.58584118968647</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-24.57685882567873</v>
+        <v>-15.78218261002891</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-26.83852190460851</v>
+        <v>-16.05819722963039</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-29.9161479082135</v>
+        <v>-16.41795905701511</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-33.58443611483858</v>
+        <v>-16.8673030287171</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-34.20788787828952</v>
+        <v>-17.41418454550458</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-30.77167011045739</v>
+        <v>-18.06919176712019</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-27.57991265324598</v>
+        <v>-18.84624680941909</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-25.24522374605105</v>
+        <v>-19.76348356747182</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-23.55477010219445</v>
+        <v>-20.84412293172212</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-22.33759045622952</v>
+        <v>-22.11647814591517</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-21.49041475954138</v>
+        <v>-23.60983609995782</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-20.95257813401696</v>
+        <v>-25.33440627470075</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-20.68989653429323</v>
+        <v>-27.20663738677491</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-20.686266232855</v>
+        <v>-28.8427715665626</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-20.93979561583797</v>
+        <v>-29.40978990243959</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-21.46179655821752</v>
+        <v>-28.49157406044061</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-22.2778726677389</v>
+        <v>-26.79943222347359</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-23.43034854403504</v>
+        <v>-25.04793920692949</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-24.97846544853873</v>
+        <v>-23.49298246516362</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-26.9759748863387</v>
+        <v>-22.17401475568864</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-29.32038821682293</v>
+        <v>-21.07125757195409</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-31.14787555560856</v>
+        <v>-20.15561100418677</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-30.73833303049772</v>
+        <v>-19.40120742333469</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-28.61576638448341</v>
+        <v>-18.78754484614851</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-26.42103876528968</v>
+        <v>-18.29903209879303</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-24.65518868645895</v>
+        <v>-17.92408835542274</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-23.33352201035021</v>
+        <v>-17.65433588820101</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-22.39681519271214</v>
+        <v>-17.48398515245275</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-21.79413422225226</v>
+        <v>-17.40940532242236</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-21.4926859337594</v>
+        <v>-17.42884369371746</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-21.47605568800679</v>
+        <v>-17.54226567552633</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-21.74202448223917</v>
+        <v>-17.75129276177405</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-22.30158815572254</v>
+        <v>-18.05922050031228</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-23.17858484211071</v>
+        <v>-18.47109442210257</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-24.40677058018651</v>
+        <v>-18.99380000435863</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-26.01124952513338</v>
+        <v>-19.63607327794403</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-27.92198275468013</v>
+        <v>-20.40816337800224</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-29.67665121998283</v>
+        <v>-21.32051607473795</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-30.13696890555623</v>
+        <v>-22.37983434106002</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-28.87756889188705</v>
+        <v>-23.57853612675328</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-27.00241735093864</v>
+        <v>-24.86897007605106</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-25.30529202826395</v>
+        <v>-26.11101626935083</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-23.9827534172606</v>
+        <v>-27.01469739001831</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-23.03699313796496</v>
+        <v>-27.22496203646732</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-22.43695325889409</v>
+        <v>-26.65024354037977</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-22.15698855693675</v>
+        <v>-25.57579689556365</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-22.18405582106753</v>
+        <v>-24.34793770328385</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-22.51821624163854</v>
+        <v>-23.16901964368655</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-23.17175253140532</v>
+        <v>-22.11977382700127</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-24.16589618384508</v>
+        <v>-21.221692545333</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-25.51658856501238</v>
+        <v>-20.47340330400443</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-27.17733931974465</v>
+        <v>-19.86645954887267</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-28.85207954619846</v>
+        <v>-19.39147246916963</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-29.71585068700887</v>
+        <v>-19.04029516749567</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-29.05392116456482</v>
+        <v>-18.80669209414592</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-27.46946908277785</v>
+        <v>-18.68645534413535</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-25.84069274841979</v>
+        <v>-18.67735605974736</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-24.51354915836604</v>
+        <v>-18.77906132399976</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-23.55193732762978</v>
+        <v>-18.99307095053597</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-22.94548582470235</v>
+        <v>-19.32265378526771</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-22.67561593214167</v>
+        <v>-19.77272348912492</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-22.73209290161093</v>
+        <v>-20.34948028058867</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-23.116213670429</v>
+        <v>-21.05942824207534</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-23.83951148818669</v>
+        <v>-21.90687477242976</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-24.91597971764191</v>
+        <v>-22.88787157052307</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-26.33207459358925</v>
+        <v>-23.97644977182499</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-27.94461243871898</v>
+        <v>-25.09674937325267</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-29.2434077910539</v>
+        <v>-26.08216604960096</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-29.37627311494022</v>
+        <v>-26.66896837884804</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-28.24889914026898</v>
+        <v>-26.632267244048</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-26.69066784657532</v>
+        <v>-26.00027695547985</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-25.28837033677974</v>
+        <v>-25.0239584704352</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-24.22475540998903</v>
+        <v>-23.95450999262411</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-23.52622597271402</v>
+        <v>-22.9396682593927</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-23.18307250282903</v>
+        <v>-22.04399730590885</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-23.18569540572267</v>
+        <v>-21.28873983497559</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-23.53339415792998</v>
+        <v>-20.67662388108921</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-24.23358412790363</v>
+        <v>-20.2037608331798</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-25.29089008976073</v>
+        <v>-19.86481400576495</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-26.66744624019407</v>
+        <v>-19.65511822766564</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-28.1622202677528</v>
+        <v>-19.57149539926976</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-29.1976914634559</v>
+        <v>-19.61252256547085</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-29.04498827704187</v>
+        <v>-19.77855682979061</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-27.84589949631809</v>
+        <v>-20.07160462142632</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-26.37709598011831</v>
+        <v>-20.49496124108047</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-25.10905933756132</v>
+        <v>-21.05236591816501</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-24.18534422258116</v>
+        <v>-21.74606434982608</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-23.6283939566923</v>
+        <v>-22.57245791583922</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-23.43300070092294</v>
+        <v>-23.51275352608454</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-23.59495871294328</v>
+        <v>-24.51454261379897</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-24.11706763474269</v>
+        <v>-25.46294603579724</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-25.00340008932641</v>
+        <v>-26.16171626502997</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-26.23274037559913</v>
+        <v>-26.39065936218844</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-27.67418769414977</v>
+        <v>-26.06624606425767</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-28.90093276152849</v>
+        <v>-25.32354239358988</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-29.18002091813725</v>
+        <v>-24.38991466453557</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-28.30115959365448</v>
+        <v>-23.44252705257123</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-26.92147968579653</v>
+        <v>-22.5781674791164</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-25.63283487341797</v>
+        <v>-21.83915674432298</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-24.66302710926494</v>
+        <v>-21.24006212324231</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-24.06532388836351</v>
+        <v>-20.78340910576702</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-23.84371981168838</v>
+        <v>-20.46741268693876</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-23.99617948385886</v>
+        <v>-20.28952143615219</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-24.52491686282059</v>
+        <v>-20.24795860884882</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-25.42989205944933</v>
+        <v>-20.34232669158444</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-26.67533425196018</v>
+        <v>-20.57371200246033</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-28.08726316005418</v>
+        <v>-20.94438411990632</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-29.16109915803794</v>
+        <v>-21.45687352253405</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-29.18595845456731</v>
+        <v>-22.11182945843071</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-28.15736558158228</v>
+        <v>-22.90326785126535</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-26.7862557652657</v>
+        <v>-23.80860324061133</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-25.58353981194785</v>
+        <v>-24.76970911778465</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-24.7279464295191</v>
+        <v>-25.66530662576512</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-24.25854917746675</v>
+        <v>-26.29878648950801</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-24.17819953987723</v>
+        <v>-26.4658388547748</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-24.48685623462775</v>
+        <v>-26.10825864513718</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-25.18608349291361</v>
+        <v>-25.37050454371022</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-26.26163478907825</v>
+        <v>-24.47019885155249</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-27.61912612081099</v>
+        <v>-23.57219738677121</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-28.92222337564075</v>
+        <v>-22.76633469033307</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-29.47765731392288</v>
+        <v>-22.09243711376912</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-28.85790234800994</v>
+        <v>-21.56485269591807</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-27.57280486798143</v>
+        <v>-21.18685154731846</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-26.29109114838282</v>
+        <v>-20.95778467178751</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-25.31558476055221</v>
+        <v>-20.87638340824747</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-24.7289710715156</v>
+        <v>-20.94215152576029</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-24.54422474602595</v>
+        <v>-21.15577388109146</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-24.76079957961834</v>
+        <v>-21.5187937171677</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-25.37632453450914</v>
+        <v>-22.03236250073506</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-26.37123190288217</v>
+        <v>-22.69425203868165</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-27.64710877970267</v>
+        <v>-23.49235538164572</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-28.87698469742116</v>
+        <v>-24.39150773560297</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-29.40806773238696</v>
+        <v>-25.31049995938288</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-28.83145121233709</v>
+        <v>-26.09616525802035</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-27.60637141803934</v>
+        <v>-26.53595723050338</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-26.37185687690414</v>
+        <v>-26.46970463249693</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-25.43396305513193</v>
+        <v>-25.92848287105361</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-24.88282945163955</v>
+        <v>-25.10486858722346</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-24.73561325490892</v>
+        <v>-24.20142471119583</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-24.99217742664339</v>
+        <v>-23.34958802093325</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-25.64478973532858</v>
+        <v>-22.61507832309364</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-26.65542917379803</v>
+        <v>-22.02516945452052</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-27.8783111007431</v>
+        <v>-21.58877242570235</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-28.91092556197857</v>
+        <v>-21.30728091620612</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-29.13008461956242</v>
+        <v>-21.17975892255254</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-28.36712944065064</v>
+        <v>-21.20520092998498</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-27.16688231605825</v>
+        <v>-21.3832706273358</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-26.05878654555957</v>
+        <v>-21.71401742526998</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-25.27418982894176</v>
+        <v>-22.1964744829689</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-24.88203257689759</v>
+        <v>-22.8253547289758</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-24.89836951612915</v>
+        <v>-23.58418965121786</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-25.32599790960719</v>
+        <v>-24.43227747342704</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-26.15516927021882</v>
+        <v>-25.28401249137295</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-27.32456212381268</v>
+        <v>-25.99057458748479</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-28.60639692814681</v>
+        <v>-26.36286729352623</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-29.44873691779929</v>
+        <v>-26.27534000122163</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-29.26018032394245</v>
+        <v>-25.77124053214697</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-28.22116310893384</v>
+        <v>-25.02398716077501</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-27.00223264394672</v>
+        <v>-24.21232220190099</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-26.02296490423788</v>
+        <v>-23.45513207366155</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-25.42923658039725</v>
+        <v>-22.81486195572491</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-25.25755924186571</v>
+        <v>-22.31968823767505</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-25.51467579346177</v>
+        <v>-21.98075106655628</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-26.19640522371969</v>
+        <v>-21.80190338536659</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-27.26550355650474</v>
+        <v>-21.78454871065669</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-28.5635316526693</v>
+        <v>-21.92972658730451</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-29.6352950227298</v>
+        <v>-22.23852496789838</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-29.79260904888032</v>
+        <v>-22.7109861683914</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-28.9305337579544</v>
+        <v>-23.34276483882438</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-27.697024023809</v>
+        <v>-24.11760099180469</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-26.62957617646389</v>
+        <v>-24.99223090962501</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-25.93714294489099</v>
+        <v>-25.87136094254059</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-25.67429707249084</v>
+        <v>-26.58463129869591</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-25.84884168479092</v>
+        <v>-26.91654063748779</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-26.4507091562744</v>
+        <v>-26.73850555304915</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-27.43068061467159</v>
+        <v>-26.12621477168731</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-28.61199115169835</v>
+        <v>-25.28777699143101</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-29.53499174618487</v>
+        <v>-24.41424492316445</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-29.57350719289747</v>
+        <v>-23.62146799257999</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-28.68552689917558</v>
+        <v>-22.96515639628814</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-27.47823880409926</v>
+        <v>-22.4678186591884</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-26.4420202687513</v>
+        <v>-22.13669033770188</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-25.77313765200825</v>
+        <v>-21.97301173148173</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-25.5268158585764</v>
+        <v>-21.97626993889957</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-25.71397041874088</v>
+        <v>-22.14572316173847</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-26.32851802176381</v>
+        <v>-22.4802018003993</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-27.32832229410996</v>
+        <v>-22.97614341830804</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-28.55172843600831</v>
+        <v>-23.62286480727793</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-29.55968401913979</v>
+        <v>-24.3929270603682</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-29.71120982775831</v>
+        <v>-25.22502538077532</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-28.9058839791959</v>
+        <v>-26.00170619772998</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-27.74160957489703</v>
+        <v>-26.54507699698973</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-26.73466534818161</v>
+        <v>-26.68053928124053</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-26.09678673655064</v>
+        <v>-26.36204543739102</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-25.88748407400162</v>
+        <v>-25.71375962658231</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-26.11559032890398</v>
+        <v>-24.92595648060615</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-26.76479675518983</v>
+        <v>-24.14961540301472</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-27.76409636204703</v>
+        <v>-23.4722472112532</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-28.88687806502464</v>
+        <v>-22.93599777578737</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-29.62566716450867</v>
+        <v>-22.55841867044109</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-29.45281682539935</v>
+        <v>-22.34554528085662</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-28.50828513308188</v>
+        <v>-22.29857666735732</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-27.38866519927122</v>
+        <v>-22.41668826613407</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-26.49830106706365</v>
+        <v>-22.6974276821704</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-25.99134995078135</v>
+        <v>-23.13501177409243</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-25.91020522262859</v>
+        <v>-23.71586311160096</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-26.25801641232828</v>
+        <v>-24.40988058792928</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-27.00829188771758</v>
+        <v>-25.15609923054343</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-28.05982514517632</v>
+        <v>-25.84648702429843</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-29.12217546108345</v>
+        <v>-26.32781425481175</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-29.65001589052845</v>
+        <v>-26.45638157235295</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-29.26503386844225</v>
+        <v>-26.19351549904017</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-28.28392548146883</v>
+        <v>-25.63761349761673</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-27.26800356562746</v>
+        <v>-24.94819228622304</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-26.5381660484675</v>
+        <v>-24.26091821584878</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-26.21125975754333</v>
+        <v>-23.66094175713197</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-26.32028885734067</v>
+        <v>-23.19332031222619</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-26.86517886210152</v>
+        <v>-22.87951793376189</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-27.80428148576472</v>
+        <v>-22.72906681005359</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-28.97734575849218</v>
+        <v>-22.74596560606271</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-29.95682178230854</v>
+        <v>-22.93147395097517</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-30.12124385672241</v>
+        <v>-23.28431173420672</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-29.36126992740684</v>
+        <v>-23.79825641480013</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-28.24889735616436</v>
+        <v>-24.45597736343399</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-27.2948272676538</v>
+        <v>-25.2169303278265</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-26.71526657469352</v>
+        <v>-25.99828440013553</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-26.57314861417774</v>
+        <v>-26.65814567508379</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-26.87645942133962</v>
+        <v>-27.01615004528572</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-27.59855588122652</v>
+        <v>-26.94789908101047</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-28.63439008843055</v>
+        <v>-26.48541069312255</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-29.68099882553753</v>
+        <v>-25.78908490401729</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-30.17219395142357</v>
+        <v>-25.03235781044872</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-29.73353344899568</v>
+        <v>-24.33493489479499</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-28.71399935093189</v>
+        <v>-23.76196449752603</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-27.68619476046145</v>
+        <v>-23.34415492739659</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-26.96508220966209</v>
+        <v>-23.09449209139542</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-26.66180198760173</v>
+        <v>-23.01789422335035</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-26.80629576825883</v>
+        <v>-23.11579712366343</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-27.39522304662714</v>
+        <v>-23.38751027741995</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-28.37708366233666</v>
+        <v>-23.82894843064881</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-29.56113824980222</v>
+        <v>-24.42811062189423</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-30.46265828651472</v>
+        <v>-25.15537596042422</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-30.46294436293244</v>
+        <v>-25.94634333824187</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-29.58132336777328</v>
+        <v>-26.68045217596525</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-28.44492067241062</v>
+        <v>-27.18000676044407</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-27.52364145763445</v>
+        <v>-27.27783493032217</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-26.99777751297925</v>
+        <v>-26.93881456874693</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-26.91273414599268</v>
+        <v>-26.29132857173965</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-27.2641884823845</v>
+        <v>-25.521916111746</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-28.00649636537063</v>
+        <v>-24.7762797982954</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-28.99791908861645</v>
+        <v>-24.13861920685551</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-29.89140673204355</v>
+        <v>-23.64972707376253</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-30.16494093274162</v>
+        <v>-23.32691531069755</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-29.62082068340884</v>
+        <v>-23.17646771169878</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-28.66275899893492</v>
+        <v>-23.19991093780024</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-27.77387019645268</v>
+        <v>-23.39643953477342</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-27.20533569133702</v>
+        <v>-23.76267602819824</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-27.04752532037665</v>
+        <v>-24.28975513057389</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-27.32323657112349</v>
+        <v>-24.95653059493593</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-28.01657671360459</v>
+        <v>-25.71697738555002</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-29.04055704315401</v>
+        <v>-26.48190918698964</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-30.13091796154959</v>
+        <v>-27.10703092620241</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-30.75796850061451</v>
+        <v>-27.42270056688329</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-30.48811764171572</v>
+        <v>-27.32918734634259</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-29.5744984917139</v>
+        <v>-26.87736839027972</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-28.5904574412699</v>
+        <v>-26.22579968378778</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-27.8861861159103</v>
+        <v>-25.53517544299628</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-27.59215733262977</v>
+        <v>-24.9144868427359</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-27.74298028189248</v>
+        <v>-24.42331097612614</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-28.32992572644346</v>
+        <v>-24.09028605784556</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-29.28413474651882</v>
+        <v>-23.92797054325771</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-30.38368027267379</v>
+        <v>-23.9413162400179</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-31.13486115686118</v>
+        <v>-24.13144786426609</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-31.01907004728832</v>
+        <v>-24.49611264151846</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-30.15817995133466</v>
+        <v>-25.02695312482673</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-29.13376512627881</v>
+        <v>-25.70233570724382</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-28.3530764194467</v>
+        <v>-26.47355030469559</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-27.97745105613079</v>
+        <v>-27.24442181138599</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-28.05416595045869</v>
+        <v>-27.85834232166953</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-28.58423515610507</v>
+        <v>-28.13427485232837</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-29.51650761112323</v>
+        <v>-27.97583584293633</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-30.6605188200516</v>
+        <v>-27.45300449484862</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-31.53399164005141</v>
+        <v>-26.74112541003061</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-31.51958662006</v>
+        <v>-26.00540658674272</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-30.63035605229539</v>
+        <v>-25.35174972593453</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-29.48822087523742</v>
+        <v>-24.83488752057328</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-28.563403914696</v>
+        <v>-24.47909178552855</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-28.03751334287436</v>
+        <v>-24.2931660626299</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-27.9566584148062</v>
+        <v>-24.278415502233</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-28.31643433433196</v>
+        <v>-24.43179026948946</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-29.0692900452606</v>
+        <v>-24.7456834825868</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-30.06652921017683</v>
+        <v>-25.20466766412535</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-30.94549482467545</v>
+        <v>-25.77854651141585</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-31.17428403572265</v>
+        <v>-26.41136813861684</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-30.5800558731105</v>
+        <v>-27.00998722944952</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-29.59327380883073</v>
+        <v>-27.44669677390905</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-28.6942230641281</v>
+        <v>-27.5992731123187</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-28.12278652046674</v>
+        <v>-27.42193591394754</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-27.9610141708777</v>
+        <v>-26.97898981472157</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-28.22511062163456</v>
+        <v>-26.39843745409894</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-28.8918254188265</v>
+        <v>-25.80304484144726</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-29.86643906243283</v>
+        <v>-25.27831874178622</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-30.88854651571396</v>
+        <v>-24.87415430788514</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-31.4733143103252</v>
+        <v>-24.61680551166355</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-31.24537264374467</v>
+        <v>-24.51914563501966</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-30.4293376631011</v>
+        <v>-24.58678668274658</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-29.53892533033689</v>
+        <v>-24.8206271838591</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-28.90504969658238</v>
+        <v>-25.21635833190352</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-28.65874154888293</v>
+        <v>-25.76054558628543</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-28.83394767971681</v>
+        <v>-26.42194252186354</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-29.41126633414473</v>
+        <v>-27.13690645613364</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-30.293308704365</v>
+        <v>-27.79330283299077</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-31.21354931907733</v>
+        <v>-28.23447855484746</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-31.68521070810019</v>
+        <v>-28.31849273319666</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-31.34482791080289</v>
+        <v>-28.01477950012772</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-30.42554216955613</v>
+        <v>-27.42936313186251</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-29.43284380749079</v>
+        <v>-26.72330222645819</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-28.68709928622338</v>
+        <v>-26.02951494831827</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-28.31293717041237</v>
+        <v>-25.42960187380662</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-28.34233988724226</v>
+        <v>-24.96566600203897</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-28.76386502395069</v>
+        <v>-24.65680089288338</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-29.5173211369647</v>
+        <v>-24.5103282623757</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-30.43895484195425</v>
+        <v>-24.52777415213917</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-31.18769930258281</v>
+        <v>-24.70721556158835</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-31.34683445327268</v>
+        <v>-25.04302633424928</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-30.83872502399768</v>
+        <v>-25.52309234420532</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-30.02612818654667</v>
+        <v>-26.12278505531521</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-29.29857055759203</v>
+        <v>-26.79496677635358</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-28.8648119307514</v>
+        <v>-27.45787255201333</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-28.80341571109627</v>
+        <v>-27.99179138101456</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-29.12787309701358</v>
+        <v>-28.26723268268015</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-29.80128797239197</v>
+        <v>-28.21178127210105</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-30.69865668209153</v>
+        <v>-27.86145920771524</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-31.53055535962765</v>
+        <v>-27.33397976909283</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-31.86974985040531</v>
+        <v>-26.75803700124374</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-31.51084722350672</v>
+        <v>-26.22947658464628</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-30.73293422035032</v>
+        <v>-25.80614497835853</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-29.95672300035159</v>
+        <v>-25.51869203257305</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-29.44055012089069</v>
+        <v>-25.38162555457374</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-29.29184372873457</v>
+        <v>-25.40036909740314</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-29.54087821467179</v>
+        <v>-25.57450267883979</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-30.16760475405874</v>
+        <v>-25.89790375128049</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-31.07007868958945</v>
+        <v>-26.35590500892161</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-31.97269349533862</v>
+        <v>-26.91895732913258</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-32.39207860174876</v>
+        <v>-27.53275408103001</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-32.00141380759496</v>
+        <v>-28.10849590580834</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-31.0594005403344</v>
+        <v>-28.52655264630431</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-30.05823289411237</v>
+        <v>-28.67345040681791</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-29.30185813783258</v>
+        <v>-28.50534203205535</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-28.90910986784409</v>
+        <v>-28.07883468358472</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-28.91382786432953</v>
+        <v>-27.51130977786538</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-29.31413347494271</v>
+        <v>-26.91860334929807</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-30.07357545751275</v>
+        <v>-26.38356395896393</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-31.0764053548149</v>
+        <v>-25.95561883683315</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-32.03709705981176</v>
+        <v>-25.66113924483615</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-32.49337804764146</v>
+        <v>-25.51307036142573</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-32.17713937839926</v>
+        <v>-25.51705951420998</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-31.36432131879999</v>
+        <v>-25.67452178314521</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-30.51583671873394</v>
+        <v>-25.98331570505875</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-29.91287767110263</v>
+        <v>-26.43619528476083</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-29.66711959153675</v>
+        <v>-27.01656215830631</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-29.80904828969632</v>
+        <v>-27.69055918614392</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-30.32773308862449</v>
+        <v>-28.39556342194518</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-31.16065147922355</v>
+        <v>-29.03052574178765</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-32.13436562012343</v>
+        <v>-29.465604086715</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-32.89148234299195</v>
+        <v>-29.59179531095002</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-33.01662083885209</v>
+        <v>-29.38946497420887</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-32.46867118729965</v>
+        <v>-28.94296845348826</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-31.63485937270518</v>
+        <v>-28.38256058511594</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-30.89835824299627</v>
+        <v>-27.82209577480462</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-30.45634177951803</v>
+        <v>-27.33683830057311</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-30.38183305600477</v>
+        <v>-26.96901640577108</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-30.68964554969068</v>
+        <v>-26.73974872710574</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-31.35349285865376</v>
+        <v>-26.65823708651264</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-32.27464036661067</v>
+        <v>-26.72704534114487</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-33.20296633811537</v>
+        <v>-26.94422924885161</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-33.70743332934365</v>
+        <v>-27.30300096425822</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-33.47186226345583</v>
+        <v>-27.78898207032658</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-32.68466784316803</v>
+        <v>-28.37461612479009</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-31.79035946600966</v>
+        <v>-29.01079490414413</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-31.09407803369104</v>
+        <v>-29.61870048633357</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-30.72623496690646</v>
+        <v>-30.09224656184072</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-30.72746632139725</v>
+        <v>-30.32700122707601</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-31.09811695051379</v>
+        <v>-30.27304745872271</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-31.80401722313705</v>
+        <v>-29.96770124271793</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-32.7431501382617</v>
+        <v>-29.51046118446386</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-33.67727955409428</v>
+        <v>-29.00952676016635</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-34.21954019281352</v>
+        <v>-28.54809857780781</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-34.09614623613327</v>
+        <v>-28.17888984672798</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-33.46947764786095</v>
+        <v>-27.93149263274525</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-32.73734469675879</v>
+        <v>-27.82093784504438</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-32.19282445983826</v>
+        <v>-27.85339268468817</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-31.97552607908297</v>
+        <v>-28.01155826339485</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-34.26049337785872</v>
+        <v>-28.41118711528721</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-33.8596519896366</v>
+        <v>-28.98829275898961</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-32.44805515630109</v>
+        <v>-29.46773629766801</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-34.07778826932076</v>
+        <v>-30.97448671560454</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-32.77188018198846</v>
+        <v>-29.43522884464507</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-34.02250440736378</v>
+        <v>-30.37664640426024</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-35.47381232437245</v>
+        <v>-31.76128217701962</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-35.00496224376234</v>
+        <v>-31.74396622592253</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-33.69849573677358</v>
+        <v>-30.64355914593519</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-38.68237716258842</v>
+        <v>-37.30258365316075</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-37.35526380713099</v>
+        <v>-36.2286635590036</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-37.10721950927563</v>
+        <v>-35.34174550250576</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-35.70572651003587</v>
+        <v>-32.50841608604158</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-35.60360745089969</v>
+        <v>-31.54996592913244</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-37.71675772323072</v>
+        <v>-31.97187073700886</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-38.3765298197021</v>
+        <v>-31.88488586572493</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-38.39894066397277</v>
+        <v>-31.33654611943871</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-44.93700311472296</v>
+        <v>-35.01992954538134</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-39.14514186573413</v>
+        <v>-31.48424747425281</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-40.57155680638723</v>
+        <v>-35.4272149358994</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-43.33127930469455</v>
+        <v>-34.80222168276774</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-39.86951522869423</v>
+        <v>-36.33949596066149</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-48.30867601165706</v>
+        <v>-41.60474262599232</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-46.87364997765852</v>
+        <v>-43.7664031043265</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-42.209227920731</v>
+        <v>-47.93555790608644</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-43.47343475408404</v>
+        <v>-44.936991843112</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-47.83890673774533</v>
+        <v>-46.65528448691859</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-41.74329319919294</v>
+        <v>-40.6729621983829</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-49.43062696887153</v>
+        <v>-41.48405622300201</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-43.10030621938539</v>
+        <v>-43.59389139748798</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-44.2350205741466</v>
+        <v>-40.7878405186181</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-40.92488133264535</v>
+        <v>-41.3425167232819</v>
       </c>
     </row>
     <row r="534">
@@ -4699,3677 +4699,2943 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-44.60783515681184</v>
+        <v>-42.37276618656393</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
         <v>1.862590527656685</v>
       </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B535" t="n">
+        <v>-48.33846653280457</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
         <v>1.866085068984371</v>
       </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B536" t="n">
+        <v>-51.78610897223818</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
         <v>1.869579610312057</v>
       </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B537" t="n">
+        <v>-57.63167812400694</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
         <v>1.873074151639743</v>
       </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B538" t="n">
+        <v>-65.90191553019902</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
         <v>1.876568692967429</v>
       </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B539" t="n">
+        <v>-56.22760455037348</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
         <v>1.880063234295115</v>
       </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B540" t="n">
+        <v>-50.9081853469641</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
         <v>1.883557775622801</v>
       </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B541" t="n">
+        <v>-47.61979580353533</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
         <v>1.887052316950488</v>
       </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B542" t="n">
+        <v>-45.2801671636058</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
         <v>1.890546858278174</v>
       </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B543" t="n">
+        <v>-43.49433795580114</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
         <v>1.89404139960586</v>
       </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B544" t="n">
+        <v>-42.07697151826137</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
         <v>1.897535940933546</v>
       </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B545" t="n">
+        <v>-40.92681332246728</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
         <v>1.901030482261232</v>
       </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B546" t="n">
+        <v>-39.98281025039626</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
         <v>1.904525023588918</v>
       </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B547" t="n">
+        <v>-39.20557652329087</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
         <v>1.908019564916604</v>
       </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B548" t="n">
+        <v>-38.56849250614909</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
         <v>1.91151410624429</v>
       </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B549" t="n">
+        <v>-38.05299612173296</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
         <v>1.915008647571976</v>
       </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B550" t="n">
+        <v>-37.64593127704099</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
         <v>1.918503188899662</v>
       </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B551" t="n">
+        <v>-37.33796150854558</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
         <v>1.921997730227349</v>
       </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B552" t="n">
+        <v>-37.12260578273654</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
         <v>1.925492271555035</v>
       </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B553" t="n">
+        <v>-36.99563823379731</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
         <v>1.928986812882721</v>
       </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B554" t="n">
+        <v>-36.95473873751868</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
         <v>1.932481354210407</v>
       </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B555" t="n">
+        <v>-36.9993056791176</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
         <v>1.935975895538093</v>
       </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B556" t="n">
+        <v>-37.13042161732614</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
         <v>1.939470436865779</v>
       </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B557" t="n">
+        <v>-37.35094854822909</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
         <v>1.942964978193465</v>
       </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B558" t="n">
+        <v>-37.66577785794743</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
         <v>1.946459519521151</v>
       </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B559" t="n">
+        <v>-38.0822751636169</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
         <v>1.949954060848837</v>
       </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B560" t="n">
+        <v>-38.61101861853938</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
         <v>1.953448602176523</v>
       </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B561" t="n">
+        <v>-39.26698712075273</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
         <v>1.95694314350421</v>
       </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B562" t="n">
+        <v>-40.07153280191055</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
         <v>1.960437684831895</v>
       </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B563" t="n">
+        <v>-41.05574246339876</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
         <v>1.963932226159582</v>
       </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B564" t="n">
+        <v>-42.26657618950688</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
         <v>1.967426767487268</v>
       </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B565" t="n">
+        <v>-43.77889111466149</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
         <v>1.970921308814954</v>
       </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B566" t="n">
+        <v>-45.72174150204004</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
         <v>1.97441585014264</v>
       </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B567" t="n">
+        <v>-48.3451554285958</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
         <v>1.977910391470326</v>
       </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B568" t="n">
+        <v>-52.23166716473943</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
         <v>1.981404932798012</v>
       </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B569" t="n">
+        <v>-59.18115175528482</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
         <v>1.984899474125698</v>
       </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B570" t="n">
+        <v>-62.43219213688595</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
         <v>1.988394015453384</v>
       </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B571" t="n">
+        <v>-53.78774332074416</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
         <v>1.99188855678107</v>
       </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B572" t="n">
+        <v>-49.21154802303496</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
         <v>1.995383098108756</v>
       </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B573" t="n">
+        <v>-46.23298084788077</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
         <v>1.998877639436442</v>
       </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B574" t="n">
+        <v>-44.0571130552776</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
         <v>2.002372180764128</v>
       </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B575" t="n">
+        <v>-42.36776358418608</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
         <v>2.005866722091814</v>
       </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B576" t="n">
+        <v>-41.00892230439629</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
         <v>2.009361263419501</v>
       </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B577" t="n">
+        <v>-39.89255235220851</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
         <v>2.012855804747187</v>
       </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B578" t="n">
+        <v>-38.96430176837126</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
         <v>2.016350346074873</v>
       </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B579" t="n">
+        <v>-38.18843534167245</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
         <v>2.019844887402559</v>
       </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B580" t="n">
+        <v>-37.54036446436315</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
         <v>2.023339428730245</v>
       </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B581" t="n">
+        <v>-37.00262001039088</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
         <v>2.026833970057931</v>
       </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B582" t="n">
+        <v>-36.5625217426371</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
         <v>2.030328511385617</v>
       </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B583" t="n">
+        <v>-36.21076633594838</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
         <v>2.033823052713303</v>
       </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B584" t="n">
+        <v>-35.94054348911421</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
         <v>2.03731759404099</v>
       </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B585" t="n">
+        <v>-35.74696123535685</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
         <v>2.040812135368676</v>
       </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B586" t="n">
+        <v>-35.62667768465231</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
         <v>2.044306676696362</v>
       </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B587" t="n">
+        <v>-35.5776714480022</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
         <v>2.047801218024048</v>
       </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B588" t="n">
+        <v>-35.59911117637687</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
         <v>2.051295759351734</v>
       </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B589" t="n">
+        <v>-35.69131100215638</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
         <v>2.05479030067942</v>
       </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B590" t="n">
+        <v>-35.8557572536828</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
         <v>2.058284842007106</v>
       </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B591" t="n">
+        <v>-36.0952134203901</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
         <v>2.061779383334792</v>
       </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B592" t="n">
+        <v>-36.41392969743446</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
         <v>2.065273924662478</v>
       </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B593" t="n">
+        <v>-36.81796862228094</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
         <v>2.068768465990164</v>
       </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B594" t="n">
+        <v>-37.31572120043698</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
         <v>2.07226300731785</v>
       </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B595" t="n">
+        <v>-37.91870818026799</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
         <v>2.075757548645536</v>
       </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B596" t="n">
+        <v>-38.64283851318051</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
         <v>2.079252089973223</v>
       </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B597" t="n">
+        <v>-39.51047318186646</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
         <v>2.082746631300909</v>
       </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B598" t="n">
+        <v>-40.55395647624006</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
         <v>2.086241172628595</v>
       </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B599" t="n">
+        <v>-41.8220322366278</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
         <v>2.089735713956281</v>
       </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B600" t="n">
+        <v>-43.39254717638941</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
         <v>2.093230255283967</v>
       </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B601" t="n">
+        <v>-45.40044657693019</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
         <v>2.096724796611653</v>
       </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B602" t="n">
+        <v>-48.10991832945122</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
         <v>2.100219337939339</v>
       </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B603" t="n">
+        <v>-52.14862188201444</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
         <v>2.103713879267025</v>
       </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B604" t="n">
+        <v>-59.51856535657496</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
         <v>2.107208420594711</v>
       </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B605" t="n">
+        <v>-61.35060675987149</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
         <v>2.110702961922397</v>
       </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B606" t="n">
+        <v>-52.98253765018814</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
         <v>2.114197503250083</v>
       </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B607" t="n">
+        <v>-48.54798161101394</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
         <v>2.117692044577769</v>
       </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B608" t="n">
+        <v>-45.62711631415411</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
         <v>2.121186585905456</v>
       </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B609" t="n">
+        <v>-43.47436431698586</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
         <v>2.124681127233142</v>
       </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B610" t="n">
+        <v>-41.78885822234707</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
         <v>2.128175668560828</v>
       </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B611" t="n">
+        <v>-40.42060109228684</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
         <v>2.131670209888514</v>
       </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B612" t="n">
+        <v>-39.28427011546871</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
         <v>2.1351647512162</v>
       </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B613" t="n">
+        <v>-38.32681945107035</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
         <v>2.138659292543886</v>
       </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B614" t="n">
+        <v>-37.51310764157533</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
         <v>2.142153833871572</v>
       </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B615" t="n">
+        <v>-36.8187354723233</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
         <v>2.145648375199258</v>
       </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B616" t="n">
+        <v>-36.22615508336436</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
         <v>2.149142916526944</v>
       </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B617" t="n">
+        <v>-35.72240687273413</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
         <v>2.15263745785463</v>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B618" t="n">
+        <v>-35.29773651056095</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
         <v>2.156131999182316</v>
       </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B619" t="n">
+        <v>-34.94471293232864</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
         <v>2.159626540510002</v>
       </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B620" t="n">
+        <v>-34.65764695892035</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
         <v>2.163121081837688</v>
       </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B621" t="n">
+        <v>-34.43219639804698</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
         <v>2.166615623165375</v>
       </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B622" t="n">
+        <v>-34.26510390360939</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
         <v>2.170110164493061</v>
       </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B623" t="n">
+        <v>-34.15400945627472</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
         <v>2.173604705820747</v>
       </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B624" t="n">
+        <v>-34.09733001264036</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
         <v>2.177099247148433</v>
       </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B625" t="n">
+        <v>-34.09418380361151</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
         <v>2.180593788476119</v>
       </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B626" t="n">
+        <v>-34.14435087496596</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
         <v>2.184088329803805</v>
       </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B627" t="n">
+        <v>-34.24826863560956</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
         <v>2.187582871131491</v>
       </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B628" t="n">
+        <v>-34.40705964655406</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
         <v>2.191077412459177</v>
       </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B629" t="n">
+        <v>-34.62259401365498</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
         <v>2.194571953786864</v>
       </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B630" t="n">
+        <v>-34.89759655790415</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
         <v>2.19806649511455</v>
       </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B631" t="n">
+        <v>-35.23580842609554</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
         <v>2.201561036442236</v>
       </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B632" t="n">
+        <v>-35.64222545536302</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
         <v>2.205055577769921</v>
       </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B633" t="n">
+        <v>-36.12344783651097</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
         <v>2.208550119097608</v>
       </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B634" t="n">
+        <v>-36.68819360081163</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
         <v>2.212044660425294</v>
       </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B635" t="n">
+        <v>-37.34807616393626</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
         <v>2.21553920175298</v>
       </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B636" t="n">
+        <v>-38.11881097787467</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
         <v>2.219033743080666</v>
       </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B637" t="n">
+        <v>-39.02215886232309</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
         <v>2.222528284408352</v>
       </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B638" t="n">
+        <v>-40.08922359061954</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
         <v>2.226022825736038</v>
       </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B639" t="n">
+        <v>-41.36639498129632</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
         <v>2.229517367063724</v>
       </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B640" t="n">
+        <v>-42.92695546953608</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
         <v>2.23301190839141</v>
       </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B641" t="n">
+        <v>-44.89633402034387</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
         <v>2.236506449719097</v>
       </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B642" t="n">
+        <v>-47.51596247068961</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
         <v>2.240000991046783</v>
       </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B643" t="n">
+        <v>-51.34594494726625</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
         <v>2.243495532374469</v>
       </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B644" t="n">
+        <v>-58.17418846215702</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
         <v>2.246990073702155</v>
       </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B645" t="n">
+        <v>-63.294489543788</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
         <v>2.250484615029841</v>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B646" t="n">
+        <v>-53.7026493317118</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
         <v>2.253979156357527</v>
       </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B647" t="n">
+        <v>-48.89400825774922</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
         <v>2.257473697685213</v>
       </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B648" t="n">
+        <v>-45.80430805048021</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
         <v>2.260968239012899</v>
       </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B649" t="n">
+        <v>-43.54610735838788</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
         <v>2.264462780340585</v>
       </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B650" t="n">
+        <v>-41.77977340821791</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
         <v>2.267957321668271</v>
       </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B651" t="n">
+        <v>-40.34059431490557</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
         <v>2.271451862995957</v>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B652" t="n">
+        <v>-39.13639295311325</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
         <v>2.274946404323643</v>
       </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B653" t="n">
+        <v>-38.11042797897584</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
         <v>2.278440945651329</v>
       </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B654" t="n">
+        <v>-37.22531574401199</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
         <v>2.281935486979016</v>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B655" t="n">
+        <v>-36.45514345394934</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
         <v>2.285430028306702</v>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B656" t="n">
+        <v>-35.7812315446502</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
         <v>2.288924569634388</v>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B657" t="n">
+        <v>-35.18969317127024</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
         <v>2.292419110962074</v>
       </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B658" t="n">
+        <v>-34.66994477399179</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
         <v>2.29591365228976</v>
       </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B659" t="n">
+        <v>-34.21376040484659</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
         <v>2.299408193617446</v>
       </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B660" t="n">
+        <v>-33.81464312503022</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
         <v>2.302902734945132</v>
       </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B661" t="n">
+        <v>-33.46739922660028</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
         <v>2.306397276272818</v>
       </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B662" t="n">
+        <v>-33.16783924781584</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
         <v>2.309891817600504</v>
       </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B663" t="n">
+        <v>-32.91256466647408</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
         <v>2.31338635892819</v>
       </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B664" t="n">
+        <v>-32.69881171833347</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
         <v>2.316880900255876</v>
       </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B665" t="n">
+        <v>-32.5243384791299</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
         <v>2.320375441583562</v>
       </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B666" t="n">
+        <v>-32.3873400993737</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
         <v>2.323869982911249</v>
       </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B667" t="n">
+        <v>-32.28638547414228</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
         <v>2.327364524238935</v>
       </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B668" t="n">
+        <v>-32.22037147141661</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
         <v>2.330859065566621</v>
       </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B669" t="n">
+        <v>-32.18848937038064</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
         <v>2.334353606894307</v>
       </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B670" t="n">
+        <v>-32.19020242511437</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
         <v>2.337848148221993</v>
       </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B671" t="n">
+        <v>-32.22523256216633</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
         <v>2.341342689549679</v>
       </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B672" t="n">
+        <v>-32.29355388732485</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
         <v>2.344837230877365</v>
       </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B673" t="n">
+        <v>-32.39539621081551</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
         <v>2.348331772205051</v>
       </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B674" t="n">
+        <v>-32.53125436548783</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
         <v>2.351826313532738</v>
       </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B675" t="n">
+        <v>-32.70190720105572</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
         <v>2.355320854860424</v>
       </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B676" t="n">
+        <v>-32.90844672660673</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
         <v>2.35881539618811</v>
       </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B677" t="n">
+        <v>-33.15231820466246</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
         <v>2.362309937515795</v>
       </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B678" t="n">
+        <v>-33.43537680069263</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
         <v>2.365804478843482</v>
       </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B679" t="n">
+        <v>-33.75996220905546</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
         <v>2.369299020171168</v>
       </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B680" t="n">
+        <v>-34.12900147153407</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
         <v>2.372793561498854</v>
       </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B681" t="n">
+        <v>-34.54614647675829</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
         <v>2.37628810282654</v>
       </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B682" t="n">
+        <v>-35.01596366532228</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
         <v>2.379782644154226</v>
       </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B683" t="n">
+        <v>-35.54419787940024</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
         <v>2.383277185481912</v>
       </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B684" t="n">
+        <v>-36.13814637529362</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
         <v>2.386771726809598</v>
       </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B685" t="n">
+        <v>-36.80720335611964</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
         <v>2.390266268137284</v>
       </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B686" t="n">
+        <v>-37.56367401872679</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
         <v>2.39376080946497</v>
       </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B687" t="n">
+        <v>-38.42403678282422</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
         <v>2.397255350792657</v>
       </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B688" t="n">
+        <v>-39.41098308626938</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
         <v>2.400749892120343</v>
       </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B689" t="n">
+        <v>-40.55688942833669</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
         <v>2.404244433448029</v>
       </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B690" t="n">
+        <v>-41.91012595643343</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
         <v>2.407738974775715</v>
       </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B691" t="n">
+        <v>-43.54752845397951</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
         <v>2.411233516103401</v>
       </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B692" t="n">
+        <v>-45.60202663041126</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
         <v>2.414728057431087</v>
       </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B693" t="n">
+        <v>-48.33473192757681</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
         <v>2.418222598758773</v>
       </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B694" t="n">
+        <v>-52.37884307080859</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
         <v>2.421717140086459</v>
       </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B695" t="n">
+        <v>-60.09743492654103</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
         <v>2.425211681414145</v>
       </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B696" t="n">
+        <v>-64.79120503699667</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
         <v>2.428706222741831</v>
       </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B697" t="n">
+        <v>-54.12327934972504</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
         <v>2.432200764069517</v>
       </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B698" t="n">
+        <v>-49.36652255741541</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
         <v>2.435695305397203</v>
       </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B699" t="n">
+        <v>-46.31367761428682</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
         <v>2.43918984672489</v>
       </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B700" t="n">
+        <v>-44.07195246486306</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
         <v>2.442684388052576</v>
       </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B701" t="n">
+        <v>-42.3071782862063</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
         <v>2.446178929380262</v>
       </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B702" t="n">
+        <v>-40.85782524376869</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
         <v>2.449673470707948</v>
       </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B703" t="n">
+        <v>-39.63344807645989</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
         <v>2.453168012035634</v>
       </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B704" t="n">
+        <v>-38.57826967287057</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
         <v>2.45666255336332</v>
       </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B705" t="n">
+        <v>-37.65544872790844</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
         <v>2.460157094691006</v>
       </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B706" t="n">
+        <v>-36.83936665288822</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
         <v>2.463651636018692</v>
       </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B707" t="n">
+        <v>-36.1114808781388</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
         <v>2.467146177346378</v>
       </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B708" t="n">
+        <v>-35.45793272035969</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
         <v>2.470640718674064</v>
       </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B709" t="n">
+        <v>-34.86808788697372</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
         <v>2.47413526000175</v>
       </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B710" t="n">
+        <v>-34.33360546719845</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
         <v>2.477629801329436</v>
       </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B711" t="n">
+        <v>-33.84782037937704</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
         <v>2.481124342657123</v>
       </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B712" t="n">
+        <v>-33.40532122993677</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
         <v>2.484618883984809</v>
       </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B713" t="n">
+        <v>-33.00165341877078</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
         <v>2.488113425312495</v>
       </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B714" t="n">
+        <v>-32.63310554155155</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
         <v>2.491607966640181</v>
       </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B715" t="n">
+        <v>-32.29655268415085</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
         <v>2.495102507967867</v>
       </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B716" t="n">
+        <v>-31.98933896305179</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
         <v>2.498597049295553</v>
       </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B717" t="n">
+        <v>-31.7091884102442</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
         <v>2.502091590623239</v>
       </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B718" t="n">
+        <v>-31.45413637231871</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
         <v>2.505586131950925</v>
       </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B719" t="n">
+        <v>-31.22247576987508</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
         <v>2.509080673278612</v>
       </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B720" t="n">
+        <v>-31.01271464008929</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
         <v>2.512575214606298</v>
       </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B721" t="n">
+        <v>-30.82354254670804</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
         <v>2.516069755933983</v>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B722" t="n">
+        <v>-30.65380298892575</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
         <v>2.519564297261669</v>
       </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B723" t="n">
+        <v>-30.50247193174052</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
         <v>2.523058838589356</v>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B724" t="n">
+        <v>-30.36863888562259</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
         <v>2.526553379917042</v>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B725" t="n">
+        <v>-30.25149253627551</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
         <v>2.530047921244728</v>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B726" t="n">
+        <v>-30.15030796398737</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
         <v>2.533542462572414</v>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B727" t="n">
+        <v>-30.06443665362723</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
         <v>2.5370370039001</v>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B728" t="n">
+        <v>-29.9932980153996</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
         <v>2.540531545227786</v>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B729" t="n">
+        <v>-29.93637139940732</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
         <v>2.544026086555472</v>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B730" t="n">
+        <v>-29.89319055027536</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
         <v>2.547520627883158</v>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B731" t="n">
+        <v>-29.86333837970803</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
         <v>2.551015169210844</v>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B732" t="n">
+        <v>-29.84644239048446</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
         <v>2.554509710538531</v>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B733" t="n">
+        <v>-29.84217118435685</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
         <v>2.558004251866217</v>
       </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B734" t="n">
+        <v>-29.85023117645932</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
         <v>2.561498793193903</v>
       </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B735" t="n">
+        <v>-29.87036415310401</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
         <v>2.564993334521589</v>
       </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B736" t="n">
+        <v>-29.90234512690934</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
         <v>2.568487875849275</v>
       </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B737" t="n">
+        <v>-29.94598053078768</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
         <v>2.571982417176961</v>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B738" t="n">
+        <v>-30.00110658378378</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
         <v>2.575476958504647</v>
       </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B739" t="n">
+        <v>-30.06758873220004</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
         <v>2.578971499832333</v>
       </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B740" t="n">
+        <v>-30.14531989833552</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
         <v>2.582466041160019</v>
       </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B741" t="n">
+        <v>-30.23422163374727</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
         <v>2.585960582487705</v>
       </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B742" t="n">
+        <v>-30.33424180651765</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
         <v>2.589455123815391</v>
       </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B743" t="n">
+        <v>-30.44535633961407</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
         <v>2.592949665143077</v>
       </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B744" t="n">
+        <v>-30.56756861774043</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
         <v>2.596444206470764</v>
       </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B745" t="n">
+        <v>-30.70091031379597</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
         <v>2.59993874779845</v>
       </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B746" t="n">
+        <v>-30.84544225747253</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
         <v>2.603433289126136</v>
       </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B747" t="n">
+        <v>-31.00125515526578</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
         <v>2.606927830453822</v>
       </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B748" t="n">
+        <v>-31.16847225317786</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
         <v>2.610422371781508</v>
       </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B749" t="n">
+        <v>-31.34724973617153</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
         <v>2.613916913109194</v>
       </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B750" t="n">
+        <v>-31.53777972727427</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
         <v>2.61741145443688</v>
       </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B751" t="n">
+        <v>-31.7402930165829</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
         <v>2.620905995764566</v>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B752" t="n">
+        <v>-31.95506255523495</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
         <v>2.624400537092252</v>
       </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B753" t="n">
+        <v>-32.18240599739767</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
         <v>2.627895078419938</v>
       </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B754" t="n">
+        <v>-32.42269201025263</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
         <v>2.631389619747624</v>
       </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B755" t="n">
+        <v>-32.6763443051538</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
         <v>2.63488416107531</v>
       </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B756" t="n">
+        <v>-32.94384885168301</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
         <v>2.638378702402997</v>
       </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B757" t="n">
+        <v>-33.22576090313288</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
         <v>2.641873243730683</v>
       </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B758" t="n">
+        <v>-33.52271396974917</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
         <v>2.645367785058369</v>
       </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B759" t="n">
+        <v>-33.83543133483489</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
         <v>2.648862326386055</v>
       </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B760" t="n">
+        <v>-34.16473761278214</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
         <v>2.652356867713741</v>
       </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B761" t="n">
+        <v>-34.5115758130751</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
         <v>2.655851409041427</v>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B762" t="n">
+        <v>-34.87702325475257</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
         <v>2.659345950369113</v>
       </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B763" t="n">
+        <v>-35.26231910573628</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
         <v>2.662840491696799</v>
       </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B764" t="n">
+        <v>-35.66888817019051</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
         <v>2.666335033024485</v>
       </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B765" t="n">
+        <v>-36.09837786822182</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
         <v>2.669829574352172</v>
       </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B766" t="n">
+        <v>-36.55270029714112</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
         <v>2.673324115679857</v>
       </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B767" t="n">
+        <v>-37.03408895662792</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
         <v>2.676818657007543</v>
       </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B768" t="n">
+        <v>-37.54516709217179</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
         <v>2.68031319833523</v>
       </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B769" t="n">
+        <v>-38.08903842642725</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
         <v>2.683807739662916</v>
       </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B770" t="n">
+        <v>-38.66940235516817</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
         <v>2.687302280990602</v>
       </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B771" t="n">
+        <v>-39.29071242990305</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
         <v>2.690796822318288</v>
       </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B772" t="n">
+        <v>-39.95837872736491</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
         <v>2.694291363645974</v>
       </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B773" t="n">
+        <v>-40.67905551069435</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
         <v>2.69778590497366</v>
       </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B774" t="n">
+        <v>-41.46102792010236</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
         <v>2.701280446301346</v>
       </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B775" t="n">
+        <v>-42.31476233942308</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
         <v>2.704774987629032</v>
       </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B776" t="n">
+        <v>-43.25369528027118</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
         <v>2.708269528956718</v>
       </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B777" t="n">
+        <v>-44.29536295508374</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
         <v>2.711764070284405</v>
       </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B778" t="n">
+        <v>-45.46306531719384</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
         <v>2.715258611612091</v>
       </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B779" t="n">
+        <v>-46.78820890210795</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
         <v>2.718753152939777</v>
       </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B780" t="n">
+        <v>-48.31325191192244</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
         <v>2.722247694267463</v>
       </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B781" t="n">
+        <v>-50.09356602260166</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
         <v>2.725742235595149</v>
       </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B782" t="n">
+        <v>-52.18773657378513</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
         <v>2.729236776922835</v>
       </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B783" t="n">
+        <v>-54.58328950931363</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
         <v>2.732731318250521</v>
       </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B784" t="n">
+        <v>-56.84893359140331</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
         <v>2.736225859578207</v>
       </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B785" t="n">
+        <v>-57.54395060808686</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
         <v>2.739720400905893</v>
       </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B786" t="n">
+        <v>-55.97856870803209</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
         <v>2.743214942233579</v>
       </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B787" t="n">
+        <v>-53.64931971357171</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
         <v>2.746709483561265</v>
       </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B788" t="n">
+        <v>-51.49262403456922</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
         <v>2.750204024888951</v>
       </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B789" t="n">
+        <v>-49.6632969266248</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
         <v>2.753698566216638</v>
       </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B790" t="n">
+        <v>-48.1210122728844</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
         <v>2.757193107544324</v>
       </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B791" t="n">
+        <v>-46.8056416370429</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
         <v>2.76068764887201</v>
       </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B792" t="n">
+        <v>-45.66791558635731</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
         <v>2.764182190199696</v>
       </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B793" t="n">
+        <v>-44.6710003906413</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
         <v>2.767676731527382</v>
       </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B794" t="n">
+        <v>-43.78767113356519</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
         <v>2.771171272855068</v>
       </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B795" t="n">
+        <v>-42.99759618951067</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
         <v>2.774665814182754</v>
       </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B796" t="n">
+        <v>-42.28532384451799</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
         <v>2.77816035551044</v>
       </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B797" t="n">
+        <v>-41.63891738319474</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
         <v>2.781654896838126</v>
       </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B798" t="n">
+        <v>-41.04899109045662</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
         <v>2.785149438165812</v>
       </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B799" t="n">
+        <v>-40.50805891676013</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
         <v>2.788643979493498</v>
       </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B800" t="n">
+        <v>-40.01006288213564</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
         <v>2.792138520821184</v>
       </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B801" t="n">
+        <v>-39.55004207602408</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
         <v>2.795633062148871</v>
       </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B802" t="n">
+        <v>-39.12389036342417</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
         <v>2.799127603476557</v>
       </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B803" t="n">
+        <v>-38.72817502799973</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
         <v>2.802622144804243</v>
       </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B804" t="n">
+        <v>-38.36000401327713</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
         <v>2.806116686131929</v>
       </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B805" t="n">
+        <v>-38.01691978826467</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
         <v>2.809611227459615</v>
       </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B806" t="n">
+        <v>-37.69682586913544</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
         <v>2.813105768787301</v>
       </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B807" t="n">
+        <v>-37.39791750405736</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
         <v>2.816600310114987</v>
       </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B808" t="n">
+        <v>-37.11863834115103</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
         <v>2.820094851442673</v>
       </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B809" t="n">
+        <v>-36.85763974324112</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
         <v>2.823589392770359</v>
       </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B810" t="n">
+        <v>-36.6137513151767</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
         <v>2.827083934098045</v>
       </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B811" t="n">
+        <v>-36.38595237681934</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
         <v>2.830578475425731</v>
       </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B812" t="n">
+        <v>-36.17335696347544</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
         <v>2.834073016753417</v>
       </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B813" t="n">
+        <v>-35.97518953640748</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
         <v>2.837567558081104</v>
       </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B814" t="n">
+        <v>-35.79077878974904</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
         <v>2.84106209940879</v>
       </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B815" t="n">
+        <v>-35.61954310565228</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
         <v>2.844556640736476</v>
       </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B816" t="n">
+        <v>-35.46097974556503</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
         <v>2.848051182064162</v>
       </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B817" t="n">
+        <v>-35.31466041680948</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
         <v>2.851545723391848</v>
       </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B818" t="n">
+        <v>-35.1802210526714</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
         <v>2.855040264719534</v>
       </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B819" t="n">
+        <v>-35.05736320777405</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
         <v>2.85853480604722</v>
       </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B820" t="n">
+        <v>-34.94584242045455</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
         <v>2.862029347374906</v>
       </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B821" t="n">
+        <v>-34.84546841105958</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
         <v>2.865523888702592</v>
       </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B822" t="n">
+        <v>-34.75610519694533</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
         <v>2.869018430030279</v>
       </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B823" t="n">
+        <v>-34.67766509138729</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
         <v>2.872512971357965</v>
       </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B824" t="n">
+        <v>-34.61010911227809</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
         <v>2.876007512685651</v>
       </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B825" t="n">
+        <v>-34.55344804615761</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
         <v>2.879502054013336</v>
       </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B826" t="n">
+        <v>-34.50774129019884</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
         <v>2.882996595341023</v>
       </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B827" t="n">
+        <v>-34.47309763196007</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
         <v>2.886491136668709</v>
       </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B828" t="n">
+        <v>-34.44967810045124</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
         <v>2.889985677996395</v>
       </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B829" t="n">
+        <v>-34.43769580813499</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
         <v>2.893480219324081</v>
       </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B830" t="n">
+        <v>-34.43742121985147</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
         <v>2.896974760651767</v>
       </c>
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B831" t="n">
+        <v>-34.44918624591506</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
         <v>2.900469301979453</v>
       </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B832" t="n">
+        <v>-34.47338505156646</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
         <v>2.903963843307139</v>
       </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B833" t="n">
+        <v>-34.51048677882235</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
         <v>2.907458384634825</v>
       </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B834" t="n">
+        <v>-34.56103624274025</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
         <v>2.910952925962512</v>
       </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B835" t="n">
+        <v>-34.62566533788967</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
         <v>2.914447467290198</v>
       </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B836" t="n">
+        <v>-34.70510651875873</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
         <v>2.917942008617884</v>
       </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B837" t="n">
+        <v>-34.80020218019464</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
         <v>2.92143654994557</v>
       </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B838" t="n">
+        <v>-34.91192083663108</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
         <v>2.924931091273256</v>
       </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B839" t="n">
+        <v>-35.0413776520719</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
         <v>2.928425632600942</v>
       </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B840" t="n">
+        <v>-35.18985962244531</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
         <v>2.931920173928628</v>
       </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B841" t="n">
+        <v>-35.3588510491866</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
         <v>2.935414715256314</v>
       </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B842" t="n">
+        <v>-35.55007432217183</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
         <v>2.938909256584</v>
       </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B843" t="n">
+        <v>-35.76553243869841</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
         <v>2.942403797911686</v>
       </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B844" t="n">
+        <v>-36.00757115781164</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
         <v>2.945898339239372</v>
       </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B845" t="n">
+        <v>-36.27894631778858</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
         <v>2.949392880567058</v>
       </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B846" t="n">
+        <v>-36.58292912178413</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
         <v>2.952887421894745</v>
       </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B847" t="n">
+        <v>-36.92342252588862</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
         <v>2.956381963222431</v>
       </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B848" t="n">
+        <v>-37.3051310941543</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
         <v>2.959876504550117</v>
       </c>
-      <c r="B849" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B849" t="n">
+        <v>-37.73378401703083</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
         <v>2.963371045877803</v>
       </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B850" t="n">
+        <v>-38.21643882086568</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
         <v>2.966865587205489</v>
       </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B851" t="n">
+        <v>-38.76189746680164</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1" t="n">
         <v>2.970360128533175</v>
       </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B852" t="n">
+        <v>-39.38130093190626</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
         <v>2.973854669860861</v>
       </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B853" t="n">
+        <v>-40.08896734315525</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
         <v>2.977349211188547</v>
       </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B854" t="n">
+        <v>-40.90359233465092</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
         <v>2.980843752516233</v>
       </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B855" t="n">
+        <v>-41.849943971888</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
         <v>2.984338293843919</v>
       </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B856" t="n">
+        <v>-42.9611307209155</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
         <v>2.987832835171605</v>
       </c>
-      <c r="B857" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B857" t="n">
+        <v>-44.28081796169352</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
         <v>2.991327376499291</v>
       </c>
-      <c r="B858" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B858" t="n">
+        <v>-45.86181257201493</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
         <v>2.994821917826977</v>
       </c>
-      <c r="B859" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B859" t="n">
+        <v>-47.74249625564913</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
         <v>2.998316459154664</v>
       </c>
-      <c r="B860" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B860" t="n">
+        <v>-49.81901987602066</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
         <v>3.00181100048235</v>
       </c>
-      <c r="B861" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B861" t="n">
+        <v>-51.39747304122996</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1" t="n">
         <v>3.005305541810036</v>
       </c>
-      <c r="B862" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B862" t="n">
+        <v>-51.06550115901947</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
         <v>3.008800083137722</v>
       </c>
-      <c r="B863" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B863" t="n">
+        <v>-48.94834421862777</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
         <v>3.012294624465408</v>
       </c>
-      <c r="B864" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B864" t="n">
+        <v>-46.45242298566523</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
         <v>3.015789165793094</v>
       </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B865" t="n">
+        <v>-44.17939183014391</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
         <v>3.01928370712078</v>
       </c>
-      <c r="B866" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B866" t="n">
+        <v>-42.20480396790632</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
         <v>3.022778248448466</v>
       </c>
-      <c r="B867" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B867" t="n">
+        <v>-40.4858796131519</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
         <v>3.026272789776153</v>
       </c>
-      <c r="B868" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B868" t="n">
+        <v>-38.97035120300424</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1" t="n">
         <v>3.029767331103839</v>
       </c>
-      <c r="B869" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B869" t="n">
+        <v>-37.61569293120412</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1" t="n">
         <v>3.033261872431525</v>
       </c>
-      <c r="B870" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B870" t="n">
+        <v>-36.38978298590536</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1" t="n">
         <v>3.03675641375921</v>
       </c>
-      <c r="B871" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B871" t="n">
+        <v>-35.26856765620248</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1" t="n">
         <v>3.040250955086897</v>
       </c>
-      <c r="B872" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B872" t="n">
+        <v>-34.23386741063408</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="n">
         <v>3.043745496414583</v>
       </c>
-      <c r="B873" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B873" t="n">
+        <v>-33.27172976754976</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="n">
         <v>3.047240037742269</v>
       </c>
-      <c r="B874" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B874" t="n">
+        <v>-32.37127572761111</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
         <v>3.050734579069955</v>
       </c>
-      <c r="B875" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B875" t="n">
+        <v>-31.52388834275992</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
         <v>3.054229120397641</v>
       </c>
-      <c r="B876" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B876" t="n">
+        <v>-30.72264496939751</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
         <v>3.057723661725327</v>
       </c>
-      <c r="B877" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B877" t="n">
+        <v>-29.96191181570632</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
         <v>3.061218203053013</v>
       </c>
-      <c r="B878" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B878" t="n">
+        <v>-29.23704739186508</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
         <v>3.064712744380699</v>
       </c>
-      <c r="B879" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B879" t="n">
+        <v>-28.54419077181145</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
         <v>3.068207285708386</v>
       </c>
-      <c r="B880" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B880" t="n">
+        <v>-27.88009538437508</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
         <v>3.071701827036072</v>
       </c>
-      <c r="B881" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B881" t="n">
+        <v>-27.24201123597629</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
         <v>3.075196368363758</v>
       </c>
-      <c r="B882" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B882" t="n">
+        <v>-26.62758829228068</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
         <v>3.078690909691444</v>
       </c>
-      <c r="B883" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B883" t="n">
+        <v>-26.03480605258429</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
         <v>3.08218545101913</v>
       </c>
-      <c r="B884" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B884" t="n">
+        <v>-25.46191535532652</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1" t="n">
         <v>3.085679992346816</v>
       </c>
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B885" t="n">
+        <v>-24.90739384277198</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
         <v>3.089174533674502</v>
       </c>
-      <c r="B886" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B886" t="n">
+        <v>-24.36990795875635</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1" t="n">
         <v>3.092669075002188</v>
       </c>
-      <c r="B887" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B887" t="n">
+        <v>-23.84828675541996</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1" t="n">
         <v>3.096163616329874</v>
       </c>
-      <c r="B888" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B888" t="n">
+        <v>-23.34149484846633</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1" t="n">
         <v>3.09965815765756</v>
       </c>
-      <c r="B889" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B889" t="n">
+        <v>-22.84861469305346</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1" t="n">
         <v>3.103152698985246</v>
       </c>
-      <c r="B890" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B890" t="n">
+        <v>-22.3688307135255</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1" t="n">
         <v>3.106647240312932</v>
       </c>
-      <c r="B891" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B891" t="n">
+        <v>-21.90141375370855</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1" t="n">
         <v>3.110141781640618</v>
       </c>
-      <c r="B892" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B892" t="n">
+        <v>-21.44571187229894</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1" t="n">
         <v>3.113636322968305</v>
       </c>
-      <c r="B893" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B893" t="n">
+        <v>-21.00114053188265</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1" t="n">
         <v>3.117130864295991</v>
       </c>
-      <c r="B894" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B894" t="n">
+        <v>-20.56717216941207</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1" t="n">
         <v>3.120625405623677</v>
       </c>
-      <c r="B895" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B895" t="n">
+        <v>-20.14333304758799</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1" t="n">
         <v>3.124119946951363</v>
       </c>
-      <c r="B896" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B896" t="n">
+        <v>-19.72919455415903</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1" t="n">
         <v>3.127614488279049</v>
       </c>
-      <c r="B897" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B897" t="n">
+        <v>-19.32436855527684</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
         <v>3.131109029606735</v>
       </c>
-      <c r="B898" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B898" t="n">
+        <v>-18.92850488428704</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1" t="n">
         <v>3.134603570934421</v>
       </c>
-      <c r="B899" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B899" t="n">
+        <v>-18.54128457370074</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1" t="n">
         <v>3.138098112262107</v>
       </c>
-      <c r="B900" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B900" t="n">
+        <v>-18.16241911154256</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B901" t="n">
+        <v>-17.79164710564498</v>
       </c>
     </row>
   </sheetData>

--- a/RT_radpat_80deg.xlsx
+++ b/RT_radpat_80deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.38965639957976</v>
+        <v>-134.5915805308373</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.0868657934748</v>
+        <v>-134.6202496745118</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-13.78555337076046</v>
+        <v>-134.6835134092007</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-13.48597947048035</v>
+        <v>-134.7850413413858</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-13.18839342301024</v>
+        <v>-134.9291824119367</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.89303384745624</v>
+        <v>-135.1211553276695</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.60012972505151</v>
+        <v>-135.3673119578717</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-12.30990052756329</v>
+        <v>-135.675505247292</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.02255700516159</v>
+        <v>-136.0556182029028</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.73830239608259</v>
+        <v>-136.5203458490199</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-11.45733247076415</v>
+        <v>-137.0863876448905</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.17983639771417</v>
+        <v>-137.7763367542466</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-10.9059976209025</v>
+        <v>-138.6218062208611</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.63599428635299</v>
+        <v>-139.6688734433292</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-10.36999979676376</v>
+        <v>-140.9881392522283</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-10.10818377402353</v>
+        <v>-142.6944686302199</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.85071250193117</v>
+        <v>-144.9868391698863</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.597749074298278</v>
+        <v>-148.2066864537268</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.349454603182968</v>
+        <v>-152.3969551846479</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.105988332826024</v>
+        <v>-152.488330408724</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.867508498867101</v>
+        <v>-147.7228075894258</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.634172437159101</v>
+        <v>-143.7881811688032</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.406137178869935</v>
+        <v>-140.8226800965342</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.183560258006816</v>
+        <v>-138.4718369704232</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.966599737408437</v>
+        <v>-136.5254776783205</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.755414995532306</v>
+        <v>-134.863113128783</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.550166942290821</v>
+        <v>-133.4113710082119</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.351018730871608</v>
+        <v>-132.1228222330987</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.158135935185044</v>
+        <v>-130.9652535052427</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-6.971687125926358</v>
+        <v>-129.9158962612727</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.791844463422649</v>
+        <v>-128.9581322735422</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.618784045519583</v>
+        <v>-128.0795136760304</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.452686330329559</v>
+        <v>-127.2705182939053</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.293736833479394</v>
+        <v>-126.523737390106</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-6.142126451653177</v>
+        <v>-125.8333291789745</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.998052141457938</v>
+        <v>-125.19463953743</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.861717522206382</v>
+        <v>-124.6039335477763</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.73333331077453</v>
+        <v>-124.0582016631335</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.61311828073022</v>
+        <v>-123.5550164179629</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.501299640481758</v>
+        <v>-123.0924260835283</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.39811405539187</v>
+        <v>-122.6688740467255</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.303808280344873</v>
+        <v>-122.283138032864</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.218640199142792</v>
+        <v>-121.9342833603873</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.142879709531691</v>
+        <v>-121.6216274747238</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.076809827006521</v>
+        <v>-121.3447135252254</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.020727843837354</v>
+        <v>-121.1032904981757</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-4.974946654377667</v>
+        <v>-120.8972995470862</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.939796177757922</v>
+        <v>-120.7268654021755</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-4.915624975378106</v>
+        <v>-120.5922921036517</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.902802031384653</v>
+        <v>-120.4940630635789</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.901718758971155</v>
+        <v>-120.4328455082933</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.912791291827684</v>
+        <v>-120.4094990579918</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.936462972369623</v>
+        <v>-120.4250893454747</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.973207311653283</v>
+        <v>-120.4809068899871</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.023531253052257</v>
+        <v>-120.5784924998811</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.087978911412775</v>
+        <v>-120.7196705496022</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.167135980964392</v>
+        <v>-120.9065919156085</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.261634559402314</v>
+        <v>-121.1417894845549</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.372159067740574</v>
+        <v>-121.428249908523</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.499452902868754</v>
+        <v>-121.7695068646647</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.644326182040282</v>
+        <v>-122.1697631160924</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-5.807665282197521</v>
+        <v>-122.6340526016011</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-5.99044334220903</v>
+        <v>-123.1684569441058</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-6.193733652510672</v>
+        <v>-123.7804005930429</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-6.418725094771924</v>
+        <v>-124.4790570782907</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-6.666740983021838</v>
+        <v>-125.2759172375906</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-6.939261894655372</v>
+        <v>-126.1855942985092</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.237954301382458</v>
+        <v>-127.2269701372456</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.564704561413903</v>
+        <v>-128.4248096468998</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.921663336056133</v>
+        <v>-129.8118987488296</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.311300390044639</v>
+        <v>-131.4312159676187</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-8.736474751611183</v>
+        <v>-133.3349327246353</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-9.200527103196601</v>
+        <v>-135.564394844991</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.707398872317514</v>
+        <v>-138.0407141675583</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-10.26179440757825</v>
+        <v>-140.1659094521245</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-10.8693992850502</v>
+        <v>-140.5712667749374</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-11.53718558860032</v>
+        <v>-139.1396697543736</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-12.27384651750817</v>
+        <v>-137.2480790893624</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-13.09043194273646</v>
+        <v>-135.5876122486387</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-14.00131136554348</v>
+        <v>-134.2699937600864</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.02568418687869</v>
+        <v>-133.263746031499</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-16.1900693103349</v>
+        <v>-132.5221831930884</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-17.53263825601655</v>
+        <v>-132.0079243031481</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-19.11133384971458</v>
+        <v>-131.6949941176357</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-21.02058890959931</v>
+        <v>-131.5671271447025</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-23.43059386463959</v>
+        <v>-131.6161258409967</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-26.69953234054432</v>
+        <v>-131.8409867016824</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-31.82332595868445</v>
+        <v>-132.2479128709964</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-44.60284025442213</v>
+        <v>-132.8513736681338</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-37.06652275125052</v>
+        <v>-133.676637353307</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-29.76019363326892</v>
+        <v>-134.7647687396687</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-25.98671823401533</v>
+        <v>-136.1822805516855</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-23.48622527168785</v>
+        <v>-138.0403005308033</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-21.65487638985017</v>
+        <v>-140.5328331569872</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-20.24209841878185</v>
+        <v>-143.9878496181957</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-19.11996791809253</v>
+        <v>-148.3933456132963</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-18.21462461982314</v>
+        <v>-148.7880252600857</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-17.47983401490797</v>
+        <v>-144.5283296260669</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.88500373355849</v>
+        <v>-141.0913911094074</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-16.40910907250761</v>
+        <v>-138.6525232815561</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-16.03735399017849</v>
+        <v>-136.8741476936044</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-15.75921814094374</v>
+        <v>-135.5529344956796</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-15.56726779751193</v>
+        <v>-134.5730601416335</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-15.45640777923292</v>
+        <v>-133.865711644793</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-15.42341139752134</v>
+        <v>-133.3886718876259</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-15.466631090767</v>
+        <v>-133.116051734195</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-15.58584118968647</v>
+        <v>-133.0329702202835</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-15.78218261002891</v>
+        <v>-133.1328313426059</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-16.05819722963039</v>
+        <v>-133.4161577383231</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-16.41795905701511</v>
+        <v>-133.8905742970616</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-16.8673030287171</v>
+        <v>-134.5719464457601</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-17.41418454550458</v>
+        <v>-135.4870754222854</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-18.06919176712019</v>
+        <v>-136.6790351457066</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-18.84624680941909</v>
+        <v>-138.2176706648249</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-19.76348356747182</v>
+        <v>-140.221353796191</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-20.84412293172212</v>
+        <v>-142.9051672407095</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-22.11647814591517</v>
+        <v>-146.6819425881623</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-23.60983609995782</v>
+        <v>-151.9458471997213</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-25.33440627470075</v>
+        <v>-152.9025868417112</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-27.20663738677491</v>
+        <v>-148.0909537031206</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-28.8427715665626</v>
+        <v>-144.6297115350393</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-29.40978990243959</v>
+        <v>-142.3524114936407</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-28.49157406044061</v>
+        <v>-140.812230813145</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-26.79943222347359</v>
+        <v>-139.7766631524342</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-25.04793920692949</v>
+        <v>-139.1200722263335</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-23.49298246516362</v>
+        <v>-138.76883313091</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-22.17401475568864</v>
+        <v>-138.6757654169718</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-21.07125757195409</v>
+        <v>-138.8061374096297</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-20.15561100418677</v>
+        <v>-139.1274956312256</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-19.40120742333469</v>
+        <v>-139.5993356432632</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-18.78754484614851</v>
+        <v>-140.1608263389607</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-18.29903209879303</v>
+        <v>-140.7192359950744</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-17.92408835542274</v>
+        <v>-141.1516901445497</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-17.65433588820101</v>
+        <v>-141.3407769497005</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-17.48398515245275</v>
+        <v>-141.2391035028201</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-17.40940532242236</v>
+        <v>-140.9032365395622</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-17.42884369371746</v>
+        <v>-140.4552339398192</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-17.54226567552633</v>
+        <v>-140.0188444493935</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-17.75129276177405</v>
+        <v>-139.6870052816027</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-18.05922050031228</v>
+        <v>-139.5220066012374</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-18.47109442210257</v>
+        <v>-139.5677986112748</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-18.99380000435863</v>
+        <v>-139.8628638010261</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-19.63607327794403</v>
+        <v>-140.4518545532852</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-20.40816337800224</v>
+        <v>-141.3988827362982</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-21.32051607473795</v>
+        <v>-142.8091081746625</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-22.37983434106002</v>
+        <v>-144.8749354025964</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-23.57853612675328</v>
+        <v>-147.9956913652326</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-24.86897007605106</v>
+        <v>-153.0718707224965</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-26.11101626935083</v>
+        <v>-157.8065786226398</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-27.01469739001831</v>
+        <v>-151.5838358413527</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-27.22496203646732</v>
+        <v>-146.8856159513453</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-26.65024354037977</v>
+        <v>-143.8969258059663</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-25.57579689556365</v>
+        <v>-141.8541984453419</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-24.34793770328385</v>
+        <v>-140.4232514096833</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-23.16901964368655</v>
+        <v>-139.4416679433643</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-22.11977382700127</v>
+        <v>-138.8236172310112</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-21.221692545333</v>
+        <v>-138.523378339382</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-20.47340330400443</v>
+        <v>-138.5199973580228</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-19.86645954887267</v>
+        <v>-138.8109976311289</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-19.39147246916963</v>
+        <v>-139.4110080899682</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-19.04029516749567</v>
+        <v>-140.3541839685162</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-18.80669209414592</v>
+        <v>-141.7005972814673</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-18.68645534413535</v>
+        <v>-143.5458998883967</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-18.67735605974736</v>
+        <v>-146.0172771803228</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-18.77906132399976</v>
+        <v>-149.100615660239</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-18.99307095053597</v>
+        <v>-151.4688524198962</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-19.32265378526771</v>
+        <v>-150.3190600377199</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-19.77272348912492</v>
+        <v>-147.6090306409353</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-20.34948028058867</v>
+        <v>-145.3913166049649</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-21.05942824207534</v>
+        <v>-143.8630145736977</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-21.90687477242976</v>
+        <v>-142.9176726546748</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-22.88787157052307</v>
+        <v>-142.4708349353791</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-23.97644977182499</v>
+        <v>-142.4853024461854</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-25.09674937325267</v>
+        <v>-142.9689430651144</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-26.08216604960096</v>
+        <v>-143.9810029243116</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-26.66896837884804</v>
+        <v>-145.6571478412075</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-26.632267244048</v>
+        <v>-148.2635957875889</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-26.00027695547985</v>
+        <v>-152.1457393200018</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-25.0239584704352</v>
+        <v>-155.0013401049295</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-23.95450999262411</v>
+        <v>-151.2272815983192</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-22.9396682593927</v>
+        <v>-147.1258064491745</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-22.04399730590885</v>
+        <v>-144.2627369423711</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-21.28873983497559</v>
+        <v>-142.2629258379942</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-20.67662388108921</v>
+        <v>-140.8668346531933</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-20.2037608331798</v>
+        <v>-139.9330971040868</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-19.86481400576495</v>
+        <v>-139.3848967406277</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-19.65511822766564</v>
+        <v>-139.1831468823099</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-19.57149539926976</v>
+        <v>-139.3147244653457</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-19.61252256547085</v>
+        <v>-139.7889041398073</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-19.77855682979061</v>
+        <v>-140.6400208600639</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-20.07160462142632</v>
+        <v>-141.9379103097677</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-20.49496124108047</v>
+        <v>-143.8123917889772</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-21.05236591816501</v>
+        <v>-146.504908065264</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-21.74606434982608</v>
+        <v>-150.4104055098493</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-22.57245791583922</v>
+        <v>-154.6848936056101</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-23.51275352608454</v>
+        <v>-152.5309220852706</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-24.51454261379897</v>
+        <v>-148.331841659488</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-25.46294603579724</v>
+        <v>-145.4200612752746</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-26.16171626502997</v>
+        <v>-143.462032606925</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-26.39065936218844</v>
+        <v>-142.1438781754974</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-26.06624606425767</v>
+        <v>-141.2897130137064</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-25.32354239358988</v>
+        <v>-140.7964634521165</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-24.38991466453557</v>
+        <v>-140.5982933034785</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-23.44252705257123</v>
+        <v>-140.6488660278196</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-22.5781674791164</v>
+        <v>-140.9120176205127</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-21.83915674432298</v>
+        <v>-141.357015336754</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-21.24006212324231</v>
+        <v>-141.9573937189832</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-20.78340910576702</v>
+        <v>-142.6937365471105</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-20.46741268693876</v>
+        <v>-143.5611523132484</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-20.28952143615219</v>
+        <v>-144.5815637525425</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-20.24795860884882</v>
+        <v>-145.8207985617675</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-20.34232669158444</v>
+        <v>-147.4147645252709</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-20.57371200246033</v>
+        <v>-149.6265476536117</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-20.94438411990632</v>
+        <v>-153.0144469546449</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-21.45687352253405</v>
+        <v>-158.8367593469995</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-22.11182945843071</v>
+        <v>-160.2959281761725</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-22.90326785126535</v>
+        <v>-153.0669280083715</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-23.80860324061133</v>
+        <v>-148.5402249624425</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-24.76970911778465</v>
+        <v>-145.5116944404664</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-25.66530662576512</v>
+        <v>-143.3375098640577</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-26.29878648950801</v>
+        <v>-141.7416345339538</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-26.4658388547748</v>
+        <v>-140.5879108650271</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-26.10825864513718</v>
+        <v>-139.8036511612901</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-25.37050454371022</v>
+        <v>-139.3502226080691</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-24.47019885155249</v>
+        <v>-139.2106460268554</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-23.57219738677121</v>
+        <v>-139.3846363517331</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-22.76633469033307</v>
+        <v>-139.8878266904112</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-22.09243711376912</v>
+        <v>-140.7542880886983</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-21.56485269591807</v>
+        <v>-142.042383099709</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-21.18685154731846</v>
+        <v>-143.8423297121304</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-20.95778467178751</v>
+        <v>-146.2652180130198</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-20.87638340824747</v>
+        <v>-149.2535313126976</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-20.94215152576029</v>
+        <v>-151.488651593197</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-21.15577388109146</v>
+        <v>-150.4802098129668</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-21.5187937171677</v>
+        <v>-148.0076072962767</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-22.03236250073506</v>
+        <v>-145.9797448318981</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-22.69425203868165</v>
+        <v>-144.6231868526215</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-23.49235538164572</v>
+        <v>-143.8450160451022</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-24.39150773560297</v>
+        <v>-143.5542162783169</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-25.31049995938288</v>
+        <v>-143.6857262832089</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-26.09616525802035</v>
+        <v>-144.1817413948553</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-26.53595723050338</v>
+        <v>-144.9565109795757</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-26.46970463249693</v>
+        <v>-145.8382809871824</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-25.92848287105361</v>
+        <v>-146.5184732333973</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-25.10486858722346</v>
+        <v>-146.6598584487045</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-24.20142471119583</v>
+        <v>-146.2154987006366</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-23.34958802093325</v>
+        <v>-145.4875564944348</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-22.61507832309364</v>
+        <v>-144.8157400442045</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-22.02516945452052</v>
+        <v>-144.4067487010149</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-21.58877242570235</v>
+        <v>-144.3656607820523</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-21.30728091620612</v>
+        <v>-144.7564815339637</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-21.17975892255254</v>
+        <v>-145.6335653295775</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-21.20520092998498</v>
+        <v>-147.0263761126868</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-21.3832706273358</v>
+        <v>-148.7765062719299</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-21.71401742526998</v>
+        <v>-149.9699781270548</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-22.1964744829689</v>
+        <v>-149.1010286222937</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-22.8253547289758</v>
+        <v>-146.7815202277308</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-23.58418965121786</v>
+        <v>-144.4547666151802</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-24.43227747342704</v>
+        <v>-142.570140715276</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-25.28401249137295</v>
+        <v>-141.1454555550716</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-25.99057458748479</v>
+        <v>-140.1239361567241</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-26.36286729352623</v>
+        <v>-139.4522915756449</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-26.27534000122163</v>
+        <v>-139.0913716323005</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-25.77124053214697</v>
+        <v>-139.0146129059344</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-25.02398716077501</v>
+        <v>-139.2051364925966</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-24.21232220190099</v>
+        <v>-139.6531864374242</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-23.45513207366155</v>
+        <v>-140.3533862551103</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-22.81486195572491</v>
+        <v>-141.299935754984</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-22.31968823767505</v>
+        <v>-142.4747659265242</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-21.98075106655628</v>
+        <v>-143.8165011502469</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-21.80190338536659</v>
+        <v>-145.1495196469771</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-21.78454871065669</v>
+        <v>-146.0937422236584</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-21.92972658730451</v>
+        <v>-146.1863732553192</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-22.23852496789838</v>
+        <v>-145.3707748013272</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-22.7109861683914</v>
+        <v>-144.0677076797066</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-23.34276483882438</v>
+        <v>-142.6839097656722</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-24.11760099180469</v>
+        <v>-141.4191927789903</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-24.99223090962501</v>
+        <v>-140.3445737921495</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-25.87136094254059</v>
+        <v>-139.4804183598848</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-26.58463129869591</v>
+        <v>-138.8316163329111</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-26.91654063748779</v>
+        <v>-138.4001232201625</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-26.73850555304915</v>
+        <v>-138.1886973850598</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-26.12621477168731</v>
+        <v>-138.2012876833869</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-25.28777699143101</v>
+        <v>-138.441514661786</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-24.41424492316445</v>
+        <v>-138.9085486677017</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-23.62146799257999</v>
+        <v>-139.5876565070076</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-22.96515639628814</v>
+        <v>-140.4302101732963</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-22.4678186591884</v>
+        <v>-141.3188675910091</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-22.13669033770188</v>
+        <v>-142.0368972038263</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-21.97301173148173</v>
+        <v>-142.3248710458538</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-21.97626993889957</v>
+        <v>-142.0796412703146</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-22.14572316173847</v>
+        <v>-141.4649670379693</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-22.4802018003993</v>
+        <v>-140.74911201179</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-22.97614341830804</v>
+        <v>-140.1307882375525</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-23.62286480727793</v>
+        <v>-139.713030628059</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-24.3929270603682</v>
+        <v>-139.5393152452187</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-25.22502538077532</v>
+        <v>-139.6246187856592</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-26.00170619772998</v>
+        <v>-139.9713995754047</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-26.54507699698973</v>
+        <v>-140.5755319026179</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-26.68053928124053</v>
+        <v>-141.4263909218108</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-26.36204543739102</v>
+        <v>-142.503048173767</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-25.71375962658231</v>
+        <v>-143.7679533960147</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-24.92595648060615</v>
+        <v>-145.1615414200215</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-24.14961540301472</v>
+        <v>-146.6049981071291</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-23.4722472112532</v>
+        <v>-148.0147059463431</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-22.93599777578737</v>
+        <v>-149.301588975407</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-22.55841867044109</v>
+        <v>-150.2863727974777</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-22.34554528085662</v>
+        <v>-150.5545834768814</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-22.29857666735732</v>
+        <v>-149.684893003521</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-22.41668826613407</v>
+        <v>-147.8977455190255</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-22.6974276821704</v>
+        <v>-145.8255304251259</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-23.13501177409243</v>
+        <v>-143.8832858039544</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-23.71586311160096</v>
+        <v>-142.2234565506144</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-24.40988058792928</v>
+        <v>-140.8788086655013</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-25.15609923054343</v>
+        <v>-139.8425876956948</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-25.84648702429843</v>
+        <v>-139.0983499222173</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-26.32781425481175</v>
+        <v>-138.6294839020999</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-26.45638157235295</v>
+        <v>-138.4214210326558</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-26.19351549904017</v>
+        <v>-138.460820394</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-25.63761349761673</v>
+        <v>-138.7325713773695</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-24.94819228622304</v>
+        <v>-139.2137343759848</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-24.26091821584878</v>
+        <v>-139.8623002927258</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-23.66094175713197</v>
+        <v>-140.5989406588517</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-23.19332031222619</v>
+        <v>-141.2872866824371</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-22.87951793376189</v>
+        <v>-141.7414715137122</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-22.72906681005359</v>
+        <v>-141.8047668640027</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-22.74596560606271</v>
+        <v>-141.4626005638443</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-22.93147395097517</v>
+        <v>-140.8485108562622</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-23.28431173420672</v>
+        <v>-140.1346190544963</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-23.79825641480013</v>
+        <v>-139.447757596247</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-24.45597736343399</v>
+        <v>-138.8582928165616</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-25.2169303278265</v>
+        <v>-138.3993052155126</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-25.99828440013553</v>
+        <v>-138.0850408764285</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-26.65814567508379</v>
+        <v>-137.9217703530316</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-27.01615004528572</v>
+        <v>-137.9124901073753</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-26.94789908101047</v>
+        <v>-138.0574063992501</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-26.48541069312255</v>
+        <v>-138.3509583483572</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-25.78908490401729</v>
+        <v>-138.7749921341854</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-25.03235781044872</v>
+        <v>-139.2873167730968</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-24.33493489479499</v>
+        <v>-139.8076371714445</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-23.76196449752603</v>
+        <v>-140.2131842099944</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-23.34415492739659</v>
+        <v>-140.3706718581629</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-23.09449209139542</v>
+        <v>-140.2123061992754</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-23.01789422335035</v>
+        <v>-139.7902962403378</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-23.11579712366343</v>
+        <v>-139.240656532641</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-23.38751027741995</v>
+        <v>-138.7038699696143</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-23.82894843064881</v>
+        <v>-138.2814498302497</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-24.42811062189423</v>
+        <v>-138.0345525956105</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-25.15537596042422</v>
+        <v>-137.9973285748678</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-25.94634333824187</v>
+        <v>-138.1890658378956</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-26.68045217596525</v>
+        <v>-138.6216572791004</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-27.18000676044407</v>
+        <v>-139.302965540665</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-27.27783493032217</v>
+        <v>-140.2366527288434</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-26.93881456874693</v>
+        <v>-141.4176245263587</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-26.29132857173965</v>
+        <v>-142.8198925541223</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-25.521916111746</v>
+        <v>-144.3709232688115</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-24.7762797982954</v>
+        <v>-145.9100575976346</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-24.13861920685551</v>
+        <v>-147.1633338017566</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-23.64972707376253</v>
+        <v>-147.8366607884635</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-23.32691531069755</v>
+        <v>-147.8340365837216</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-23.17646771169878</v>
+        <v>-147.3070560284579</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-23.19991093780024</v>
+        <v>-146.4669312006583</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-23.39643953477342</v>
+        <v>-145.4662962533378</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-23.76267602819824</v>
+        <v>-144.4107179689505</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-24.28975513057389</v>
+        <v>-143.3864052164436</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-24.95653059493593</v>
+        <v>-142.465323206254</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-25.71697738555002</v>
+        <v>-141.7017684532886</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-26.48190918698964</v>
+        <v>-141.1318729155704</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-27.10703092620241</v>
+        <v>-140.7763496699018</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-27.42270056688329</v>
+        <v>-140.6432075018343</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-27.32918734634259</v>
+        <v>-140.7277903917136</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-26.87736839027972</v>
+        <v>-141.0081214557339</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-26.22579968378778</v>
+        <v>-141.4338315419396</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-25.53517544299628</v>
+        <v>-141.9100267191625</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-24.9144868427359</v>
+        <v>-142.289935239296</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-24.42331097612614</v>
+        <v>-142.4105998928642</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-24.09028605784556</v>
+        <v>-142.1855793034041</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-23.92797054325771</v>
+        <v>-141.670954105993</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-23.9413162400179</v>
+        <v>-141.0157877994959</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-24.13144786426609</v>
+        <v>-140.3653883609306</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-24.49611264151846</v>
+        <v>-139.815425284328</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-25.02695312482673</v>
+        <v>-139.4153979116231</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-25.70233570724382</v>
+        <v>-139.1857042211902</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-26.47355030469559</v>
+        <v>-139.1312249014981</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-27.24442181138599</v>
+        <v>-139.2489307030094</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-27.85834232166953</v>
+        <v>-139.5307554788022</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-28.13427485232837</v>
+        <v>-139.9624996205883</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-27.97583584293633</v>
+        <v>-140.5182907280507</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-27.45300449484862</v>
+        <v>-141.1494622511476</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-26.74112541003061</v>
+        <v>-141.769164125316</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-26.00540658674272</v>
+        <v>-142.2450644796256</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-25.35174972593453</v>
+        <v>-142.4304490965775</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-24.83488752057328</v>
+        <v>-142.2475442068411</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-24.47909178552855</v>
+        <v>-141.7516639863721</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-24.2931660626299</v>
+        <v>-141.0920698109722</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-24.278415502233</v>
+        <v>-140.4222133426103</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-24.43179026948946</v>
+        <v>-139.8517961420723</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-24.7456834825868</v>
+        <v>-139.4464925525019</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-25.20466766412535</v>
+        <v>-139.2432372565489</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-25.77854651141585</v>
+        <v>-139.2634361308517</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-26.41136813861684</v>
+        <v>-139.5206971565878</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-27.00998722944952</v>
+        <v>-140.0237526595572</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-27.44669677390905</v>
+        <v>-140.7747598332444</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-27.5992731123187</v>
+        <v>-141.7609594389836</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-27.42193591394754</v>
+        <v>-142.9347395534408</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-26.97898981472157</v>
+        <v>-144.1778065094474</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-26.39843745409894</v>
+        <v>-145.2695909138097</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-25.80304484144726</v>
+        <v>-145.9480213583106</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-25.27831874178622</v>
+        <v>-146.117718091503</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-24.87415430788514</v>
+        <v>-145.9576461075252</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-24.61680551166355</v>
+        <v>-145.7456455711155</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-24.51914563501966</v>
+        <v>-145.6811398795238</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-24.58678668274658</v>
+        <v>-145.8594520671537</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-24.8206271838591</v>
+        <v>-146.3013825934194</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-25.21635833190352</v>
+        <v>-146.9676585342989</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-25.76054558628543</v>
+        <v>-147.7493250696152</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-26.42194252186354</v>
+        <v>-148.4601748682239</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-27.13690645613364</v>
+        <v>-148.8960904143709</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-27.79330283299077</v>
+        <v>-148.9840594726917</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-28.23447855484746</v>
+        <v>-148.8577640304695</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-28.31849273319666</v>
+        <v>-148.7435201421676</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-28.01477950012772</v>
+        <v>-148.8235575148646</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-27.42936313186251</v>
+        <v>-149.1906524668004</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-26.72330222645819</v>
+        <v>-149.8307308504974</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-26.02951494831827</v>
+        <v>-150.552151917643</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-25.42960187380662</v>
+        <v>-150.8889260740873</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-24.96566600203897</v>
+        <v>-150.3399700295864</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-24.65680089288338</v>
+        <v>-149.0003920510005</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-24.5103282623757</v>
+        <v>-147.4143364307481</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-24.52777415213917</v>
+        <v>-145.9702222146448</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-24.70721556158835</v>
+        <v>-144.8150498367055</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-25.04302633424928</v>
+        <v>-143.9802708984116</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-25.52309234420532</v>
+        <v>-143.4594354055496</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-26.12278505531521</v>
+        <v>-143.2377237277959</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-26.79496677635358</v>
+        <v>-143.30110993548</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-27.45787255201333</v>
+        <v>-143.6377350672644</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-27.99179138101456</v>
+        <v>-144.2349641133072</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-28.26723268268015</v>
+        <v>-145.0708484936604</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-28.21178127210105</v>
+        <v>-146.0944419289879</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-27.86145920771524</v>
+        <v>-147.1868322041806</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-27.33397976909283</v>
+        <v>-148.1125635507922</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-26.75803700124374</v>
+        <v>-148.5513757804576</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-26.22947658464628</v>
+        <v>-148.3284533985104</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-25.80614497835853</v>
+        <v>-147.6024663371202</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-25.51869203257305</v>
+        <v>-146.6858655140512</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-25.38162555457374</v>
+        <v>-145.81107380048</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-25.40036909740314</v>
+        <v>-145.0949576012769</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-25.57450267883979</v>
+        <v>-144.5869867400271</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-25.89790375128049</v>
+        <v>-144.3084552999459</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-26.35590500892161</v>
+        <v>-144.2718973820197</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-26.91895732913258</v>
+        <v>-144.4886715833664</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-27.53275408103001</v>
+        <v>-144.9698255654002</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-28.10849590580834</v>
+        <v>-145.7202119424531</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-28.52655264630431</v>
+        <v>-146.719276097946</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-28.67345040681791</v>
+        <v>-147.8725795291589</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-28.50534203205535</v>
+        <v>-148.9244661413784</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-28.07883468358472</v>
+        <v>-149.4410459355671</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-27.51130977786538</v>
+        <v>-149.1430126877468</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-26.91860334929807</v>
+        <v>-148.2702564448545</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-26.38356395896393</v>
+        <v>-147.2778279735265</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-25.95561883683315</v>
+        <v>-146.4613323251316</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-25.66113924483615</v>
+        <v>-145.9479649333009</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-25.51307036142573</v>
+        <v>-145.7874265566111</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-25.51705951420998</v>
+        <v>-146.0079272473936</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-25.67452178314521</v>
+        <v>-146.6420473946396</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-25.98331570505875</v>
+        <v>-147.7396871855347</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-26.43619528476083</v>
+        <v>-149.3718859170794</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-27.01656215830631</v>
+        <v>-151.5941535594634</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-27.69055918614392</v>
+        <v>-154.1715165382337</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-28.39556342194518</v>
+        <v>-155.6270785717059</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-29.03052574178765</v>
+        <v>-154.375545735466</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-29.465604086715</v>
+        <v>-152.0935102510201</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-29.59179531095002</v>
+        <v>-146.678510171179</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-29.38946497420887</v>
+        <v>-146.0904767069666</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-28.94296845348826</v>
+        <v>-145.8721649081383</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-28.38256058511594</v>
+        <v>-145.9813715840957</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-27.82209577480462</v>
+        <v>-146.3721043542838</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-27.33683830057311</v>
+        <v>-146.9695373162477</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-26.96901640577108</v>
+        <v>-147.6341235498089</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-26.73974872710574</v>
+        <v>-148.1380824301681</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-26.65823708651264</v>
+        <v>-148.2348390447306</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-26.72704534114487</v>
+        <v>-147.8465564447158</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-26.94422924885161</v>
+        <v>-147.138601029463</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-27.30300096425822</v>
+        <v>-146.3573027864439</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-27.78898207032658</v>
+        <v>-145.6804720324102</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-28.37461612479009</v>
+        <v>-145.1994227311658</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-29.01079490414413</v>
+        <v>-144.9522560025098</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-29.61870048633357</v>
+        <v>-144.9520095152704</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-30.09224656184072</v>
+        <v>-145.2016011079707</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-30.32700122707601</v>
+        <v>-145.6998183147888</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-30.27304745872271</v>
+        <v>-146.4414794879633</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-29.96770124271793</v>
+        <v>-147.4116100766093</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-29.51046118446386</v>
+        <v>-148.5699231911747</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-29.00952676016635</v>
+        <v>-149.8195213021313</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-28.54809857780781</v>
+        <v>-150.9656691164971</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-28.17888984672798</v>
+        <v>-151.7279460235268</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-27.93149263274525</v>
+        <v>-151.9117383232859</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-27.82093784504438</v>
+        <v>-151.6041365992664</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-27.85339268468817</v>
+        <v>-151.0775582554606</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-28.01155826339485</v>
+        <v>-150.4998771783843</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-28.41118711528721</v>
+        <v>-152.3320368877562</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-28.98829275898961</v>
+        <v>-152.3405408080419</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-29.46773629766801</v>
+        <v>-152.3491137865895</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-30.97448671560454</v>
+        <v>-152.3577559143942</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-29.43522884464507</v>
+        <v>-152.3664672834088</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-30.37664640426024</v>
+        <v>-152.3752479865514</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-31.76128217701962</v>
+        <v>-152.3840981177124</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-31.74396622592253</v>
+        <v>-152.3930177717625</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-30.64355914593519</v>
+        <v>-152.4020070445603</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-37.30258365316075</v>
+        <v>-152.4110660329602</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-36.2286635590036</v>
+        <v>-152.4201948348203</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-35.34174550250576</v>
+        <v>-152.4293935490105</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-32.50841608604158</v>
+        <v>-152.438662275421</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-31.54996592913244</v>
+        <v>-152.4480011149704</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-31.97187073700886</v>
+        <v>-152.4574101696143</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-31.88488586572493</v>
+        <v>-152.466889542354</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-31.33654611943871</v>
+        <v>-152.4764393372452</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-35.01992954538134</v>
+        <v>-152.486059659407</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-31.48424747425281</v>
+        <v>-152.4957506150309</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-35.4272149358994</v>
+        <v>-152.5055123113902</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-34.80222168276774</v>
+        <v>-152.5153448568491</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-36.33949596066149</v>
+        <v>-152.5252483608726</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-41.60474262599232</v>
+        <v>-152.5352229340358</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-43.7664031043265</v>
+        <v>-152.545268688034</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-47.93555790608644</v>
+        <v>-152.5553857356926</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-44.936991843112</v>
+        <v>-152.5655741909771</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-46.65528448691859</v>
+        <v>-152.5758341690041</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-40.6729621983829</v>
+        <v>-152.586165786051</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-41.48405622300201</v>
+        <v>-152.5965691595669</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-43.59389139748798</v>
+        <v>-152.6070444081839</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-40.7878405186181</v>
+        <v>-152.6175916517277</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-41.3425167232819</v>
+        <v>-152.6282110112289</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-42.37276618656393</v>
+        <v>-152.6389026089346</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-48.33846653280457</v>
+        <v>-152.6496665683197</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-51.78610897223818</v>
+        <v>-152.6605030140991</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-57.63167812400694</v>
+        <v>-152.6714120722394</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-65.90191553019902</v>
+        <v>-152.6823938699711</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-56.22760455037348</v>
+        <v>-152.6934485358011</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-50.9081853469641</v>
+        <v>-152.7045761995257</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-47.61979580353533</v>
+        <v>-152.7157769922425</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-45.2801671636058</v>
+        <v>-152.7270510463645</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-43.49433795580114</v>
+        <v>-152.7383984956326</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-42.07697151826137</v>
+        <v>-152.7498194751298</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-40.92681332246728</v>
+        <v>-152.7613141212941</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-39.98281025039626</v>
+        <v>-152.7728825719336</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-39.20557652329087</v>
+        <v>-152.7845249662394</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-38.56849250614909</v>
+        <v>-152.7962414448014</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-38.05299612173296</v>
+        <v>-152.808032149622</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-37.64593127704099</v>
+        <v>-152.8198972241318</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-37.33796150854558</v>
+        <v>-152.8318368132043</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-37.12260578273654</v>
+        <v>-152.8438510631721</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-36.99563823379731</v>
+        <v>-152.8559401218418</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-36.95473873751868</v>
+        <v>-152.8681041385109</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-36.9993056791176</v>
+        <v>-152.8803432639839</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-37.13042161732614</v>
+        <v>-152.8926576505887</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-37.35094854822909</v>
+        <v>-152.9050474521939</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-37.66577785794743</v>
+        <v>-152.9175128242261</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-38.0822751636169</v>
+        <v>-152.9300539236872</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-38.61101861853938</v>
+        <v>-152.9426709091725</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-39.26698712075273</v>
+        <v>-152.9553639408888</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-40.07153280191055</v>
+        <v>-152.9681331806733</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-41.05574246339876</v>
+        <v>-152.9809787920121</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-42.26657618950688</v>
+        <v>-152.9939009400596</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-43.77889111466149</v>
+        <v>-153.0068997916583</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-45.72174150204004</v>
+        <v>-153.0199755153585</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-48.3451554285958</v>
+        <v>-153.033128281439</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-52.23166716473943</v>
+        <v>-153.0463582619273</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-59.18115175528482</v>
+        <v>-153.0596656306213</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-62.43219213688595</v>
+        <v>-153.0730505631106</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-53.78774332074416</v>
+        <v>-153.0865132367984</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-49.21154802303496</v>
+        <v>-153.1000538309238</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-46.23298084788077</v>
+        <v>-153.1136725265847</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-44.0571130552776</v>
+        <v>-153.1273695067611</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-42.36776358418608</v>
+        <v>-153.1411449563385</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-41.00892230439629</v>
+        <v>-153.1549990621323</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-39.89255235220851</v>
+        <v>-153.1689320129124</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-38.96430176837126</v>
+        <v>-153.1829439994278</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-38.18843534167245</v>
+        <v>-153.1970352144331</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-37.54036446436315</v>
+        <v>-153.2112058527135</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-37.00262001039088</v>
+        <v>-153.2254561111122</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-36.5625217426371</v>
+        <v>-153.2397861885572</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-36.21076633594838</v>
+        <v>-153.254196286089</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-35.94054348911421</v>
+        <v>-153.2686866068888</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-35.74696123535685</v>
+        <v>-153.2832573563072</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-35.62667768465231</v>
+        <v>-153.297908741894</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-35.5776714480022</v>
+        <v>-153.3126409734276</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-35.59911117637687</v>
+        <v>-153.3274542629458</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-35.69131100215638</v>
+        <v>-153.3423488247772</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-35.8557572536828</v>
+        <v>-153.3573248755728</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-36.0952134203901</v>
+        <v>-153.3723826343385</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-36.41392969743446</v>
+        <v>-153.3875223224686</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-36.81796862228094</v>
+        <v>-153.4027441637792</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-37.31572120043698</v>
+        <v>-153.4180483845432</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-37.91870818026799</v>
+        <v>-153.4334352135255</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-38.64283851318051</v>
+        <v>-153.4489048820188</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-39.51047318186646</v>
+        <v>-153.464457623881</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-40.55395647624006</v>
+        <v>-153.4800936755722</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-41.8220322366278</v>
+        <v>-153.4958132761934</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-43.39254717638941</v>
+        <v>-153.5116166675262</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-45.40044657693019</v>
+        <v>-153.5275040940718</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-48.10991832945122</v>
+        <v>-153.5434758030933</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-52.14862188201444</v>
+        <v>-153.5595320446566</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-59.51856535657496</v>
+        <v>-153.5756730716736</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-61.35060675987149</v>
+        <v>-153.5918991399461</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-52.98253765018814</v>
+        <v>-153.60821050821</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-48.54798161101394</v>
+        <v>-153.6246074381817</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-45.62711631415411</v>
+        <v>-153.6410901946043</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-43.47436431698586</v>
+        <v>-153.6576590452958</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-41.78885822234707</v>
+        <v>-153.6743142611976</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-40.42060109228684</v>
+        <v>-153.6910561164248</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-39.28427011546871</v>
+        <v>-153.7078848883173</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-38.32681945107035</v>
+        <v>-153.7248008574921</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-37.51310764157533</v>
+        <v>-153.7418043078968</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-36.8187354723233</v>
+        <v>-153.7588955268645</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-36.22615508336436</v>
+        <v>-153.7760748051697</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-35.72240687273413</v>
+        <v>-153.7933424370857</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-35.29773651056095</v>
+        <v>-153.8106987204437</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-34.94471293232864</v>
+        <v>-153.8281439566923</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-34.65764695892035</v>
+        <v>-153.8456784509598</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-34.43219639804698</v>
+        <v>-153.8633025121167</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-34.26510390360939</v>
+        <v>-153.8810164528404</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-34.15400945627472</v>
+        <v>-153.8988205896816</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-34.09733001264036</v>
+        <v>-153.9167152431316</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-34.09418380361151</v>
+        <v>-153.9347007376924</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-34.14435087496596</v>
+        <v>-153.952777401947</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-34.24826863560956</v>
+        <v>-153.970945568633</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-34.40705964655406</v>
+        <v>-153.9892055747171</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-34.62259401365498</v>
+        <v>-154.0075577614713</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-34.89759655790415</v>
+        <v>-154.0260024745521</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-35.23580842609554</v>
+        <v>-154.0445400640807</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-35.64222545536302</v>
+        <v>-154.0631708847252</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-36.12344783651097</v>
+        <v>-154.0818952957861</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-36.68819360081163</v>
+        <v>-154.1007136612824</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-37.34807616393626</v>
+        <v>-154.1196263500412</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-38.11881097787467</v>
+        <v>-154.1386337357889</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-39.02215886232309</v>
+        <v>-154.1577361972454</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-40.08922359061954</v>
+        <v>-154.1769341182199</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-41.36639498129632</v>
+        <v>-154.1962278877104</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-42.92695546953608</v>
+        <v>-154.2156179000048</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-44.89633402034387</v>
+        <v>-154.2351045547851</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-47.51596247068961</v>
+        <v>-154.254688257235</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-51.34594494726625</v>
+        <v>-154.2743694181493</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-58.17418846215702</v>
+        <v>-154.2941484540476</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-63.294489543788</v>
+        <v>-154.3140257872893</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-53.7026493317118</v>
+        <v>-154.3340018461943</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-48.89400825774922</v>
+        <v>-154.3540770651646</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-45.80430805048021</v>
+        <v>-154.3742518848107</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-43.54610735838788</v>
+        <v>-154.3945267520814</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-41.77977340821791</v>
+        <v>-154.4149021203972</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-40.34059431490557</v>
+        <v>-154.4353784497867</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-39.13639295311325</v>
+        <v>-154.4559562070287</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-38.11042797897584</v>
+        <v>-154.4766358657966</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-37.22531574401199</v>
+        <v>-154.4974179068081</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-36.45514345394934</v>
+        <v>-154.5183028179785</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-35.7812315446502</v>
+        <v>-154.5392910945797</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-35.18969317127024</v>
+        <v>-154.5603832394025</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-34.66994477399179</v>
+        <v>-154.5815797629246</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-34.21376040484659</v>
+        <v>-154.6028811834836</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-33.81464312503022</v>
+        <v>-154.6242880274549</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-33.46739922660028</v>
+        <v>-154.6458008294353</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-33.16783924781584</v>
+        <v>-154.6674201324319</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-32.91256466647408</v>
+        <v>-154.6891464880574</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-32.69881171833347</v>
+        <v>-154.7109804567307</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-32.5243384791299</v>
+        <v>-154.7329226078846</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-32.3873400993737</v>
+        <v>-154.7549735201789</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-32.28638547414228</v>
+        <v>-154.7771337817217</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-32.22037147141661</v>
+        <v>-154.7994039902966</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-32.18848937038064</v>
+        <v>-154.8217847535976</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-32.19020242511437</v>
+        <v>-154.8442766894713</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-32.22523256216633</v>
+        <v>-154.866880426168</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-32.29355388732485</v>
+        <v>-154.8895966025995</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-32.39539621081551</v>
+        <v>-154.9124258686065</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-32.53125436548783</v>
+        <v>-154.9353688852347</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-32.70190720105572</v>
+        <v>-154.9584263250196</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-32.90844672660673</v>
+        <v>-154.9815988722818</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-33.15231820466246</v>
+        <v>-155.0048872234311</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-33.43537680069263</v>
+        <v>-155.0282920872827</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-33.75996220905546</v>
+        <v>-155.0518141853824</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-34.12900147153407</v>
+        <v>-155.0754542523443</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-34.54614647675829</v>
+        <v>-155.0992130362003</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-35.01596366532228</v>
+        <v>-155.1230912987608</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-35.54419787940024</v>
+        <v>-155.1470898159897</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-36.13814637529362</v>
+        <v>-155.171209378392</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-36.80720335611964</v>
+        <v>-155.1954507914146</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-37.56367401872679</v>
+        <v>-155.2198148758637</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-38.42403678282422</v>
+        <v>-155.244302468335</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-39.41098308626938</v>
+        <v>-155.2689144216616</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-40.55688942833669</v>
+        <v>-155.2936516053781</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-41.91012595643343</v>
+        <v>-155.3185149062009</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-43.54752845397951</v>
+        <v>-155.3435052285284</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-45.60202663041126</v>
+        <v>-155.368623494959</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-48.33473192757681</v>
+        <v>-155.393870646829</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-52.37884307080859</v>
+        <v>-155.419247644772</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-60.09743492654103</v>
+        <v>-155.4447554692993</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-64.79120503699667</v>
+        <v>-155.4703951214033</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-54.12327934972504</v>
+        <v>-155.4961676231852</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-49.36652255741541</v>
+        <v>-155.5220740185069</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-46.31367761428682</v>
+        <v>-155.5481153736698</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-44.07195246486306</v>
+        <v>-155.5742927781209</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-42.3071782862063</v>
+        <v>-155.6006073451877</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-40.85782524376869</v>
+        <v>-155.6270602128434</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-39.63344807645989</v>
+        <v>-155.6536525445043</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-38.57826967287057</v>
+        <v>-155.68038552986</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-37.65544872790844</v>
+        <v>-155.707260385739</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-36.83936665288822</v>
+        <v>-155.7342783570118</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-36.1114808781388</v>
+        <v>-155.7614407175321</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-35.45793272035969</v>
+        <v>-155.7887487711192</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-34.86808788697372</v>
+        <v>-155.8162038525833</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-34.33360546719845</v>
+        <v>-155.843807328797</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-33.84782037937704</v>
+        <v>-155.8715605998131</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-33.40532122993677</v>
+        <v>-155.8994651000344</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-33.00165341877078</v>
+        <v>-155.9275222994354</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-32.63310554155155</v>
+        <v>-155.9557337048408</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-32.29655268415085</v>
+        <v>-155.9841008612631</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-31.98933896305179</v>
+        <v>-156.0126253533026</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-31.7091884102442</v>
+        <v>-156.0413088066139</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-31.45413637231871</v>
+        <v>-156.0701528894417</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-31.22247576987508</v>
+        <v>-156.0991593142309</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-31.01271464008929</v>
+        <v>-156.1283298393157</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-30.82354254670804</v>
+        <v>-156.1576662706903</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-30.65380298892575</v>
+        <v>-156.1871704638684</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-30.50247193174052</v>
+        <v>-156.2168443258357</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-30.36863888562259</v>
+        <v>-156.2466898171012</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-30.25149253627551</v>
+        <v>-156.2767089538538</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-30.15030796398737</v>
+        <v>-156.3069038102293</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-30.06443665362723</v>
+        <v>-156.3372765206976</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-29.9932980153996</v>
+        <v>-156.3678292825742</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-29.93637139940732</v>
+        <v>-156.3985643586672</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-29.89319055027536</v>
+        <v>-156.4294840800659</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-29.86333837970803</v>
+        <v>-156.4605908490828</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-29.84644239048446</v>
+        <v>-156.4918871423569</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-29.84217118435685</v>
+        <v>-156.5233755141302</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-29.85023117645932</v>
+        <v>-156.5550585997102</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-29.87036415310401</v>
+        <v>-156.5869391191285</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-29.90234512690934</v>
+        <v>-156.6190198810118</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-29.94598053078768</v>
+        <v>-156.6513037866787</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-30.00110658378378</v>
+        <v>-156.6837938344781</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-30.06758873220004</v>
+        <v>-156.7164931243888</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-30.14531989833552</v>
+        <v>-156.7494048628958</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-30.23422163374727</v>
+        <v>-156.7825323681669</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-30.33424180651765</v>
+        <v>-156.8158790755503</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-30.44535633961407</v>
+        <v>-156.8494485434179</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-30.56756861774043</v>
+        <v>-156.8832444593801</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-30.70091031379597</v>
+        <v>-156.9172706469031</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-30.84544225747253</v>
+        <v>-156.9515310723565</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-31.00125515526578</v>
+        <v>-156.9860298525292</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-31.16847225317786</v>
+        <v>-157.0207712626494</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-31.34724973617153</v>
+        <v>-157.0557597449502</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-31.53777972727427</v>
+        <v>-157.0909999178257</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-31.7402930165829</v>
+        <v>-157.1264965856282</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-31.95506255523495</v>
+        <v>-157.1622547491601</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-32.18240599739767</v>
+        <v>-157.1982796169213</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-32.42269201025263</v>
+        <v>-157.2345766171777</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-32.6763443051538</v>
+        <v>-157.2711514109241</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-32.94384885168301</v>
+        <v>-157.3080099058229</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-33.22576090313288</v>
+        <v>-157.3451582712074</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-33.52271396974917</v>
+        <v>-157.3826029542485</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-33.83543133483489</v>
+        <v>-157.4203506973964</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-34.16473761278214</v>
+        <v>-157.4584085572182</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-34.5115758130751</v>
+        <v>-157.4967839247692</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-34.87702325475257</v>
+        <v>-157.5354845476485</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-35.26231910573628</v>
+        <v>-157.5745185539114</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-35.66888817019051</v>
+        <v>-157.6138944780266</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-36.09837786822182</v>
+        <v>-157.6536212890946</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-36.55270029714112</v>
+        <v>-157.6937084215658</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-37.03408895662792</v>
+        <v>-157.7341658087294</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-37.54516709217179</v>
+        <v>-157.7750039192803</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-38.08903842642725</v>
+        <v>-157.8162337973067</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-38.66940235516817</v>
+        <v>-157.8578671060936</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-39.29071242990305</v>
+        <v>-157.8999161761845</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-39.95837872736491</v>
+        <v>-157.9423940582104</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-40.67905551069435</v>
+        <v>-157.9853145810636</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-41.46102792010236</v>
+        <v>-158.0286924160795</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-42.31476233942308</v>
+        <v>-158.0725431479872</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-43.25369528027118</v>
+        <v>-158.1168833535031</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-44.29536295508374</v>
+        <v>-158.1617306885784</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-45.46306531719384</v>
+        <v>-158.2071039854694</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-46.78820890210795</v>
+        <v>-158.2530233609889</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-48.31325191192244</v>
+        <v>-158.2995103375203</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-50.09356602260166</v>
+        <v>-158.3465879786447</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-52.18773657378513</v>
+        <v>-158.3942810415506</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-54.58328950931363</v>
+        <v>-158.4426161487818</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-56.84893359140331</v>
+        <v>-158.4916219823461</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-57.54395060808686</v>
+        <v>-158.5413295037705</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-55.97856870803209</v>
+        <v>-158.5917722043812</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-53.64931971357171</v>
+        <v>-158.6429863909303</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-51.49262403456922</v>
+        <v>-158.6950115127356</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-49.6632969266248</v>
+        <v>-158.7478905377901</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-48.1210122728844</v>
+        <v>-158.8016703869112</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-46.8056416370429</v>
+        <v>-158.8564024370206</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-45.66791558635731</v>
+        <v>-158.9121431072002</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-44.6710003906413</v>
+        <v>-158.9689545444195</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-43.78767113356519</v>
+        <v>-159.0269054299952</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-42.99759618951067</v>
+        <v>-159.086071933224</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-42.28532384451799</v>
+        <v>-159.146538845647</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-41.63891738319474</v>
+        <v>-159.2084009386215</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-41.04899109045662</v>
+        <v>-159.2717645991297</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-40.50805891676013</v>
+        <v>-159.3367498151919</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-40.01006288213564</v>
+        <v>-159.403492604561</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-39.55004207602408</v>
+        <v>-159.4721480110433</v>
       </c>
     </row>
     <row r="802">
@@ -6843,7 +6843,7 @@
         <v>2.795633062148871</v>
       </c>
       <c r="B802" t="n">
-        <v>-39.12389036342417</v>
+        <v>-159.5428938354798</v>
       </c>
     </row>
     <row r="803">
@@ -6851,7 +6851,7 @@
         <v>2.799127603476557</v>
       </c>
       <c r="B803" t="n">
-        <v>-38.72817502799973</v>
+        <v>-159.6159353287402</v>
       </c>
     </row>
     <row r="804">
@@ -6859,7 +6859,7 @@
         <v>2.802622144804243</v>
       </c>
       <c r="B804" t="n">
-        <v>-38.36000401327713</v>
+        <v>-159.6915111606571</v>
       </c>
     </row>
     <row r="805">
@@ -6867,7 +6867,7 @@
         <v>2.806116686131929</v>
       </c>
       <c r="B805" t="n">
-        <v>-38.01691978826467</v>
+        <v>-159.7699011052395</v>
       </c>
     </row>
     <row r="806">
@@ -6875,7 +6875,7 @@
         <v>2.809611227459615</v>
       </c>
       <c r="B806" t="n">
-        <v>-37.69682586913544</v>
+        <v>-159.8514360706911</v>
       </c>
     </row>
     <row r="807">
@@ -6883,7 +6883,7 @@
         <v>2.813105768787301</v>
       </c>
       <c r="B807" t="n">
-        <v>-37.39791750405736</v>
+        <v>-159.9365113888356</v>
       </c>
     </row>
     <row r="808">
@@ -6891,7 +6891,7 @@
         <v>2.816600310114987</v>
       </c>
       <c r="B808" t="n">
-        <v>-37.11863834115103</v>
+        <v>-160.0256047238852</v>
       </c>
     </row>
     <row r="809">
@@ -6899,7 +6899,7 @@
         <v>2.820094851442673</v>
       </c>
       <c r="B809" t="n">
-        <v>-36.85763974324112</v>
+        <v>-160.1193006722578</v>
       </c>
     </row>
     <row r="810">
@@ -6907,7 +6907,7 @@
         <v>2.823589392770359</v>
       </c>
       <c r="B810" t="n">
-        <v>-36.6137513151767</v>
+        <v>-160.2183252973413</v>
       </c>
     </row>
     <row r="811">
@@ -6915,7 +6915,7 @@
         <v>2.827083934098045</v>
       </c>
       <c r="B811" t="n">
-        <v>-36.38595237681934</v>
+        <v>-160.32359584045</v>
       </c>
     </row>
     <row r="812">
@@ -6923,7 +6923,7 @@
         <v>2.830578475425731</v>
       </c>
       <c r="B812" t="n">
-        <v>-36.17335696347544</v>
+        <v>-160.4362943887959</v>
       </c>
     </row>
     <row r="813">
@@ -6931,7 +6931,7 @@
         <v>2.834073016753417</v>
       </c>
       <c r="B813" t="n">
-        <v>-35.97518953640748</v>
+        <v>-160.557980847265</v>
       </c>
     </row>
     <row r="814">
@@ -6939,7 +6939,7 @@
         <v>2.837567558081104</v>
       </c>
       <c r="B814" t="n">
-        <v>-35.79077878974904</v>
+        <v>-160.6907734163385</v>
       </c>
     </row>
     <row r="815">
@@ -6947,7 +6947,7 @@
         <v>2.84106209940879</v>
       </c>
       <c r="B815" t="n">
-        <v>-35.61954310565228</v>
+        <v>-160.8376516350196</v>
       </c>
     </row>
     <row r="816">
@@ -6955,7 +6955,7 @@
         <v>2.844556640736476</v>
       </c>
       <c r="B816" t="n">
-        <v>-35.46097974556503</v>
+        <v>-161.0029978024482</v>
       </c>
     </row>
     <row r="817">
@@ -6963,7 +6963,7 @@
         <v>2.848051182064162</v>
       </c>
       <c r="B817" t="n">
-        <v>-35.31466041680948</v>
+        <v>-161.1936445558085</v>
       </c>
     </row>
     <row r="818">
@@ -6971,7 +6971,7 @@
         <v>2.851545723391848</v>
       </c>
       <c r="B818" t="n">
-        <v>-35.1802210526714</v>
+        <v>-161.4211299763393</v>
       </c>
     </row>
     <row r="819">
@@ -6979,7 +6979,7 @@
         <v>2.855040264719534</v>
       </c>
       <c r="B819" t="n">
-        <v>-35.05736320777405</v>
+        <v>-161.707346348768</v>
       </c>
     </row>
     <row r="820">
@@ -6987,7 +6987,7 @@
         <v>2.85853480604722</v>
       </c>
       <c r="B820" t="n">
-        <v>-34.94584242045455</v>
+        <v>-162.1024754180854</v>
       </c>
     </row>
     <row r="821">
@@ -6995,647 +6995,807 @@
         <v>2.862029347374906</v>
       </c>
       <c r="B821" t="n">
-        <v>-34.84546841105958</v>
+        <v>-162.7744875230396</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
         <v>2.865523888702592</v>
       </c>
-      <c r="B822" t="n">
-        <v>-34.75610519694533</v>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
         <v>2.869018430030279</v>
       </c>
-      <c r="B823" t="n">
-        <v>-34.67766509138729</v>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
         <v>2.872512971357965</v>
       </c>
-      <c r="B824" t="n">
-        <v>-34.61010911227809</v>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
         <v>2.876007512685651</v>
       </c>
-      <c r="B825" t="n">
-        <v>-34.55344804615761</v>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
         <v>2.879502054013336</v>
       </c>
-      <c r="B826" t="n">
-        <v>-34.50774129019884</v>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
         <v>2.882996595341023</v>
       </c>
-      <c r="B827" t="n">
-        <v>-34.47309763196007</v>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
         <v>2.886491136668709</v>
       </c>
-      <c r="B828" t="n">
-        <v>-34.44967810045124</v>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
         <v>2.889985677996395</v>
       </c>
-      <c r="B829" t="n">
-        <v>-34.43769580813499</v>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
         <v>2.893480219324081</v>
       </c>
-      <c r="B830" t="n">
-        <v>-34.43742121985147</v>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
         <v>2.896974760651767</v>
       </c>
-      <c r="B831" t="n">
-        <v>-34.44918624591506</v>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
         <v>2.900469301979453</v>
       </c>
-      <c r="B832" t="n">
-        <v>-34.47338505156646</v>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
         <v>2.903963843307139</v>
       </c>
-      <c r="B833" t="n">
-        <v>-34.51048677882235</v>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
         <v>2.907458384634825</v>
       </c>
-      <c r="B834" t="n">
-        <v>-34.56103624274025</v>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
         <v>2.910952925962512</v>
       </c>
-      <c r="B835" t="n">
-        <v>-34.62566533788967</v>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
         <v>2.914447467290198</v>
       </c>
-      <c r="B836" t="n">
-        <v>-34.70510651875873</v>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
         <v>2.917942008617884</v>
       </c>
-      <c r="B837" t="n">
-        <v>-34.80020218019464</v>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
         <v>2.92143654994557</v>
       </c>
-      <c r="B838" t="n">
-        <v>-34.91192083663108</v>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
         <v>2.924931091273256</v>
       </c>
-      <c r="B839" t="n">
-        <v>-35.0413776520719</v>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
         <v>2.928425632600942</v>
       </c>
-      <c r="B840" t="n">
-        <v>-35.18985962244531</v>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
         <v>2.931920173928628</v>
       </c>
-      <c r="B841" t="n">
-        <v>-35.3588510491866</v>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
         <v>2.935414715256314</v>
       </c>
-      <c r="B842" t="n">
-        <v>-35.55007432217183</v>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
         <v>2.938909256584</v>
       </c>
-      <c r="B843" t="n">
-        <v>-35.76553243869841</v>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
         <v>2.942403797911686</v>
       </c>
-      <c r="B844" t="n">
-        <v>-36.00757115781164</v>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
         <v>2.945898339239372</v>
       </c>
-      <c r="B845" t="n">
-        <v>-36.27894631778858</v>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
         <v>2.949392880567058</v>
       </c>
-      <c r="B846" t="n">
-        <v>-36.58292912178413</v>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
         <v>2.952887421894745</v>
       </c>
-      <c r="B847" t="n">
-        <v>-36.92342252588862</v>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
         <v>2.956381963222431</v>
       </c>
-      <c r="B848" t="n">
-        <v>-37.3051310941543</v>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
         <v>2.959876504550117</v>
       </c>
-      <c r="B849" t="n">
-        <v>-37.73378401703083</v>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
         <v>2.963371045877803</v>
       </c>
-      <c r="B850" t="n">
-        <v>-38.21643882086568</v>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
         <v>2.966865587205489</v>
       </c>
-      <c r="B851" t="n">
-        <v>-38.76189746680164</v>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1" t="n">
         <v>2.970360128533175</v>
       </c>
-      <c r="B852" t="n">
-        <v>-39.38130093190626</v>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
         <v>2.973854669860861</v>
       </c>
-      <c r="B853" t="n">
-        <v>-40.08896734315525</v>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
         <v>2.977349211188547</v>
       </c>
-      <c r="B854" t="n">
-        <v>-40.90359233465092</v>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
         <v>2.980843752516233</v>
       </c>
-      <c r="B855" t="n">
-        <v>-41.849943971888</v>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
         <v>2.984338293843919</v>
       </c>
-      <c r="B856" t="n">
-        <v>-42.9611307209155</v>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
         <v>2.987832835171605</v>
       </c>
-      <c r="B857" t="n">
-        <v>-44.28081796169352</v>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
         <v>2.991327376499291</v>
       </c>
-      <c r="B858" t="n">
-        <v>-45.86181257201493</v>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
         <v>2.994821917826977</v>
       </c>
-      <c r="B859" t="n">
-        <v>-47.74249625564913</v>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
         <v>2.998316459154664</v>
       </c>
-      <c r="B860" t="n">
-        <v>-49.81901987602066</v>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
         <v>3.00181100048235</v>
       </c>
-      <c r="B861" t="n">
-        <v>-51.39747304122996</v>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1" t="n">
         <v>3.005305541810036</v>
       </c>
-      <c r="B862" t="n">
-        <v>-51.06550115901947</v>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
         <v>3.008800083137722</v>
       </c>
-      <c r="B863" t="n">
-        <v>-48.94834421862777</v>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
         <v>3.012294624465408</v>
       </c>
-      <c r="B864" t="n">
-        <v>-46.45242298566523</v>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
         <v>3.015789165793094</v>
       </c>
-      <c r="B865" t="n">
-        <v>-44.17939183014391</v>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
         <v>3.01928370712078</v>
       </c>
-      <c r="B866" t="n">
-        <v>-42.20480396790632</v>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
         <v>3.022778248448466</v>
       </c>
-      <c r="B867" t="n">
-        <v>-40.4858796131519</v>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
         <v>3.026272789776153</v>
       </c>
-      <c r="B868" t="n">
-        <v>-38.97035120300424</v>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1" t="n">
         <v>3.029767331103839</v>
       </c>
-      <c r="B869" t="n">
-        <v>-37.61569293120412</v>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1" t="n">
         <v>3.033261872431525</v>
       </c>
-      <c r="B870" t="n">
-        <v>-36.38978298590536</v>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1" t="n">
         <v>3.03675641375921</v>
       </c>
-      <c r="B871" t="n">
-        <v>-35.26856765620248</v>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1" t="n">
         <v>3.040250955086897</v>
       </c>
-      <c r="B872" t="n">
-        <v>-34.23386741063408</v>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="n">
         <v>3.043745496414583</v>
       </c>
-      <c r="B873" t="n">
-        <v>-33.27172976754976</v>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="n">
         <v>3.047240037742269</v>
       </c>
-      <c r="B874" t="n">
-        <v>-32.37127572761111</v>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
         <v>3.050734579069955</v>
       </c>
-      <c r="B875" t="n">
-        <v>-31.52388834275992</v>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
         <v>3.054229120397641</v>
       </c>
-      <c r="B876" t="n">
-        <v>-30.72264496939751</v>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
         <v>3.057723661725327</v>
       </c>
-      <c r="B877" t="n">
-        <v>-29.96191181570632</v>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
         <v>3.061218203053013</v>
       </c>
-      <c r="B878" t="n">
-        <v>-29.23704739186508</v>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
         <v>3.064712744380699</v>
       </c>
-      <c r="B879" t="n">
-        <v>-28.54419077181145</v>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
         <v>3.068207285708386</v>
       </c>
-      <c r="B880" t="n">
-        <v>-27.88009538437508</v>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
         <v>3.071701827036072</v>
       </c>
-      <c r="B881" t="n">
-        <v>-27.24201123597629</v>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
         <v>3.075196368363758</v>
       </c>
-      <c r="B882" t="n">
-        <v>-26.62758829228068</v>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
         <v>3.078690909691444</v>
       </c>
-      <c r="B883" t="n">
-        <v>-26.03480605258429</v>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
         <v>3.08218545101913</v>
       </c>
-      <c r="B884" t="n">
-        <v>-25.46191535532652</v>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1" t="n">
         <v>3.085679992346816</v>
       </c>
-      <c r="B885" t="n">
-        <v>-24.90739384277198</v>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
         <v>3.089174533674502</v>
       </c>
-      <c r="B886" t="n">
-        <v>-24.36990795875635</v>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1" t="n">
         <v>3.092669075002188</v>
       </c>
-      <c r="B887" t="n">
-        <v>-23.84828675541996</v>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1" t="n">
         <v>3.096163616329874</v>
       </c>
-      <c r="B888" t="n">
-        <v>-23.34149484846633</v>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1" t="n">
         <v>3.09965815765756</v>
       </c>
-      <c r="B889" t="n">
-        <v>-22.84861469305346</v>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1" t="n">
         <v>3.103152698985246</v>
       </c>
-      <c r="B890" t="n">
-        <v>-22.3688307135255</v>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1" t="n">
         <v>3.106647240312932</v>
       </c>
-      <c r="B891" t="n">
-        <v>-21.90141375370855</v>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1" t="n">
         <v>3.110141781640618</v>
       </c>
-      <c r="B892" t="n">
-        <v>-21.44571187229894</v>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1" t="n">
         <v>3.113636322968305</v>
       </c>
-      <c r="B893" t="n">
-        <v>-21.00114053188265</v>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1" t="n">
         <v>3.117130864295991</v>
       </c>
-      <c r="B894" t="n">
-        <v>-20.56717216941207</v>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1" t="n">
         <v>3.120625405623677</v>
       </c>
-      <c r="B895" t="n">
-        <v>-20.14333304758799</v>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1" t="n">
         <v>3.124119946951363</v>
       </c>
-      <c r="B896" t="n">
-        <v>-19.72919455415903</v>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1" t="n">
         <v>3.127614488279049</v>
       </c>
-      <c r="B897" t="n">
-        <v>-19.32436855527684</v>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
         <v>3.131109029606735</v>
       </c>
-      <c r="B898" t="n">
-        <v>-18.92850488428704</v>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1" t="n">
         <v>3.134603570934421</v>
       </c>
-      <c r="B899" t="n">
-        <v>-18.54128457370074</v>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1" t="n">
         <v>3.138098112262107</v>
       </c>
-      <c r="B900" t="n">
-        <v>-18.16241911154256</v>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="B901" t="n">
-        <v>-17.79164710564498</v>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/RT_radpat_80deg.xlsx
+++ b/RT_radpat_80deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-134.5915805308373</v>
+        <v>-135.0170682168473</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-134.6202496745118</v>
+        <v>-135.0067258466491</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-134.6835134092007</v>
+        <v>-135.0306860083557</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-134.7850413413858</v>
+        <v>-135.0920641812329</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-134.9291824119367</v>
+        <v>-135.194514368455</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-135.1211553276695</v>
+        <v>-135.3423593132509</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-135.3673119578717</v>
+        <v>-135.5407566889841</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-135.675505247292</v>
+        <v>-135.7959165210929</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-136.0556182029028</v>
+        <v>-136.1153881526996</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-136.5203458490199</v>
+        <v>-136.5084305012566</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-137.0863876448905</v>
+        <v>-136.9864881663684</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-137.7763367542466</v>
+        <v>-137.5637611064092</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-138.6218062208611</v>
+        <v>-138.257778782116</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-139.6688734433292</v>
+        <v>-139.0895919695202</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-140.9881392522283</v>
+        <v>-140.082266827421</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-142.6944686302199</v>
+        <v>-141.2534157827004</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-144.9868391698863</v>
+        <v>-142.5884958871927</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-148.2066864537268</v>
+        <v>-143.9602132182073</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-152.3969551846479</v>
+        <v>-144.9630890908223</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-152.488330408724</v>
+        <v>-144.9277261436353</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-147.7228075894258</v>
+        <v>-143.6624996737875</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-143.7881811688032</v>
+        <v>-141.7571318665841</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-140.8226800965342</v>
+        <v>-139.7648421542916</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-138.4718369704232</v>
+        <v>-137.9064459948839</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-136.5254776783205</v>
+        <v>-136.2291382180186</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-134.863113128783</v>
+        <v>-134.7239206779539</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-133.4113710082119</v>
+        <v>-133.3689140059234</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-132.1228222330987</v>
+        <v>-132.1423247644178</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-130.9652535052427</v>
+        <v>-131.0256064577248</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-129.9158962612727</v>
+        <v>-130.0037192279082</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-128.9581322735422</v>
+        <v>-129.0646387007621</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-128.0795136760304</v>
+        <v>-128.1987650488346</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-127.2705182939053</v>
+        <v>-127.3984056913419</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-126.523737390106</v>
+        <v>-126.6573640239533</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-125.8333291789745</v>
+        <v>-125.9706225433528</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-125.19463953743</v>
+        <v>-125.3341005592323</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-124.6039335477763</v>
+        <v>-124.7444700157928</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-124.0582016631335</v>
+        <v>-124.1990149278412</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-123.5550164179629</v>
+        <v>-123.6955230309845</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-123.0924260835283</v>
+        <v>-123.2322024266181</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-122.6688740467255</v>
+        <v>-122.8076169124357</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-122.283138032864</v>
+        <v>-122.4206357030258</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-121.9342833603873</v>
+        <v>-122.0703946847247</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-121.6216274747238</v>
+        <v>-121.7562663671219</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-121.3447135252254</v>
+        <v>-121.477837279642</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-121.1032904981757</v>
+        <v>-121.2348914936025</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-120.8972995470862</v>
+        <v>-121.0273989366443</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-120.7268654021755</v>
+        <v>-120.8555086699723</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-120.5922921036517</v>
+        <v>-120.7195460741908</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-120.4940630635789</v>
+        <v>-120.6200141885965</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-120.4328455082933</v>
+        <v>-120.5575991941778</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-120.4094990579918</v>
+        <v>-120.5331801283008</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-120.4250893454747</v>
+        <v>-120.5478435353507</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-120.4809068899871</v>
+        <v>-120.6029036251702</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-120.5784924998811</v>
+        <v>-120.6999292232391</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-120.7196705496022</v>
+        <v>-120.8407787470119</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-120.9065919156085</v>
+        <v>-121.0276457092692</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-121.1417894845549</v>
+        <v>-121.263117574496</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-121.428249908523</v>
+        <v>-121.5502519641413</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-121.7695068646647</v>
+        <v>-121.8926764173065</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-122.1697631160924</v>
+        <v>-122.2947201646017</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-122.6340526016011</v>
+        <v>-122.7615902890925</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-123.1684569441058</v>
+        <v>-123.2996101744829</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-123.7804005930429</v>
+        <v>-123.9165491688595</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-124.4790570782907</v>
+        <v>-124.6220844351433</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-125.2759172375906</v>
+        <v>-125.4284644436222</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-126.1855942985092</v>
+        <v>-126.3514795351069</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-127.2269701372456</v>
+        <v>-127.4119134418321</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-128.4248096468998</v>
+        <v>-128.6377505267908</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-129.8118987488296</v>
+        <v>-130.0675307792936</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-131.4312159676187</v>
+        <v>-131.7551745417433</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-133.3349327246353</v>
+        <v>-133.7750089353323</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-135.564394844991</v>
+        <v>-136.2145011371961</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-138.0407141675583</v>
+        <v>-139.0727828218156</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-140.1659094521245</v>
+        <v>-141.6791902529167</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-140.5712667749374</v>
+        <v>-141.9402620992052</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-139.1396697543736</v>
+        <v>-139.8810750464802</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-137.2480790893624</v>
+        <v>-137.5925767525718</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-135.5876122486387</v>
+        <v>-135.7349779234753</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-134.2699937600864</v>
+        <v>-134.3107985281065</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-133.263746031499</v>
+        <v>-133.2372141667966</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-132.5221831930884</v>
+        <v>-132.4452924592992</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-132.0079243031481</v>
+        <v>-131.8870562244321</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-131.6949941176357</v>
+        <v>-131.5306245634642</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-131.5671271447025</v>
+        <v>-131.3556536028258</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-131.6161258409967</v>
+        <v>-131.3503346673629</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-131.8409867016824</v>
+        <v>-131.5096625506285</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-132.2479128709964</v>
+        <v>-131.8346402292055</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-132.8513736681338</v>
+        <v>-132.3322419982321</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-133.676637353307</v>
+        <v>-133.0160970133528</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-134.7647687396687</v>
+        <v>-133.907958563169</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-136.1822805516855</v>
+        <v>-135.0400144171577</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-138.0403005308033</v>
+        <v>-136.457494203119</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-140.5328331569872</v>
+        <v>-138.2176006722423</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-143.9878496181957</v>
+        <v>-140.3634226964791</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-148.3933456132963</v>
+        <v>-142.771679738669</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-148.7880252600857</v>
+        <v>-144.6100968240068</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-144.5283296260669</v>
+        <v>-144.3469224081926</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-141.0913911094074</v>
+        <v>-142.4361224564154</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-138.6525232815561</v>
+        <v>-140.3702623807004</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-136.8741476936044</v>
+        <v>-138.6569852467148</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-135.5529344956796</v>
+        <v>-137.3311876319071</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-134.5730601416335</v>
+        <v>-136.3414198176902</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-133.865711644793</v>
+        <v>-135.6374421657454</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-133.3886718876259</v>
+        <v>-135.1829966574022</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-133.116051734195</v>
+        <v>-134.9548970233875</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-133.0329702202835</v>
+        <v>-134.9406973395039</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-133.1328313426059</v>
+        <v>-135.1371533029774</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-133.4161577383231</v>
+        <v>-135.5497530474347</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-133.8905742970616</v>
+        <v>-136.1933437809951</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-134.5719464457601</v>
+        <v>-137.0938782396756</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-135.4870754222854</v>
+        <v>-138.2910505166442</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-136.6790351457066</v>
+        <v>-139.8396103417185</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-138.2176706648249</v>
+        <v>-141.7964325387719</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-140.221353796191</v>
+        <v>-144.1267587060762</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-142.9051672407095</v>
+        <v>-146.2808435543679</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-146.6819425881623</v>
+        <v>-146.6747124062966</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-151.9458471997213</v>
+        <v>-144.9743659124736</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-152.9025868417112</v>
+        <v>-142.8089638950015</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-148.0909537031206</v>
+        <v>-140.968658471784</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-144.6297115350393</v>
+        <v>-139.5535881321991</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-142.3524114936407</v>
+        <v>-138.5172673224169</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-140.812230813145</v>
+        <v>-137.8061013912243</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-139.7766631524342</v>
+        <v>-137.3816019651971</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-139.1200722263335</v>
+        <v>-137.2208061472566</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-138.76883313091</v>
+        <v>-137.3141426332988</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-138.6757654169718</v>
+        <v>-137.6642613396301</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-138.8061374096297</v>
+        <v>-138.2864023152089</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-139.1274956312256</v>
+        <v>-139.2103784521969</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-139.5993356432632</v>
+        <v>-140.4836295626382</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-140.1608263389607</v>
+        <v>-142.1708441403081</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-140.7192359950744</v>
+        <v>-144.3229322714195</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-141.1516901445497</v>
+        <v>-146.7729000933893</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-141.3407769497005</v>
+        <v>-148.4016673263683</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-141.2391035028201</v>
+        <v>-147.5589631624431</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-140.9032365395622</v>
+        <v>-145.3292627760078</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-140.4552339398192</v>
+        <v>-143.2220304911094</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-140.0188444493935</v>
+        <v>-141.5811612545952</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-139.6870052816027</v>
+        <v>-140.3854473435603</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-139.5220066012374</v>
+        <v>-139.5719601131831</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-139.5677986112748</v>
+        <v>-139.0926943033458</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-139.8628638010261</v>
+        <v>-138.9193160418669</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-140.4518545532852</v>
+        <v>-139.0409463803401</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-141.3988827362982</v>
+        <v>-139.4628376978935</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-142.8091081746625</v>
+        <v>-140.2072120090322</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-144.8749354025964</v>
+        <v>-141.3162604522939</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-147.9956913652326</v>
+        <v>-142.855045380985</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-153.0718707224965</v>
+        <v>-144.8978520883205</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-157.8065786226398</v>
+        <v>-147.3975771376495</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-151.5838358413527</v>
+        <v>-149.5283553610013</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-146.8856159513453</v>
+        <v>-149.2437392183365</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-143.8969258059663</v>
+        <v>-146.9988992185273</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-141.8541984453419</v>
+        <v>-144.7272330950829</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-140.4232514096833</v>
+        <v>-142.9627502308917</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-139.4416679433643</v>
+        <v>-141.6976397357197</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-138.8236172310112</v>
+        <v>-140.8599239572596</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-138.523378339382</v>
+        <v>-140.3952117005841</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-138.5199973580228</v>
+        <v>-140.273282796609</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-138.8109976311289</v>
+        <v>-140.4855196092938</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-139.4110080899682</v>
+        <v>-141.0438326349208</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-140.3541839685162</v>
+        <v>-141.9826285059771</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-141.7005972814673</v>
+        <v>-143.3630289271009</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-143.5458998883967</v>
+        <v>-145.2702856000974</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-146.0172771803228</v>
+        <v>-147.7400009023043</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-149.100615660239</v>
+        <v>-150.2570484082537</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-151.4688524198962</v>
+        <v>-150.6956658892359</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-150.3190600377199</v>
+        <v>-148.5467224484678</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-147.6090306409353</v>
+        <v>-146.1009476088119</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-145.3913166049649</v>
+        <v>-144.1911309391586</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-143.8630145736977</v>
+        <v>-142.8382451792943</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-142.9176726546748</v>
+        <v>-141.9602294415603</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-142.4708349353791</v>
+        <v>-141.4946061002137</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-142.4853024461854</v>
+        <v>-141.4082036010045</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-142.9689430651144</v>
+        <v>-141.6941338555017</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-143.9810029243116</v>
+        <v>-142.3709485679913</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-145.6571478412075</v>
+        <v>-143.4858061339207</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-148.2635957875889</v>
+        <v>-145.1190626009063</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-152.1457393200018</v>
+        <v>-147.365202135473</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-155.0013401049295</v>
+        <v>-150.1096147332901</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-151.2272815983192</v>
+        <v>-151.9140055159276</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-147.1258064491745</v>
+        <v>-150.5495113868936</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-144.2627369423711</v>
+        <v>-147.9081152839879</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-142.2629258379942</v>
+        <v>-145.6999707493638</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-140.8668346531933</v>
+        <v>-144.1209558237176</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-139.9330971040868</v>
+        <v>-143.0855481998667</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-139.3848967406277</v>
+        <v>-142.514413117356</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-139.1831468823099</v>
+        <v>-142.3631999747902</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-139.3147244653457</v>
+        <v>-142.6196818450541</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-139.7889041398073</v>
+        <v>-143.3020602979205</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-140.6400208600639</v>
+        <v>-144.4623690237222</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-141.9379103097677</v>
+        <v>-146.1917611272415</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-143.8123917889772</v>
+        <v>-148.5925678891627</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-146.504908065264</v>
+        <v>-151.449146010826</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-150.4104055098493</v>
+        <v>-152.7837257173212</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-154.6848936056101</v>
+        <v>-150.7801330826468</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-152.5309220852706</v>
+        <v>-148.0715948559501</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-148.331841659488</v>
+        <v>-145.9742157785006</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-145.4200612752746</v>
+        <v>-144.5351338556157</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-143.462032606925</v>
+        <v>-143.6497705679272</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-142.1438781754974</v>
+        <v>-143.2435975513951</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-141.2897130137064</v>
+        <v>-143.2825248643568</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-140.7964634521165</v>
+        <v>-143.7686864901193</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-140.5982933034785</v>
+        <v>-144.7411931296258</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-140.6488660278196</v>
+        <v>-146.2825660617166</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-140.9120176205127</v>
+        <v>-148.5131475432953</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-141.357015336754</v>
+        <v>-151.4119627016991</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-141.9573937189832</v>
+        <v>-153.5893475534237</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-142.6937365471105</v>
+        <v>-152.19655556633</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-143.5611523132484</v>
+        <v>-149.3342616982673</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-144.5815637525425</v>
+        <v>-147.027171727981</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-145.8207985617675</v>
+        <v>-145.442910415224</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-147.4147645252709</v>
+        <v>-144.4667399745291</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-149.6265476536117</v>
+        <v>-144.0104492568858</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-153.0144469546449</v>
+        <v>-144.0329022960743</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-158.8367593469995</v>
+        <v>-144.5349920818713</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-160.2959281761725</v>
+        <v>-145.5602238521264</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-153.0669280083715</v>
+        <v>-147.2022177745768</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-148.5402249624425</v>
+        <v>-149.5940771815173</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-145.5116944404664</v>
+        <v>-152.6384520632137</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-143.3375098640577</v>
+        <v>-154.3604229067602</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-141.7416345339538</v>
+        <v>-152.2682343812154</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-140.5879108650271</v>
+        <v>-149.3670790679001</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-139.8036511612901</v>
+        <v>-147.1927719690037</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-139.3502226080691</v>
+        <v>-145.7583410791507</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-139.2106460268554</v>
+        <v>-144.9365459129955</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-139.3846363517331</v>
+        <v>-144.647727820873</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-139.8878266904112</v>
+        <v>-144.8638719184607</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-140.7542880886983</v>
+        <v>-145.6039416549927</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-142.042383099709</v>
+        <v>-146.9383046741216</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-143.8423297121304</v>
+        <v>-148.9960733269753</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-146.2652180130198</v>
+        <v>-151.8831117194509</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.2535313126976</v>
+        <v>-154.7485399264285</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-151.488651593197</v>
+        <v>-154.0892013215035</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-150.4802098129668</v>
+        <v>-151.0377488029951</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-148.0076072962767</v>
+        <v>-148.4940953358598</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-145.9797448318981</v>
+        <v>-146.7768147949007</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-144.6231868526215</v>
+        <v>-145.7480365608291</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-143.8450160451022</v>
+        <v>-145.3018406709321</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-143.5542162783169</v>
+        <v>-145.39255794517</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-143.6857262832089</v>
+        <v>-146.0278559046769</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-144.1817413948553</v>
+        <v>-147.2709889334484</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-144.9565109795757</v>
+        <v>-149.2508205358372</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-145.8382809871824</v>
+        <v>-152.1089920012738</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-146.5184732333973</v>
+        <v>-155.2036344654168</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-146.6598584487045</v>
+        <v>-154.9143683246921</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-146.2154987006366</v>
+        <v>-151.7910009980622</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-145.4875564944348</v>
+        <v>-149.1394447563857</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-144.8157400442045</v>
+        <v>-147.3635434246464</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-144.4067487010149</v>
+        <v>-146.313263523037</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-144.3656607820523</v>
+        <v>-145.8740065996716</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-144.7564815339637</v>
+        <v>-145.9982171153607</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-145.6335653295775</v>
+        <v>-146.6974152724167</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-147.0263761126868</v>
+        <v>-148.0455143126571</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-148.7765062719299</v>
+        <v>-150.1897005481628</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-149.9699781270548</v>
+        <v>-153.2591966908814</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-149.1010286222937</v>
+        <v>-156.1584314687615</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-146.7815202277308</v>
+        <v>-154.899414135773</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-144.4547666151802</v>
+        <v>-151.6449879508671</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-142.570140715276</v>
+        <v>-149.1532760381774</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-141.1454555550716</v>
+        <v>-147.5480561132448</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-140.1239361567241</v>
+        <v>-146.6620661834905</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-139.4522915756449</v>
+        <v>-146.3933604034089</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-139.0913716323005</v>
+        <v>-146.7109356125821</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-139.0146129059344</v>
+        <v>-147.648193436142</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-139.2051364925966</v>
+        <v>-149.3116479443669</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-139.6531864374242</v>
+        <v>-151.8830461274423</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-140.3533862551103</v>
+        <v>-155.2941120024078</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-141.299935754984</v>
+        <v>-156.7779251652759</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-142.4747659265242</v>
+        <v>-153.8843338244491</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-143.8165011502469</v>
+        <v>-150.8299151338855</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-145.1495196469771</v>
+        <v>-148.7537242723344</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-146.0937422236584</v>
+        <v>-147.5104441602035</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-146.1863732553192</v>
+        <v>-146.9504877319719</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-145.3707748013272</v>
+        <v>-147.0068875734797</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-144.0677076797066</v>
+        <v>-147.6843612709951</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-142.6839097656722</v>
+        <v>-149.0611978871631</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-141.4191927789903</v>
+        <v>-151.3038612451653</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-140.3445737921495</v>
+        <v>-154.5623978699894</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-139.4804183598848</v>
+        <v>-157.4176275151339</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-138.8316163329111</v>
+        <v>-155.5383544005827</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-138.4001232201625</v>
+        <v>-152.1659313914712</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-138.1886973850598</v>
+        <v>-149.750769438599</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-138.2012876833869</v>
+        <v>-148.2613238435668</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-138.441514661786</v>
+        <v>-147.5147890712057</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-138.9085486677017</v>
+        <v>-147.4173790193753</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-139.5876565070076</v>
+        <v>-147.9555756189505</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-140.4302101732963</v>
+        <v>-149.1929603992385</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-141.3188675910091</v>
+        <v>-151.2860196201829</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-142.0368972038263</v>
+        <v>-154.4368662174267</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-142.3248710458538</v>
+        <v>-157.7464414246467</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-142.0796412703146</v>
+        <v>-156.5426793048825</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-141.4649670379693</v>
+        <v>-153.029225311073</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-140.74911201179</v>
+        <v>-150.4377182898118</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-140.1307882375525</v>
+        <v>-148.8316532919984</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-139.713030628059</v>
+        <v>-148.0084544215909</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-139.5393152452187</v>
+        <v>-147.8600683832177</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-139.6246187856592</v>
+        <v>-148.3659971323727</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-139.9713995754047</v>
+        <v>-149.5879025155856</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-140.5755319026179</v>
+        <v>-151.6865280149194</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-141.4263909218108</v>
+        <v>-154.8822726643871</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-142.503048173767</v>
+        <v>-158.2788877535085</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-143.7679533960147</v>
+        <v>-156.9803458274446</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-145.1615414200215</v>
+        <v>-153.3925721593851</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-146.6049981071291</v>
+        <v>-150.7940826566542</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-148.0147059463431</v>
+        <v>-149.2052637613831</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-149.301588975407</v>
+        <v>-148.41405451324</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-150.2863727974777</v>
+        <v>-148.3127611222247</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-150.5545834768814</v>
+        <v>-148.8860606153084</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-149.684893003521</v>
+        <v>-150.2068143302811</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-147.8977455190255</v>
+        <v>-152.4561759953889</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-145.8255304251259</v>
+        <v>-155.8536106058557</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-143.8832858039544</v>
+        <v>-159.0023396113901</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-142.2234565506144</v>
+        <v>-156.8812900396094</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-140.8788086655013</v>
+        <v>-153.3145625026294</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-139.8425876956948</v>
+        <v>-150.8692504286339</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-139.0983499222173</v>
+        <v>-149.4196856182362</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-138.6294839020999</v>
+        <v>-148.7594981152183</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-138.4214210326558</v>
+        <v>-148.7961746788905</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-138.460820394</v>
+        <v>-149.5319665260155</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-138.7325713773695</v>
+        <v>-151.0653381786397</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-139.2137343759848</v>
+        <v>-153.6147282231442</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-139.8623002927258</v>
+        <v>-157.326596790094</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-140.5989406588517</v>
+        <v>-159.4973993954275</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-141.2872866824371</v>
+        <v>-156.2660918842871</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-141.7414715137122</v>
+        <v>-152.9182186874929</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-141.8047668640027</v>
+        <v>-150.759403976544</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-141.4626005638443</v>
+        <v>-149.5475172614278</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-140.8485108562622</v>
+        <v>-149.1025818415798</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-140.1346190544963</v>
+        <v>-149.3603237462803</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-139.447757596247</v>
+        <v>-150.3531090834456</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-138.8582928165616</v>
+        <v>-152.2220530349943</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-138.3993052155126</v>
+        <v>-155.233287118821</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-138.0850408764285</v>
+        <v>-159.1492255830671</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-137.9217703530316</v>
+        <v>-159.1357050707878</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-137.9124901073753</v>
+        <v>-155.2836958851829</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-138.0574063992501</v>
+        <v>-152.3605090925075</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-138.3509583483572</v>
+        <v>-150.5790314912926</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-138.7749921341854</v>
+        <v>-149.6763803971535</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-139.2873167730968</v>
+        <v>-149.5164121829598</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-139.8076371714445</v>
+        <v>-150.0736602471551</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-140.2131842099944</v>
+        <v>-151.4245989956848</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-140.3706718581629</v>
+        <v>-153.7738600832825</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-140.2123061992754</v>
+        <v>-157.3917874610982</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-139.7902962403378</v>
+        <v>-160.5620146539547</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-139.240656532641</v>
+        <v>-157.8330184335241</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-138.7038699696143</v>
+        <v>-154.1771690188512</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-138.2814498302497</v>
+        <v>-151.7936566223682</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-138.0345525956105</v>
+        <v>-150.4377455868631</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-137.9973285748678</v>
+        <v>-149.8939448213481</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-138.1890658378956</v>
+        <v>-150.0793386666227</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-138.6216572791004</v>
+        <v>-151.0170516870502</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-139.302965540665</v>
+        <v>-152.8461100003877</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-140.2366527288434</v>
+        <v>-155.851512000466</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-141.4176245263587</v>
+        <v>-159.9381113954366</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-142.8198925541223</v>
+        <v>-160.1861485125503</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-144.3709232688115</v>
+        <v>-156.1764335802529</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-145.9100575976346</v>
+        <v>-153.1585360001758</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-147.1633338017566</v>
+        <v>-151.3393011233333</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-147.8366607884635</v>
+        <v>-150.4282398750372</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-147.8340365837216</v>
+        <v>-150.280507240057</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-147.3070560284579</v>
+        <v>-150.870862000448</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-146.4669312006583</v>
+        <v>-152.2839705549706</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-145.4662962533378</v>
+        <v>-154.7466390193186</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-144.4107179689505</v>
+        <v>-158.5571677073658</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-143.3864052164436</v>
+        <v>-161.5600701035976</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-142.465323206254</v>
+        <v>-158.3103943049558</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-141.7017684532886</v>
+        <v>-154.6630234053168</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-141.1318729155704</v>
+        <v>-152.3576114839863</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-140.7763496699018</v>
+        <v>-151.0820521978258</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-140.6432075018343</v>
+        <v>-150.6228700378835</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-140.7277903917136</v>
+        <v>-150.9066600798168</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-141.0081214557339</v>
+        <v>-151.9717377081929</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-141.4338315419396</v>
+        <v>-153.985394374079</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-141.9100267191625</v>
+        <v>-157.2766779580946</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-142.289935239296</v>
+        <v>-161.4598545414532</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-142.4105998928642</v>
+        <v>-160.4478955913834</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-142.1855793034041</v>
+        <v>-156.3168166409632</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-141.670954105993</v>
+        <v>-153.4903603728709</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-141.0157877994959</v>
+        <v>-151.8392066152155</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-140.3653883609306</v>
+        <v>-151.0763161271962</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-139.815425284328</v>
+        <v>-151.0765319660741</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-139.4153979116231</v>
+        <v>-151.8355729510296</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-139.1857042211902</v>
+        <v>-153.4687242500029</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-139.1312249014981</v>
+        <v>-156.2553768246223</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-139.2489307030094</v>
+        <v>-160.4431429095479</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-139.5307554788022</v>
+        <v>-162.2291522501091</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-139.9624996205883</v>
+        <v>-158.1450293823526</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-140.5182907280507</v>
+        <v>-154.7566461064939</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-141.1494622511476</v>
+        <v>-152.7023132787252</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-141.769164125316</v>
+        <v>-151.6297864152344</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-142.2450644796256</v>
+        <v>-151.3550823600669</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-142.4304490965775</v>
+        <v>-151.8313263135983</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-142.2475442068411</v>
+        <v>-153.1277757559428</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-141.7516639863721</v>
+        <v>-155.4621472593882</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-141.0920698109722</v>
+        <v>-159.2131085754075</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-140.4222133426103</v>
+        <v>-163.0285271896244</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-139.8517961420723</v>
+        <v>-160.1646391877118</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-139.4464925525019</v>
+        <v>-156.1987783750866</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-139.2432372565489</v>
+        <v>-153.6920285813588</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-139.2634361308517</v>
+        <v>-152.288063712582</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-139.5206971565878</v>
+        <v>-151.733461104366</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-140.0237526595572</v>
+        <v>-151.9350614140872</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-140.7747598332444</v>
+        <v>-152.9189278770279</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-141.7609594389836</v>
+        <v>-154.8437995248136</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-142.9347395534408</v>
+        <v>-158.0581944811901</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-144.1778065094474</v>
+        <v>-162.5443262693109</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-145.2695909138097</v>
+        <v>-162.2883575504756</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-145.9480213583106</v>
+        <v>-157.8883821264338</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-146.117718091503</v>
+        <v>-154.8519098352977</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-145.9576461075252</v>
+        <v>-153.0738125392966</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-145.7456455711155</v>
+        <v>-152.2194139136569</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-145.6811398795238</v>
+        <v>-152.1409744517253</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-145.8594520671537</v>
+        <v>-152.8208963746533</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-146.3013825934194</v>
+        <v>-154.3634119669966</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-146.9676585342989</v>
+        <v>-157.0447372788337</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-147.7493250696152</v>
+        <v>-161.2582611957905</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-148.4601748682239</v>
+        <v>-164.0203679281584</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-148.8960904143709</v>
+        <v>-159.923832493008</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-148.9840594726917</v>
+        <v>-156.2547494612384</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-148.8577640304695</v>
+        <v>-154.0299324843406</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.7435201421676</v>
+        <v>-152.8370468533064</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-148.8235575148646</v>
+        <v>-152.4590909890647</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-149.1906524668004</v>
+        <v>-152.8302974077881</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-149.8307308504974</v>
+        <v>-154.0032242318545</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-150.552151917643</v>
+        <v>-156.1767133454534</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-150.8889260740873</v>
+        <v>-159.7613654981334</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-150.3399700295864</v>
+        <v>-164.2843254547573</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-149.0003920510005</v>
+        <v>-162.3753788782951</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-147.4143364307481</v>
+        <v>-158.0196263793881</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-145.9702222146448</v>
+        <v>-155.2298162034623</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-144.8150498367055</v>
+        <v>-153.6325796373222</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-143.9802708984116</v>
+        <v>-152.9183535822462</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-143.4594354055496</v>
+        <v>-152.962647692608</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-143.2377237277959</v>
+        <v>-153.766017206278</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-143.30110993548</v>
+        <v>-155.4548964469038</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-143.6377350672644</v>
+        <v>-158.3456793728817</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-144.2349641133072</v>
+        <v>-162.8413093888425</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-145.0708484936604</v>
+        <v>-164.867660616681</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-146.0944419289879</v>
+        <v>-160.3302060637515</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-147.1868322041806</v>
+        <v>-156.7945699812221</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-148.1125635507922</v>
+        <v>-154.6835058368306</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-148.5513757804576</v>
+        <v>-153.5715929004019</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-148.3284533985104</v>
+        <v>-153.2547729059392</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-147.6024663371202</v>
+        <v>-153.676022728734</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-146.6858655140512</v>
+        <v>-154.8949645493751</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-145.81107380048</v>
+        <v>-157.1211043570713</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-145.0949576012769</v>
+        <v>-160.7957832871637</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-144.5869867400271</v>
+        <v>-165.4871993986541</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-144.3084552999459</v>
+        <v>-163.380770170655</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-144.2718973820197</v>
+        <v>-158.930046144285</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-144.4886715833664</v>
+        <v>-156.1195274467972</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-144.9698255654002</v>
+        <v>-154.5074813267786</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-145.7202119424531</v>
+        <v>-153.7719809454578</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-146.719276097946</v>
+        <v>-153.7831087696528</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-147.8725795291589</v>
+        <v>-154.534905252726</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-148.9244661413784</v>
+        <v>-156.1426100558266</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-149.4410459355671</v>
+        <v>-158.906559097788</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-149.1430126877468</v>
+        <v>-163.3258404422546</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-148.2702564448545</v>
+        <v>-166.423330507348</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-147.2778279735265</v>
+        <v>-161.9792594176872</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-146.4613323251316</v>
+        <v>-158.1661627796568</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-145.9479649333009</v>
+        <v>-155.8742267402095</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-145.7874265566111</v>
+        <v>-154.6221487399092</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-146.0079272473936</v>
+        <v>-154.171665252008</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-146.6420473946396</v>
+        <v>-154.4425345022721</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-147.7396871855347</v>
+        <v>-155.4678913948793</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-149.3718859170794</v>
+        <v>-157.413554837363</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-151.5941535594634</v>
+        <v>-160.6672550177674</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-154.1715165382337</v>
+        <v>-165.5865451041059</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-155.6270785717059</v>
+        <v>-166.1168905980326</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-154.375545735466</v>
+        <v>-161.2433721116584</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-152.0935102510201</v>
+        <v>-157.9371461292116</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-146.678510171179</v>
+        <v>-155.9897036441379</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-146.0904767069666</v>
+        <v>-154.9836839202327</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-145.8721649081383</v>
+        <v>-154.7337079915737</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-145.9813715840957</v>
+        <v>-155.1909334785656</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-146.3721043542838</v>
+        <v>-156.4156825435174</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-146.9695373162477</v>
+        <v>-158.6125902417279</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-147.6341235498089</v>
+        <v>-162.2360106310524</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-148.1380824301681</v>
+        <v>-167.3163817349645</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-148.2348390447306</v>
+        <v>-165.968176674723</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-147.8465564447158</v>
+        <v>-161.2232642679873</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-147.138601029463</v>
+        <v>-158.2212328018335</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-146.3573027864439</v>
+        <v>-156.4775983746121</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-145.6804720324102</v>
+        <v>-155.6210293249023</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-145.1994227311658</v>
+        <v>-155.4938467657581</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-144.9522560025098</v>
+        <v>-156.0631806637469</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-144.9520095152704</v>
+        <v>-157.4024319056759</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-145.2016011079707</v>
+        <v>-159.7340497082424</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-145.6998183147888</v>
+        <v>-163.5442495568971</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-146.4414794879633</v>
+        <v>-168.7077663323506</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-147.4116100766093</v>
+        <v>-166.76994647298</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-148.5699231911747</v>
+        <v>-162.1296096139635</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-149.8195213021313</v>
+        <v>-159.2760984192745</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-150.9656691164971</v>
+        <v>-157.6653566108583</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-151.7279460235268</v>
+        <v>-156.9443317217951</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-151.9117383232859</v>
+        <v>-156.9743222762952</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-151.6041365992664</v>
+        <v>-157.7506908143187</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-151.0775582554606</v>
+        <v>-159.413390270853</v>
       </c>
     </row>
     <row r="501">
@@ -4435,2567 +4435,3207 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-150.4998771783843</v>
+        <v>-162.4773520686122</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
         <v>1.747270663843044</v>
       </c>
-      <c r="B502" t="n">
-        <v>-152.3320368877562</v>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
         <v>1.75076520517073</v>
       </c>
-      <c r="B503" t="n">
-        <v>-152.3405408080419</v>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
         <v>1.754259746498416</v>
       </c>
-      <c r="B504" t="n">
-        <v>-152.3491137865895</v>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
         <v>1.757754287826102</v>
       </c>
-      <c r="B505" t="n">
-        <v>-152.3577559143942</v>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
         <v>1.761248829153788</v>
       </c>
-      <c r="B506" t="n">
-        <v>-152.3664672834088</v>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
         <v>1.764743370481475</v>
       </c>
-      <c r="B507" t="n">
-        <v>-152.3752479865514</v>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
         <v>1.768237911809161</v>
       </c>
-      <c r="B508" t="n">
-        <v>-152.3840981177124</v>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
         <v>1.771732453136847</v>
       </c>
-      <c r="B509" t="n">
-        <v>-152.3930177717625</v>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
         <v>1.775226994464533</v>
       </c>
-      <c r="B510" t="n">
-        <v>-152.4020070445603</v>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
         <v>1.778721535792219</v>
       </c>
-      <c r="B511" t="n">
-        <v>-152.4110660329602</v>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
         <v>1.782216077119905</v>
       </c>
-      <c r="B512" t="n">
-        <v>-152.4201948348203</v>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
         <v>1.785710618447591</v>
       </c>
-      <c r="B513" t="n">
-        <v>-152.4293935490105</v>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
         <v>1.789205159775277</v>
       </c>
-      <c r="B514" t="n">
-        <v>-152.438662275421</v>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
         <v>1.792699701102963</v>
       </c>
-      <c r="B515" t="n">
-        <v>-152.4480011149704</v>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
         <v>1.796194242430649</v>
       </c>
-      <c r="B516" t="n">
-        <v>-152.4574101696143</v>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
         <v>1.799688783758336</v>
       </c>
-      <c r="B517" t="n">
-        <v>-152.466889542354</v>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
         <v>1.803183325086021</v>
       </c>
-      <c r="B518" t="n">
-        <v>-152.4764393372452</v>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
         <v>1.806677866413708</v>
       </c>
-      <c r="B519" t="n">
-        <v>-152.486059659407</v>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
         <v>1.810172407741394</v>
       </c>
-      <c r="B520" t="n">
-        <v>-152.4957506150309</v>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
         <v>1.81366694906908</v>
       </c>
-      <c r="B521" t="n">
-        <v>-152.5055123113902</v>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
         <v>1.817161490396766</v>
       </c>
-      <c r="B522" t="n">
-        <v>-152.5153448568491</v>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
         <v>1.820656031724452</v>
       </c>
-      <c r="B523" t="n">
-        <v>-152.5252483608726</v>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
         <v>1.824150573052138</v>
       </c>
-      <c r="B524" t="n">
-        <v>-152.5352229340358</v>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
         <v>1.827645114379824</v>
       </c>
-      <c r="B525" t="n">
-        <v>-152.545268688034</v>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
         <v>1.83113965570751</v>
       </c>
-      <c r="B526" t="n">
-        <v>-152.5553857356926</v>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
         <v>1.834634197035196</v>
       </c>
-      <c r="B527" t="n">
-        <v>-152.5655741909771</v>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
         <v>1.838128738362882</v>
       </c>
-      <c r="B528" t="n">
-        <v>-152.5758341690041</v>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
         <v>1.841623279690568</v>
       </c>
-      <c r="B529" t="n">
-        <v>-152.586165786051</v>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
         <v>1.845117821018255</v>
       </c>
-      <c r="B530" t="n">
-        <v>-152.5965691595669</v>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
         <v>1.848612362345941</v>
       </c>
-      <c r="B531" t="n">
-        <v>-152.6070444081839</v>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
         <v>1.852106903673627</v>
       </c>
-      <c r="B532" t="n">
-        <v>-152.6175916517277</v>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
         <v>1.855601445001313</v>
       </c>
-      <c r="B533" t="n">
-        <v>-152.6282110112289</v>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
         <v>1.859095986328999</v>
       </c>
-      <c r="B534" t="n">
-        <v>-152.6389026089346</v>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
         <v>1.862590527656685</v>
       </c>
-      <c r="B535" t="n">
-        <v>-152.6496665683197</v>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
         <v>1.866085068984371</v>
       </c>
-      <c r="B536" t="n">
-        <v>-152.6605030140991</v>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
         <v>1.869579610312057</v>
       </c>
-      <c r="B537" t="n">
-        <v>-152.6714120722394</v>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
         <v>1.873074151639743</v>
       </c>
-      <c r="B538" t="n">
-        <v>-152.6823938699711</v>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
         <v>1.876568692967429</v>
       </c>
-      <c r="B539" t="n">
-        <v>-152.6934485358011</v>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
         <v>1.880063234295115</v>
       </c>
-      <c r="B540" t="n">
-        <v>-152.7045761995257</v>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
         <v>1.883557775622801</v>
       </c>
-      <c r="B541" t="n">
-        <v>-152.7157769922425</v>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
         <v>1.887052316950488</v>
       </c>
-      <c r="B542" t="n">
-        <v>-152.7270510463645</v>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
         <v>1.890546858278174</v>
       </c>
-      <c r="B543" t="n">
-        <v>-152.7383984956326</v>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
         <v>1.89404139960586</v>
       </c>
-      <c r="B544" t="n">
-        <v>-152.7498194751298</v>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
         <v>1.897535940933546</v>
       </c>
-      <c r="B545" t="n">
-        <v>-152.7613141212941</v>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
         <v>1.901030482261232</v>
       </c>
-      <c r="B546" t="n">
-        <v>-152.7728825719336</v>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
         <v>1.904525023588918</v>
       </c>
-      <c r="B547" t="n">
-        <v>-152.7845249662394</v>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
         <v>1.908019564916604</v>
       </c>
-      <c r="B548" t="n">
-        <v>-152.7962414448014</v>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
         <v>1.91151410624429</v>
       </c>
-      <c r="B549" t="n">
-        <v>-152.808032149622</v>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
         <v>1.915008647571976</v>
       </c>
-      <c r="B550" t="n">
-        <v>-152.8198972241318</v>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
         <v>1.918503188899662</v>
       </c>
-      <c r="B551" t="n">
-        <v>-152.8318368132043</v>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
         <v>1.921997730227349</v>
       </c>
-      <c r="B552" t="n">
-        <v>-152.8438510631721</v>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
         <v>1.925492271555035</v>
       </c>
-      <c r="B553" t="n">
-        <v>-152.8559401218418</v>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
         <v>1.928986812882721</v>
       </c>
-      <c r="B554" t="n">
-        <v>-152.8681041385109</v>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
         <v>1.932481354210407</v>
       </c>
-      <c r="B555" t="n">
-        <v>-152.8803432639839</v>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
         <v>1.935975895538093</v>
       </c>
-      <c r="B556" t="n">
-        <v>-152.8926576505887</v>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
         <v>1.939470436865779</v>
       </c>
-      <c r="B557" t="n">
-        <v>-152.9050474521939</v>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
         <v>1.942964978193465</v>
       </c>
-      <c r="B558" t="n">
-        <v>-152.9175128242261</v>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
         <v>1.946459519521151</v>
       </c>
-      <c r="B559" t="n">
-        <v>-152.9300539236872</v>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
         <v>1.949954060848837</v>
       </c>
-      <c r="B560" t="n">
-        <v>-152.9426709091725</v>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
         <v>1.953448602176523</v>
       </c>
-      <c r="B561" t="n">
-        <v>-152.9553639408888</v>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
         <v>1.95694314350421</v>
       </c>
-      <c r="B562" t="n">
-        <v>-152.9681331806733</v>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
         <v>1.960437684831895</v>
       </c>
-      <c r="B563" t="n">
-        <v>-152.9809787920121</v>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
         <v>1.963932226159582</v>
       </c>
-      <c r="B564" t="n">
-        <v>-152.9939009400596</v>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
         <v>1.967426767487268</v>
       </c>
-      <c r="B565" t="n">
-        <v>-153.0068997916583</v>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
         <v>1.970921308814954</v>
       </c>
-      <c r="B566" t="n">
-        <v>-153.0199755153585</v>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
         <v>1.97441585014264</v>
       </c>
-      <c r="B567" t="n">
-        <v>-153.033128281439</v>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
         <v>1.977910391470326</v>
       </c>
-      <c r="B568" t="n">
-        <v>-153.0463582619273</v>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
         <v>1.981404932798012</v>
       </c>
-      <c r="B569" t="n">
-        <v>-153.0596656306213</v>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
         <v>1.984899474125698</v>
       </c>
-      <c r="B570" t="n">
-        <v>-153.0730505631106</v>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
         <v>1.988394015453384</v>
       </c>
-      <c r="B571" t="n">
-        <v>-153.0865132367984</v>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
         <v>1.99188855678107</v>
       </c>
-      <c r="B572" t="n">
-        <v>-153.1000538309238</v>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
         <v>1.995383098108756</v>
       </c>
-      <c r="B573" t="n">
-        <v>-153.1136725265847</v>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
         <v>1.998877639436442</v>
       </c>
-      <c r="B574" t="n">
-        <v>-153.1273695067611</v>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
         <v>2.002372180764128</v>
       </c>
-      <c r="B575" t="n">
-        <v>-153.1411449563385</v>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
         <v>2.005866722091814</v>
       </c>
-      <c r="B576" t="n">
-        <v>-153.1549990621323</v>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
         <v>2.009361263419501</v>
       </c>
-      <c r="B577" t="n">
-        <v>-153.1689320129124</v>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
         <v>2.012855804747187</v>
       </c>
-      <c r="B578" t="n">
-        <v>-153.1829439994278</v>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
         <v>2.016350346074873</v>
       </c>
-      <c r="B579" t="n">
-        <v>-153.1970352144331</v>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
         <v>2.019844887402559</v>
       </c>
-      <c r="B580" t="n">
-        <v>-153.2112058527135</v>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
         <v>2.023339428730245</v>
       </c>
-      <c r="B581" t="n">
-        <v>-153.2254561111122</v>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
         <v>2.026833970057931</v>
       </c>
-      <c r="B582" t="n">
-        <v>-153.2397861885572</v>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
         <v>2.030328511385617</v>
       </c>
-      <c r="B583" t="n">
-        <v>-153.254196286089</v>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
         <v>2.033823052713303</v>
       </c>
-      <c r="B584" t="n">
-        <v>-153.2686866068888</v>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
         <v>2.03731759404099</v>
       </c>
-      <c r="B585" t="n">
-        <v>-153.2832573563072</v>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
         <v>2.040812135368676</v>
       </c>
-      <c r="B586" t="n">
-        <v>-153.297908741894</v>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
         <v>2.044306676696362</v>
       </c>
-      <c r="B587" t="n">
-        <v>-153.3126409734276</v>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
         <v>2.047801218024048</v>
       </c>
-      <c r="B588" t="n">
-        <v>-153.3274542629458</v>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
         <v>2.051295759351734</v>
       </c>
-      <c r="B589" t="n">
-        <v>-153.3423488247772</v>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
         <v>2.05479030067942</v>
       </c>
-      <c r="B590" t="n">
-        <v>-153.3573248755728</v>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
         <v>2.058284842007106</v>
       </c>
-      <c r="B591" t="n">
-        <v>-153.3723826343385</v>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
         <v>2.061779383334792</v>
       </c>
-      <c r="B592" t="n">
-        <v>-153.3875223224686</v>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
         <v>2.065273924662478</v>
       </c>
-      <c r="B593" t="n">
-        <v>-153.4027441637792</v>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
         <v>2.068768465990164</v>
       </c>
-      <c r="B594" t="n">
-        <v>-153.4180483845432</v>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
         <v>2.07226300731785</v>
       </c>
-      <c r="B595" t="n">
-        <v>-153.4334352135255</v>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
         <v>2.075757548645536</v>
       </c>
-      <c r="B596" t="n">
-        <v>-153.4489048820188</v>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
         <v>2.079252089973223</v>
       </c>
-      <c r="B597" t="n">
-        <v>-153.464457623881</v>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
         <v>2.082746631300909</v>
       </c>
-      <c r="B598" t="n">
-        <v>-153.4800936755722</v>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
         <v>2.086241172628595</v>
       </c>
-      <c r="B599" t="n">
-        <v>-153.4958132761934</v>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
         <v>2.089735713956281</v>
       </c>
-      <c r="B600" t="n">
-        <v>-153.5116166675262</v>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
         <v>2.093230255283967</v>
       </c>
-      <c r="B601" t="n">
-        <v>-153.5275040940718</v>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
         <v>2.096724796611653</v>
       </c>
-      <c r="B602" t="n">
-        <v>-153.5434758030933</v>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
         <v>2.100219337939339</v>
       </c>
-      <c r="B603" t="n">
-        <v>-153.5595320446566</v>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
         <v>2.103713879267025</v>
       </c>
-      <c r="B604" t="n">
-        <v>-153.5756730716736</v>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
         <v>2.107208420594711</v>
       </c>
-      <c r="B605" t="n">
-        <v>-153.5918991399461</v>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
         <v>2.110702961922397</v>
       </c>
-      <c r="B606" t="n">
-        <v>-153.60821050821</v>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
         <v>2.114197503250083</v>
       </c>
-      <c r="B607" t="n">
-        <v>-153.6246074381817</v>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
         <v>2.117692044577769</v>
       </c>
-      <c r="B608" t="n">
-        <v>-153.6410901946043</v>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
         <v>2.121186585905456</v>
       </c>
-      <c r="B609" t="n">
-        <v>-153.6576590452958</v>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
         <v>2.124681127233142</v>
       </c>
-      <c r="B610" t="n">
-        <v>-153.6743142611976</v>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
         <v>2.128175668560828</v>
       </c>
-      <c r="B611" t="n">
-        <v>-153.6910561164248</v>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
         <v>2.131670209888514</v>
       </c>
-      <c r="B612" t="n">
-        <v>-153.7078848883173</v>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
         <v>2.1351647512162</v>
       </c>
-      <c r="B613" t="n">
-        <v>-153.7248008574921</v>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
         <v>2.138659292543886</v>
       </c>
-      <c r="B614" t="n">
-        <v>-153.7418043078968</v>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
         <v>2.142153833871572</v>
       </c>
-      <c r="B615" t="n">
-        <v>-153.7588955268645</v>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
         <v>2.145648375199258</v>
       </c>
-      <c r="B616" t="n">
-        <v>-153.7760748051697</v>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
         <v>2.149142916526944</v>
       </c>
-      <c r="B617" t="n">
-        <v>-153.7933424370857</v>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
         <v>2.15263745785463</v>
       </c>
-      <c r="B618" t="n">
-        <v>-153.8106987204437</v>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
         <v>2.156131999182316</v>
       </c>
-      <c r="B619" t="n">
-        <v>-153.8281439566923</v>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
         <v>2.159626540510002</v>
       </c>
-      <c r="B620" t="n">
-        <v>-153.8456784509598</v>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
         <v>2.163121081837688</v>
       </c>
-      <c r="B621" t="n">
-        <v>-153.8633025121167</v>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
         <v>2.166615623165375</v>
       </c>
-      <c r="B622" t="n">
-        <v>-153.8810164528404</v>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
         <v>2.170110164493061</v>
       </c>
-      <c r="B623" t="n">
-        <v>-153.8988205896816</v>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
         <v>2.173604705820747</v>
       </c>
-      <c r="B624" t="n">
-        <v>-153.9167152431316</v>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
         <v>2.177099247148433</v>
       </c>
-      <c r="B625" t="n">
-        <v>-153.9347007376924</v>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
         <v>2.180593788476119</v>
       </c>
-      <c r="B626" t="n">
-        <v>-153.952777401947</v>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
         <v>2.184088329803805</v>
       </c>
-      <c r="B627" t="n">
-        <v>-153.970945568633</v>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
         <v>2.187582871131491</v>
       </c>
-      <c r="B628" t="n">
-        <v>-153.9892055747171</v>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
         <v>2.191077412459177</v>
       </c>
-      <c r="B629" t="n">
-        <v>-154.0075577614713</v>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
         <v>2.194571953786864</v>
       </c>
-      <c r="B630" t="n">
-        <v>-154.0260024745521</v>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
         <v>2.19806649511455</v>
       </c>
-      <c r="B631" t="n">
-        <v>-154.0445400640807</v>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
         <v>2.201561036442236</v>
       </c>
-      <c r="B632" t="n">
-        <v>-154.0631708847252</v>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
         <v>2.205055577769921</v>
       </c>
-      <c r="B633" t="n">
-        <v>-154.0818952957861</v>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
         <v>2.208550119097608</v>
       </c>
-      <c r="B634" t="n">
-        <v>-154.1007136612824</v>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
         <v>2.212044660425294</v>
       </c>
-      <c r="B635" t="n">
-        <v>-154.1196263500412</v>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
         <v>2.21553920175298</v>
       </c>
-      <c r="B636" t="n">
-        <v>-154.1386337357889</v>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
         <v>2.219033743080666</v>
       </c>
-      <c r="B637" t="n">
-        <v>-154.1577361972454</v>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
         <v>2.222528284408352</v>
       </c>
-      <c r="B638" t="n">
-        <v>-154.1769341182199</v>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
         <v>2.226022825736038</v>
       </c>
-      <c r="B639" t="n">
-        <v>-154.1962278877104</v>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
         <v>2.229517367063724</v>
       </c>
-      <c r="B640" t="n">
-        <v>-154.2156179000048</v>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
         <v>2.23301190839141</v>
       </c>
-      <c r="B641" t="n">
-        <v>-154.2351045547851</v>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
         <v>2.236506449719097</v>
       </c>
-      <c r="B642" t="n">
-        <v>-154.254688257235</v>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
         <v>2.240000991046783</v>
       </c>
-      <c r="B643" t="n">
-        <v>-154.2743694181493</v>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
         <v>2.243495532374469</v>
       </c>
-      <c r="B644" t="n">
-        <v>-154.2941484540476</v>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
         <v>2.246990073702155</v>
       </c>
-      <c r="B645" t="n">
-        <v>-154.3140257872893</v>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
         <v>2.250484615029841</v>
       </c>
-      <c r="B646" t="n">
-        <v>-154.3340018461943</v>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
         <v>2.253979156357527</v>
       </c>
-      <c r="B647" t="n">
-        <v>-154.3540770651646</v>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
         <v>2.257473697685213</v>
       </c>
-      <c r="B648" t="n">
-        <v>-154.3742518848107</v>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
         <v>2.260968239012899</v>
       </c>
-      <c r="B649" t="n">
-        <v>-154.3945267520814</v>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
         <v>2.264462780340585</v>
       </c>
-      <c r="B650" t="n">
-        <v>-154.4149021203972</v>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
         <v>2.267957321668271</v>
       </c>
-      <c r="B651" t="n">
-        <v>-154.4353784497867</v>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
         <v>2.271451862995957</v>
       </c>
-      <c r="B652" t="n">
-        <v>-154.4559562070287</v>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
         <v>2.274946404323643</v>
       </c>
-      <c r="B653" t="n">
-        <v>-154.4766358657966</v>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
         <v>2.278440945651329</v>
       </c>
-      <c r="B654" t="n">
-        <v>-154.4974179068081</v>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
         <v>2.281935486979016</v>
       </c>
-      <c r="B655" t="n">
-        <v>-154.5183028179785</v>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
         <v>2.285430028306702</v>
       </c>
-      <c r="B656" t="n">
-        <v>-154.5392910945797</v>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
         <v>2.288924569634388</v>
       </c>
-      <c r="B657" t="n">
-        <v>-154.5603832394025</v>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
         <v>2.292419110962074</v>
       </c>
-      <c r="B658" t="n">
-        <v>-154.5815797629246</v>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
         <v>2.29591365228976</v>
       </c>
-      <c r="B659" t="n">
-        <v>-154.6028811834836</v>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
         <v>2.299408193617446</v>
       </c>
-      <c r="B660" t="n">
-        <v>-154.6242880274549</v>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
         <v>2.302902734945132</v>
       </c>
-      <c r="B661" t="n">
-        <v>-154.6458008294353</v>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
         <v>2.306397276272818</v>
       </c>
-      <c r="B662" t="n">
-        <v>-154.6674201324319</v>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
         <v>2.309891817600504</v>
       </c>
-      <c r="B663" t="n">
-        <v>-154.6891464880574</v>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
         <v>2.31338635892819</v>
       </c>
-      <c r="B664" t="n">
-        <v>-154.7109804567307</v>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
         <v>2.316880900255876</v>
       </c>
-      <c r="B665" t="n">
-        <v>-154.7329226078846</v>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
         <v>2.320375441583562</v>
       </c>
-      <c r="B666" t="n">
-        <v>-154.7549735201789</v>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
         <v>2.323869982911249</v>
       </c>
-      <c r="B667" t="n">
-        <v>-154.7771337817217</v>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
         <v>2.327364524238935</v>
       </c>
-      <c r="B668" t="n">
-        <v>-154.7994039902966</v>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
         <v>2.330859065566621</v>
       </c>
-      <c r="B669" t="n">
-        <v>-154.8217847535976</v>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
         <v>2.334353606894307</v>
       </c>
-      <c r="B670" t="n">
-        <v>-154.8442766894713</v>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
         <v>2.337848148221993</v>
       </c>
-      <c r="B671" t="n">
-        <v>-154.866880426168</v>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
         <v>2.341342689549679</v>
       </c>
-      <c r="B672" t="n">
-        <v>-154.8895966025995</v>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
         <v>2.344837230877365</v>
       </c>
-      <c r="B673" t="n">
-        <v>-154.9124258686065</v>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
         <v>2.348331772205051</v>
       </c>
-      <c r="B674" t="n">
-        <v>-154.9353688852347</v>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
         <v>2.351826313532738</v>
       </c>
-      <c r="B675" t="n">
-        <v>-154.9584263250196</v>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
         <v>2.355320854860424</v>
       </c>
-      <c r="B676" t="n">
-        <v>-154.9815988722818</v>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
         <v>2.35881539618811</v>
       </c>
-      <c r="B677" t="n">
-        <v>-155.0048872234311</v>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
         <v>2.362309937515795</v>
       </c>
-      <c r="B678" t="n">
-        <v>-155.0282920872827</v>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
         <v>2.365804478843482</v>
       </c>
-      <c r="B679" t="n">
-        <v>-155.0518141853824</v>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
         <v>2.369299020171168</v>
       </c>
-      <c r="B680" t="n">
-        <v>-155.0754542523443</v>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
         <v>2.372793561498854</v>
       </c>
-      <c r="B681" t="n">
-        <v>-155.0992130362003</v>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
         <v>2.37628810282654</v>
       </c>
-      <c r="B682" t="n">
-        <v>-155.1230912987608</v>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
         <v>2.379782644154226</v>
       </c>
-      <c r="B683" t="n">
-        <v>-155.1470898159897</v>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
         <v>2.383277185481912</v>
       </c>
-      <c r="B684" t="n">
-        <v>-155.171209378392</v>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
         <v>2.386771726809598</v>
       </c>
-      <c r="B685" t="n">
-        <v>-155.1954507914146</v>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
         <v>2.390266268137284</v>
       </c>
-      <c r="B686" t="n">
-        <v>-155.2198148758637</v>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
         <v>2.39376080946497</v>
       </c>
-      <c r="B687" t="n">
-        <v>-155.244302468335</v>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
         <v>2.397255350792657</v>
       </c>
-      <c r="B688" t="n">
-        <v>-155.2689144216616</v>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
         <v>2.400749892120343</v>
       </c>
-      <c r="B689" t="n">
-        <v>-155.2936516053781</v>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
         <v>2.404244433448029</v>
       </c>
-      <c r="B690" t="n">
-        <v>-155.3185149062009</v>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
         <v>2.407738974775715</v>
       </c>
-      <c r="B691" t="n">
-        <v>-155.3435052285284</v>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
         <v>2.411233516103401</v>
       </c>
-      <c r="B692" t="n">
-        <v>-155.368623494959</v>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
         <v>2.414728057431087</v>
       </c>
-      <c r="B693" t="n">
-        <v>-155.393870646829</v>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
         <v>2.418222598758773</v>
       </c>
-      <c r="B694" t="n">
-        <v>-155.419247644772</v>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
         <v>2.421717140086459</v>
       </c>
-      <c r="B695" t="n">
-        <v>-155.4447554692993</v>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
         <v>2.425211681414145</v>
       </c>
-      <c r="B696" t="n">
-        <v>-155.4703951214033</v>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
         <v>2.428706222741831</v>
       </c>
-      <c r="B697" t="n">
-        <v>-155.4961676231852</v>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
         <v>2.432200764069517</v>
       </c>
-      <c r="B698" t="n">
-        <v>-155.5220740185069</v>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
         <v>2.435695305397203</v>
       </c>
-      <c r="B699" t="n">
-        <v>-155.5481153736698</v>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
         <v>2.43918984672489</v>
       </c>
-      <c r="B700" t="n">
-        <v>-155.5742927781209</v>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
         <v>2.442684388052576</v>
       </c>
-      <c r="B701" t="n">
-        <v>-155.6006073451877</v>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
         <v>2.446178929380262</v>
       </c>
-      <c r="B702" t="n">
-        <v>-155.6270602128434</v>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
         <v>2.449673470707948</v>
       </c>
-      <c r="B703" t="n">
-        <v>-155.6536525445043</v>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
         <v>2.453168012035634</v>
       </c>
-      <c r="B704" t="n">
-        <v>-155.68038552986</v>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
         <v>2.45666255336332</v>
       </c>
-      <c r="B705" t="n">
-        <v>-155.707260385739</v>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
         <v>2.460157094691006</v>
       </c>
-      <c r="B706" t="n">
-        <v>-155.7342783570118</v>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
         <v>2.463651636018692</v>
       </c>
-      <c r="B707" t="n">
-        <v>-155.7614407175321</v>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
         <v>2.467146177346378</v>
       </c>
-      <c r="B708" t="n">
-        <v>-155.7887487711192</v>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
         <v>2.470640718674064</v>
       </c>
-      <c r="B709" t="n">
-        <v>-155.8162038525833</v>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
         <v>2.47413526000175</v>
       </c>
-      <c r="B710" t="n">
-        <v>-155.843807328797</v>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
         <v>2.477629801329436</v>
       </c>
-      <c r="B711" t="n">
-        <v>-155.8715605998131</v>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
         <v>2.481124342657123</v>
       </c>
-      <c r="B712" t="n">
-        <v>-155.8994651000344</v>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
         <v>2.484618883984809</v>
       </c>
-      <c r="B713" t="n">
-        <v>-155.9275222994354</v>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
         <v>2.488113425312495</v>
       </c>
-      <c r="B714" t="n">
-        <v>-155.9557337048408</v>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
         <v>2.491607966640181</v>
       </c>
-      <c r="B715" t="n">
-        <v>-155.9841008612631</v>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
         <v>2.495102507967867</v>
       </c>
-      <c r="B716" t="n">
-        <v>-156.0126253533026</v>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
         <v>2.498597049295553</v>
       </c>
-      <c r="B717" t="n">
-        <v>-156.0413088066139</v>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
         <v>2.502091590623239</v>
       </c>
-      <c r="B718" t="n">
-        <v>-156.0701528894417</v>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
         <v>2.505586131950925</v>
       </c>
-      <c r="B719" t="n">
-        <v>-156.0991593142309</v>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
         <v>2.509080673278612</v>
       </c>
-      <c r="B720" t="n">
-        <v>-156.1283298393157</v>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
         <v>2.512575214606298</v>
       </c>
-      <c r="B721" t="n">
-        <v>-156.1576662706903</v>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
         <v>2.516069755933983</v>
       </c>
-      <c r="B722" t="n">
-        <v>-156.1871704638684</v>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
         <v>2.519564297261669</v>
       </c>
-      <c r="B723" t="n">
-        <v>-156.2168443258357</v>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
         <v>2.523058838589356</v>
       </c>
-      <c r="B724" t="n">
-        <v>-156.2466898171012</v>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
         <v>2.526553379917042</v>
       </c>
-      <c r="B725" t="n">
-        <v>-156.2767089538538</v>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
         <v>2.530047921244728</v>
       </c>
-      <c r="B726" t="n">
-        <v>-156.3069038102293</v>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
         <v>2.533542462572414</v>
       </c>
-      <c r="B727" t="n">
-        <v>-156.3372765206976</v>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
         <v>2.5370370039001</v>
       </c>
-      <c r="B728" t="n">
-        <v>-156.3678292825742</v>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
         <v>2.540531545227786</v>
       </c>
-      <c r="B729" t="n">
-        <v>-156.3985643586672</v>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
         <v>2.544026086555472</v>
       </c>
-      <c r="B730" t="n">
-        <v>-156.4294840800659</v>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
         <v>2.547520627883158</v>
       </c>
-      <c r="B731" t="n">
-        <v>-156.4605908490828</v>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
         <v>2.551015169210844</v>
       </c>
-      <c r="B732" t="n">
-        <v>-156.4918871423569</v>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
         <v>2.554509710538531</v>
       </c>
-      <c r="B733" t="n">
-        <v>-156.5233755141302</v>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
         <v>2.558004251866217</v>
       </c>
-      <c r="B734" t="n">
-        <v>-156.5550585997102</v>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
         <v>2.561498793193903</v>
       </c>
-      <c r="B735" t="n">
-        <v>-156.5869391191285</v>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
         <v>2.564993334521589</v>
       </c>
-      <c r="B736" t="n">
-        <v>-156.6190198810118</v>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
         <v>2.568487875849275</v>
       </c>
-      <c r="B737" t="n">
-        <v>-156.6513037866787</v>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
         <v>2.571982417176961</v>
       </c>
-      <c r="B738" t="n">
-        <v>-156.6837938344781</v>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
         <v>2.575476958504647</v>
       </c>
-      <c r="B739" t="n">
-        <v>-156.7164931243888</v>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
         <v>2.578971499832333</v>
       </c>
-      <c r="B740" t="n">
-        <v>-156.7494048628958</v>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
         <v>2.582466041160019</v>
       </c>
-      <c r="B741" t="n">
-        <v>-156.7825323681669</v>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
         <v>2.585960582487705</v>
       </c>
-      <c r="B742" t="n">
-        <v>-156.8158790755503</v>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
         <v>2.589455123815391</v>
       </c>
-      <c r="B743" t="n">
-        <v>-156.8494485434179</v>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
         <v>2.592949665143077</v>
       </c>
-      <c r="B744" t="n">
-        <v>-156.8832444593801</v>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
         <v>2.596444206470764</v>
       </c>
-      <c r="B745" t="n">
-        <v>-156.9172706469031</v>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
         <v>2.59993874779845</v>
       </c>
-      <c r="B746" t="n">
-        <v>-156.9515310723565</v>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
         <v>2.603433289126136</v>
       </c>
-      <c r="B747" t="n">
-        <v>-156.9860298525292</v>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
         <v>2.606927830453822</v>
       </c>
-      <c r="B748" t="n">
-        <v>-157.0207712626494</v>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
         <v>2.610422371781508</v>
       </c>
-      <c r="B749" t="n">
-        <v>-157.0557597449502</v>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
         <v>2.613916913109194</v>
       </c>
-      <c r="B750" t="n">
-        <v>-157.0909999178257</v>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
         <v>2.61741145443688</v>
       </c>
-      <c r="B751" t="n">
-        <v>-157.1264965856282</v>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
         <v>2.620905995764566</v>
       </c>
-      <c r="B752" t="n">
-        <v>-157.1622547491601</v>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
         <v>2.624400537092252</v>
       </c>
-      <c r="B753" t="n">
-        <v>-157.1982796169213</v>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
         <v>2.627895078419938</v>
       </c>
-      <c r="B754" t="n">
-        <v>-157.2345766171777</v>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
         <v>2.631389619747624</v>
       </c>
-      <c r="B755" t="n">
-        <v>-157.2711514109241</v>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
         <v>2.63488416107531</v>
       </c>
-      <c r="B756" t="n">
-        <v>-157.3080099058229</v>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
         <v>2.638378702402997</v>
       </c>
-      <c r="B757" t="n">
-        <v>-157.3451582712074</v>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
         <v>2.641873243730683</v>
       </c>
-      <c r="B758" t="n">
-        <v>-157.3826029542485</v>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
         <v>2.645367785058369</v>
       </c>
-      <c r="B759" t="n">
-        <v>-157.4203506973964</v>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
         <v>2.648862326386055</v>
       </c>
-      <c r="B760" t="n">
-        <v>-157.4584085572182</v>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
         <v>2.652356867713741</v>
       </c>
-      <c r="B761" t="n">
-        <v>-157.4967839247692</v>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
         <v>2.655851409041427</v>
       </c>
-      <c r="B762" t="n">
-        <v>-157.5354845476485</v>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
         <v>2.659345950369113</v>
       </c>
-      <c r="B763" t="n">
-        <v>-157.5745185539114</v>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
         <v>2.662840491696799</v>
       </c>
-      <c r="B764" t="n">
-        <v>-157.6138944780266</v>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
         <v>2.666335033024485</v>
       </c>
-      <c r="B765" t="n">
-        <v>-157.6536212890946</v>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
         <v>2.669829574352172</v>
       </c>
-      <c r="B766" t="n">
-        <v>-157.6937084215658</v>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
         <v>2.673324115679857</v>
       </c>
-      <c r="B767" t="n">
-        <v>-157.7341658087294</v>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
         <v>2.676818657007543</v>
       </c>
-      <c r="B768" t="n">
-        <v>-157.7750039192803</v>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
         <v>2.68031319833523</v>
       </c>
-      <c r="B769" t="n">
-        <v>-157.8162337973067</v>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
         <v>2.683807739662916</v>
       </c>
-      <c r="B770" t="n">
-        <v>-157.8578671060936</v>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
         <v>2.687302280990602</v>
       </c>
-      <c r="B771" t="n">
-        <v>-157.8999161761845</v>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
         <v>2.690796822318288</v>
       </c>
-      <c r="B772" t="n">
-        <v>-157.9423940582104</v>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
         <v>2.694291363645974</v>
       </c>
-      <c r="B773" t="n">
-        <v>-157.9853145810636</v>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
         <v>2.69778590497366</v>
       </c>
-      <c r="B774" t="n">
-        <v>-158.0286924160795</v>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
         <v>2.701280446301346</v>
       </c>
-      <c r="B775" t="n">
-        <v>-158.0725431479872</v>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
         <v>2.704774987629032</v>
       </c>
-      <c r="B776" t="n">
-        <v>-158.1168833535031</v>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
         <v>2.708269528956718</v>
       </c>
-      <c r="B777" t="n">
-        <v>-158.1617306885784</v>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
         <v>2.711764070284405</v>
       </c>
-      <c r="B778" t="n">
-        <v>-158.2071039854694</v>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
         <v>2.715258611612091</v>
       </c>
-      <c r="B779" t="n">
-        <v>-158.2530233609889</v>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
         <v>2.718753152939777</v>
       </c>
-      <c r="B780" t="n">
-        <v>-158.2995103375203</v>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
         <v>2.722247694267463</v>
       </c>
-      <c r="B781" t="n">
-        <v>-158.3465879786447</v>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
         <v>2.725742235595149</v>
       </c>
-      <c r="B782" t="n">
-        <v>-158.3942810415506</v>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
         <v>2.729236776922835</v>
       </c>
-      <c r="B783" t="n">
-        <v>-158.4426161487818</v>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
         <v>2.732731318250521</v>
       </c>
-      <c r="B784" t="n">
-        <v>-158.4916219823461</v>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
         <v>2.736225859578207</v>
       </c>
-      <c r="B785" t="n">
-        <v>-158.5413295037705</v>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
         <v>2.739720400905893</v>
       </c>
-      <c r="B786" t="n">
-        <v>-158.5917722043812</v>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
         <v>2.743214942233579</v>
       </c>
-      <c r="B787" t="n">
-        <v>-158.6429863909303</v>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
         <v>2.746709483561265</v>
       </c>
-      <c r="B788" t="n">
-        <v>-158.6950115127356</v>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
         <v>2.750204024888951</v>
       </c>
-      <c r="B789" t="n">
-        <v>-158.7478905377901</v>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
         <v>2.753698566216638</v>
       </c>
-      <c r="B790" t="n">
-        <v>-158.8016703869112</v>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
         <v>2.757193107544324</v>
       </c>
-      <c r="B791" t="n">
-        <v>-158.8564024370206</v>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
         <v>2.76068764887201</v>
       </c>
-      <c r="B792" t="n">
-        <v>-158.9121431072002</v>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
         <v>2.764182190199696</v>
       </c>
-      <c r="B793" t="n">
-        <v>-158.9689545444195</v>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
         <v>2.767676731527382</v>
       </c>
-      <c r="B794" t="n">
-        <v>-159.0269054299952</v>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
         <v>2.771171272855068</v>
       </c>
-      <c r="B795" t="n">
-        <v>-159.086071933224</v>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
         <v>2.774665814182754</v>
       </c>
-      <c r="B796" t="n">
-        <v>-159.146538845647</v>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
         <v>2.77816035551044</v>
       </c>
-      <c r="B797" t="n">
-        <v>-159.2084009386215</v>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
         <v>2.781654896838126</v>
       </c>
-      <c r="B798" t="n">
-        <v>-159.2717645991297</v>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
         <v>2.785149438165812</v>
       </c>
-      <c r="B799" t="n">
-        <v>-159.3367498151919</v>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
         <v>2.788643979493498</v>
       </c>
-      <c r="B800" t="n">
-        <v>-159.403492604561</v>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
         <v>2.792138520821184</v>
       </c>
-      <c r="B801" t="n">
-        <v>-159.4721480110433</v>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
         <v>2.795633062148871</v>
       </c>
-      <c r="B802" t="n">
-        <v>-159.5428938354798</v>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
         <v>2.799127603476557</v>
       </c>
-      <c r="B803" t="n">
-        <v>-159.6159353287402</v>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
         <v>2.802622144804243</v>
       </c>
-      <c r="B804" t="n">
-        <v>-159.6915111606571</v>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
         <v>2.806116686131929</v>
       </c>
-      <c r="B805" t="n">
-        <v>-159.7699011052395</v>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
         <v>2.809611227459615</v>
       </c>
-      <c r="B806" t="n">
-        <v>-159.8514360706911</v>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
         <v>2.813105768787301</v>
       </c>
-      <c r="B807" t="n">
-        <v>-159.9365113888356</v>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
         <v>2.816600310114987</v>
       </c>
-      <c r="B808" t="n">
-        <v>-160.0256047238852</v>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
         <v>2.820094851442673</v>
       </c>
-      <c r="B809" t="n">
-        <v>-160.1193006722578</v>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
         <v>2.823589392770359</v>
       </c>
-      <c r="B810" t="n">
-        <v>-160.2183252973413</v>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
         <v>2.827083934098045</v>
       </c>
-      <c r="B811" t="n">
-        <v>-160.32359584045</v>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
         <v>2.830578475425731</v>
       </c>
-      <c r="B812" t="n">
-        <v>-160.4362943887959</v>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
         <v>2.834073016753417</v>
       </c>
-      <c r="B813" t="n">
-        <v>-160.557980847265</v>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
         <v>2.837567558081104</v>
       </c>
-      <c r="B814" t="n">
-        <v>-160.6907734163385</v>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
         <v>2.84106209940879</v>
       </c>
-      <c r="B815" t="n">
-        <v>-160.8376516350196</v>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
         <v>2.844556640736476</v>
       </c>
-      <c r="B816" t="n">
-        <v>-161.0029978024482</v>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
         <v>2.848051182064162</v>
       </c>
-      <c r="B817" t="n">
-        <v>-161.1936445558085</v>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
         <v>2.851545723391848</v>
       </c>
-      <c r="B818" t="n">
-        <v>-161.4211299763393</v>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
         <v>2.855040264719534</v>
       </c>
-      <c r="B819" t="n">
-        <v>-161.707346348768</v>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
         <v>2.85853480604722</v>
       </c>
-      <c r="B820" t="n">
-        <v>-162.1024754180854</v>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
         <v>2.862029347374906</v>
       </c>
-      <c r="B821" t="n">
-        <v>-162.7744875230396</v>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="822">

--- a/RT_radpat_80deg.xlsx
+++ b/RT_radpat_80deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-135.0170682168473</v>
+        <v>-135.0264471772326</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-135.0067258466491</v>
+        <v>-135.0246531673644</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-135.0306860083557</v>
+        <v>-135.0576467969855</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-135.0920641812329</v>
+        <v>-135.128646546677</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-135.194514368455</v>
+        <v>-135.2414332591001</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-135.3423593132509</v>
+        <v>-135.4004849315792</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-135.5407566889841</v>
+        <v>-135.6111523359375</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-135.7959165210929</v>
+        <v>-135.8798888421968</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-136.1153881526996</v>
+        <v>-136.2145503178971</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-136.5084305012566</v>
+        <v>-136.6247849458398</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-136.9864881663684</v>
+        <v>-137.1225245829757</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-137.5637611064092</v>
+        <v>-137.722562080942</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-138.257778782116</v>
+        <v>-138.443079290161</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-139.0895919695202</v>
+        <v>-139.3056232596115</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-140.082266827421</v>
+        <v>-140.3328411491575</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-141.2534157827004</v>
+        <v>-141.5385486081741</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-142.5884958871927</v>
+        <v>-142.8936627214097</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-143.9602132182073</v>
+        <v>-144.2287251053621</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-144.9630890908223</v>
+        <v>-145.0664357966388</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-144.9277261436353</v>
+        <v>-144.7614037924858</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-143.6624996737875</v>
+        <v>-143.3117174022672</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-141.7571318665841</v>
+        <v>-141.3623404592796</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-139.7648421542916</v>
+        <v>-139.3926600323504</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-137.9064459948839</v>
+        <v>-137.5736122675189</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-136.2291382180186</v>
+        <v>-135.9350888722476</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-134.7239206779539</v>
+        <v>-134.4638254921786</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-133.3689140059234</v>
+        <v>-133.1376470492656</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-132.1423247644178</v>
+        <v>-131.9354650699459</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-131.0256064577248</v>
+        <v>-130.8395601083135</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-130.0037192279082</v>
+        <v>-129.8356126378282</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-129.0646387007621</v>
+        <v>-128.9121765696061</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-128.1987650488346</v>
+        <v>-128.0601037684864</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-127.3984056913419</v>
+        <v>-127.2720533697213</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-126.6573640239533</v>
+        <v>-126.5421033858764</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-125.9706225433528</v>
+        <v>-125.8654524657662</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-125.3341005592323</v>
+        <v>-125.2381915917369</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-124.7444700157928</v>
+        <v>-124.6571310340309</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-124.1990149278412</v>
+        <v>-124.1196670017291</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-123.6955230309845</v>
+        <v>-123.6236797558638</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-123.2322024266181</v>
+        <v>-123.1674542450414</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-122.8076169124357</v>
+        <v>-122.7496191531534</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-122.4206357030258</v>
+        <v>-122.3690989570164</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-122.0703946847247</v>
+        <v>-122.0250774541487</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-121.7562663671219</v>
+        <v>-121.716969044656</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-121.477837279642</v>
+        <v>-121.4443978112301</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-121.2348914936025</v>
+        <v>-121.2071815921131</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-121.0273989366443</v>
+        <v>-121.0053216548498</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-120.8555086699723</v>
+        <v>-120.8389964908791</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-120.7195460741908</v>
+        <v>-120.7085597279146</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-120.6200141885965</v>
+        <v>-120.6145422000442</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-120.5575991941778</v>
+        <v>-120.5576579921657</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-120.5331801283008</v>
+        <v>-120.5388148560367</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-120.5478435353507</v>
+        <v>-120.5591295533834</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-120.6029036251702</v>
+        <v>-120.6199488692939</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-120.6999292232391</v>
+        <v>-120.7228774302762</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-120.8407787470119</v>
+        <v>-120.8698139423792</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-121.0276457092692</v>
+        <v>-121.0629981205089</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-121.263117574496</v>
+        <v>-121.3050713297454</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-121.5502519641413</v>
+        <v>-121.5991553793786</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-121.8926764173065</v>
+        <v>-121.9489556572701</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-122.2947201646017</v>
+        <v>-122.3588973352614</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-122.7615902890925</v>
+        <v>-122.8343078242937</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-123.2996101744829</v>
+        <v>-123.3816646008914</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-123.9165491688595</v>
+        <v>-124.0089375801218</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-124.6220844351433</v>
+        <v>-124.726071095533</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-125.4284644436222</v>
+        <v>-125.5456769508188</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-126.3514795351069</v>
+        <v>-126.484050345416</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-127.4119134418321</v>
+        <v>-127.5626942015343</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-128.6377505267908</v>
+        <v>-128.810636151365</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-130.0675307792936</v>
+        <v>-130.2679399959734</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-131.7551745417433</v>
+        <v>-131.9906682217541</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-133.7750089353323</v>
+        <v>-134.0554844165103</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-136.2145011371961</v>
+        <v>-136.5480085027431</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-139.0727828218156</v>
+        <v>-139.4334080342526</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-141.6791902529167</v>
+        <v>-141.8777453789226</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-141.9402620992052</v>
+        <v>-141.7654540901866</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-139.8810750464802</v>
+        <v>-139.5949872990456</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-137.5925767525718</v>
+        <v>-137.3496353234111</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-135.7349779234753</v>
+        <v>-135.5489623417962</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-134.3107985281065</v>
+        <v>-134.1715356026736</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-133.2372141667966</v>
+        <v>-133.1347852127256</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-132.4452924592992</v>
+        <v>-132.372585915951</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-131.8870562244321</v>
+        <v>-131.8392521195482</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-131.5306245634642</v>
+        <v>-131.5045260833259</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-131.3556536028258</v>
+        <v>-131.349220282603</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-131.3503346673629</v>
+        <v>-131.3623975255969</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-131.5096625506285</v>
+        <v>-131.5397668507416</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-131.8346402292055</v>
+        <v>-131.8829840726218</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-132.3322419982321</v>
+        <v>-132.3996944422818</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-133.0160970133528</v>
+        <v>-133.1042944121393</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-133.907958563169</v>
+        <v>-134.0194850152952</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-135.0400144171577</v>
+        <v>-135.1786498357674</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-136.457494203119</v>
+        <v>-136.6283510403571</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-138.2176006722423</v>
+        <v>-138.4261685854438</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-140.3634226964791</v>
+        <v>-140.6086087889988</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-142.771679738669</v>
+        <v>-143.0123485122498</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-144.6100968240068</v>
+        <v>-144.6934453534562</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-144.3469224081926</v>
+        <v>-144.1914588905102</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-142.4361224564154</v>
+        <v>-142.2146231213881</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-140.3702623807004</v>
+        <v>-140.1777604441068</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-138.6569852467148</v>
+        <v>-138.5068167145688</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-137.3311876319071</v>
+        <v>-137.2185372199025</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-136.3414198176902</v>
+        <v>-136.2601338458099</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-135.6374421657454</v>
+        <v>-135.5827980033162</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-135.1829966574022</v>
+        <v>-135.1517821154303</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-134.9548970233875</v>
+        <v>-134.9451201250587</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-134.9406973395039</v>
+        <v>-134.9513538578096</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-135.1371533029774</v>
+        <v>-135.1681012652645</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-135.5497530474347</v>
+        <v>-135.6016980629719</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-136.1933437809951</v>
+        <v>-136.2679282834472</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-137.0938782396756</v>
+        <v>-137.193865705623</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-138.2910505166442</v>
+        <v>-138.4205213314954</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-139.8396103417185</v>
+        <v>-140.0036607288732</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-141.7964325387719</v>
+        <v>-141.9976748860405</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-144.1267587060762</v>
+        <v>-144.3458244168703</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-146.2808435543679</v>
+        <v>-146.4115195349692</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-146.6747124062966</v>
+        <v>-146.5784333291033</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-144.9743659124736</v>
+        <v>-144.7730787432908</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-142.8089638950015</v>
+        <v>-142.6242732858586</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-140.968658471784</v>
+        <v>-140.8242064946778</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-139.5535881321991</v>
+        <v>-139.4464936007467</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-138.5172673224169</v>
+        <v>-138.4417506518397</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-137.8061013912243</v>
+        <v>-137.7576263422993</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-137.3816019651971</v>
+        <v>-137.3571868368828</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-137.2208061472566</v>
+        <v>-137.2187825634155</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-137.3141426332988</v>
+        <v>-137.3339590086138</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-137.6642613396301</v>
+        <v>-137.7064143193494</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-138.2864023152089</v>
+        <v>-138.3525069947981</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-139.2103784521969</v>
+        <v>-139.3033613820209</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-140.4836295626382</v>
+        <v>-140.6078908602261</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-142.1708441403081</v>
+        <v>-142.3314632263707</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-144.3229322714195</v>
+        <v>-144.5187714795942</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-146.7729000933893</v>
+        <v>-146.960218551652</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-148.4016673263683</v>
+        <v>-148.4256162443828</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-147.5589631624431</v>
+        <v>-147.3924975818173</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-145.3292627760078</v>
+        <v>-145.139856907196</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-143.2220304911094</v>
+        <v>-143.0691931827445</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-141.5811612545952</v>
+        <v>-141.4678891606139</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-140.3854473435603</v>
+        <v>-140.3059852658011</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-139.5719601131831</v>
+        <v>-139.5212200517637</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-139.0926943033458</v>
+        <v>-139.0673264175098</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-138.9193160418669</v>
+        <v>-138.9175165924048</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-139.0409463803401</v>
+        <v>-139.0622361441505</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-139.4628376978935</v>
+        <v>-139.508001691776</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-140.2072120090322</v>
+        <v>-140.2784155503736</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-141.3162604522939</v>
+        <v>-141.4172795107606</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-142.855045380985</v>
+        <v>-142.9911296609235</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-144.8978520883205</v>
+        <v>-145.0722118347064</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-147.3975771376495</v>
+        <v>-147.587725301061</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-149.5283553610013</v>
+        <v>-149.6055098408952</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.2437392183365</v>
+        <v>-149.1054553200016</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-146.9988992185273</v>
+        <v>-146.8126296973997</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-144.7272330950829</v>
+        <v>-144.5752743002261</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-142.9627502308917</v>
+        <v>-142.8514150780988</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-141.6976397357197</v>
+        <v>-141.621021441071</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-140.8599239572596</v>
+        <v>-140.8126792024344</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-140.3952117005841</v>
+        <v>-140.3739462123935</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-140.273282796609</v>
+        <v>-140.2763378816134</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-140.4855196092938</v>
+        <v>-140.5127479645632</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-141.0438326349208</v>
+        <v>-141.0965845012556</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-141.9826285059771</v>
+        <v>-142.0639449784945</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-143.3630289271009</v>
+        <v>-143.4778261358817</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-145.2702856000974</v>
+        <v>-145.4238660741669</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-147.7400009023043</v>
+        <v>-147.9242129385409</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-150.2570484082537</v>
+        <v>-150.3799805640836</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-150.6956658892359</v>
+        <v>-150.5963684609076</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-148.5467224484678</v>
+        <v>-148.3638354214004</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-146.1009476088119</v>
+        <v>-145.9479601844386</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-144.1911309391586</v>
+        <v>-144.0799283541023</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.8382451792943</v>
+        <v>-142.7628478071233</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.9602294415603</v>
+        <v>-141.9149295331826</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-141.4946061002137</v>
+        <v>-141.475871108309</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-141.4082036010045</v>
+        <v>-141.4144434581712</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-141.6941338555017</v>
+        <v>-141.7254653613724</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-142.3709485679913</v>
+        <v>-142.4292252535439</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-143.4858061339207</v>
+        <v>-143.5748788737033</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-145.1190626009063</v>
+        <v>-145.2447170016053</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-147.365202135473</v>
+        <v>-147.5305892940458</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-150.1096147332901</v>
+        <v>-150.279417305015</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-151.9140055159276</v>
+        <v>-151.9173829054596</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-150.5495113868936</v>
+        <v>-150.3806979277965</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-147.9081152839879</v>
+        <v>-147.7446061063205</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-145.6999707493638</v>
+        <v>-145.5790579291879</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-144.1209558237176</v>
+        <v>-144.0385144547768</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-143.0855481998667</v>
+        <v>-143.0350389137806</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-142.514413117356</v>
+        <v>-142.4915900425712</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-142.3631999747902</v>
+        <v>-142.3660524618287</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.6196818450541</v>
+        <v>-142.6481345207169</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-143.3020602979205</v>
+        <v>-143.3579669429228</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-144.4623690237222</v>
+        <v>-144.5497939057364</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-146.1917611272415</v>
+        <v>-146.3168801117505</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.5925678891627</v>
+        <v>-148.7575556072301</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-151.449146010826</v>
+        <v>-151.603234553716</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-152.7837257173212</v>
+        <v>-152.7367403941109</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-150.7801330826468</v>
+        <v>-150.6066908748715</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-148.0715948559501</v>
+        <v>-147.9234748452367</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-145.9742157785006</v>
+        <v>-145.8692453415577</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-144.5351338556157</v>
+        <v>-144.4667134834182</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-143.6497705679272</v>
+        <v>-143.6118104717478</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-143.2435975513951</v>
+        <v>-143.2326417032306</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-143.2825248643568</v>
+        <v>-143.2974088716114</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-143.7686864901193</v>
+        <v>-143.8103293787039</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-144.7411931296258</v>
+        <v>-144.8127781259824</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-146.2825660617166</v>
+        <v>-146.3898344743568</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-148.5131475432953</v>
+        <v>-148.6619329936264</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-151.4119627016991</v>
+        <v>-151.5798470725148</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-153.5893475534237</v>
+        <v>-153.6094222962232</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-152.19655556633</v>
+        <v>-152.0348418009382</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-149.3342616982673</v>
+        <v>-149.1816777186322</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-147.027171727981</v>
+        <v>-146.9184576597993</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-145.442910415224</v>
+        <v>-145.3721866092299</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-144.4667399745291</v>
+        <v>-144.4273260514734</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-144.0104492568858</v>
+        <v>-143.9985062792474</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-144.0329022960743</v>
+        <v>-144.047110414328</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-144.5349920818713</v>
+        <v>-144.5762990487904</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.5602238521264</v>
+        <v>-145.6320503074886</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-147.2022177745768</v>
+        <v>-147.3107610241024</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-149.5940771815173</v>
+        <v>-149.7448621195887</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-152.6384520632137</v>
+        <v>-152.7965205683166</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-154.3604229067602</v>
+        <v>-154.330830590375</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-152.2682343812154</v>
+        <v>-152.1023483015837</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-149.3670790679001</v>
+        <v>-149.2290337301804</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-147.1927719690037</v>
+        <v>-147.098263841343</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-145.7583410791507</v>
+        <v>-145.6997780428486</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-144.9365459129955</v>
+        <v>-144.9079004220839</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-144.647727820873</v>
+        <v>-144.6459956377025</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-144.8638719184607</v>
+        <v>-144.8886046630032</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-145.6039416549927</v>
+        <v>-145.6571646928441</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-146.9383046741216</v>
+        <v>-147.0249119446596</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-148.9960733269753</v>
+        <v>-149.1234449938587</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-151.8831117194509</v>
+        <v>-152.0469279783906</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-154.7485399264285</v>
+        <v>-154.8270860599448</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-154.0892013215035</v>
+        <v>-153.9482411401294</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-151.0377488029951</v>
+        <v>-150.8870909347202</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-148.4940953358598</v>
+        <v>-148.3878024820222</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-146.7768147949007</v>
+        <v>-146.7092960459043</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-145.7480365608291</v>
+        <v>-145.7120639136698</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-145.3018406709321</v>
+        <v>-145.2934499365356</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-145.39255794517</v>
+        <v>-145.4106299235938</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.0278559046769</v>
+        <v>-146.0738807065875</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-147.2709889334484</v>
+        <v>-147.3494038871751</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-149.2508205358372</v>
+        <v>-149.3691261525686</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-152.1089920012738</v>
+        <v>-152.267719105345</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-155.2036344654168</v>
+        <v>-155.3022784139952</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-154.9143683246921</v>
+        <v>-154.7844481904138</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-151.7910009980622</v>
+        <v>-151.6416329354718</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-149.1394447563857</v>
+        <v>-149.0345202058787</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-147.3635434246464</v>
+        <v>-147.2975989618345</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-146.313263523037</v>
+        <v>-146.2788377158651</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-145.8740065996716</v>
+        <v>-145.8670964477512</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-145.9982171153607</v>
+        <v>-146.0178115596632</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-146.6974152724167</v>
+        <v>-146.7452589141913</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-148.0455143126571</v>
+        <v>-148.1265295604311</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-150.1897005481628</v>
+        <v>-150.3118739127951</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-153.2591966908814</v>
+        <v>-153.4181641387694</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-156.1584314687615</v>
+        <v>-156.2132415063597</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-154.899414135773</v>
+        <v>-154.7507099060805</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-151.6449879508671</v>
+        <v>-151.5079344317381</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-149.1532760381774</v>
+        <v>-149.0610845610867</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-147.5480561132448</v>
+        <v>-147.492577139206</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-146.6620661834905</v>
+        <v>-146.6365731309688</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-146.3933604034089</v>
+        <v>-146.3947206833612</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-146.7109356125821</v>
+        <v>-146.739012537827</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-147.648193436142</v>
+        <v>-147.7058212088567</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-149.3116479443669</v>
+        <v>-149.4052182715335</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-151.8830461274423</v>
+        <v>-152.0202988389952</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-155.2941120024078</v>
+        <v>-155.4397751706377</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-156.7779251652759</v>
+        <v>-156.7132124515078</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-153.8843338244491</v>
+        <v>-153.7304830511262</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-150.8299151338855</v>
+        <v>-150.7174187710524</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-148.7537242723344</v>
+        <v>-148.6825246892007</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-147.5104441602035</v>
+        <v>-147.4718948935922</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-146.9504877319719</v>
+        <v>-146.9397029091388</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-147.0068875734797</v>
+        <v>-147.0223777478179</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-147.6843612709951</v>
+        <v>-147.7276339109072</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-149.0611978871631</v>
+        <v>-149.137179515129</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-151.3038612451653</v>
+        <v>-151.4209697340166</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-154.5623978699894</v>
+        <v>-154.7152238351967</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-157.4176275151339</v>
+        <v>-157.443719302392</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-155.5383544005827</v>
+        <v>-155.3863477488181</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-152.1659313914712</v>
+        <v>-152.0411866953235</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-149.750769438599</v>
+        <v>-149.6699921223357</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-148.2613238435668</v>
+        <v>-148.2151167814373</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-147.5147890712057</v>
+        <v>-147.497047446013</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-147.4173790193753</v>
+        <v>-147.4257459338677</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-147.9555756189505</v>
+        <v>-147.9908176038401</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-149.1929603992385</v>
+        <v>-149.2592024004396</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-151.2860196201829</v>
+        <v>-151.3912674603155</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-154.4368662174267</v>
+        <v>-154.5830362185599</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-157.7464414246467</v>
+        <v>-157.810978708223</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-156.5426793048825</v>
+        <v>-156.3978383765005</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-153.029225311073</v>
+        <v>-152.900591258947</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-150.4377182898118</v>
+        <v>-150.3539683032382</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-148.8316532919984</v>
+        <v>-148.7831000575854</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-148.0084544215909</v>
+        <v>-147.9884266689961</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-147.8600683832177</v>
+        <v>-147.8658754125568</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-148.3659971323727</v>
+        <v>-148.3981702642023</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-149.5879025155856</v>
+        <v>-149.650372815846</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-151.6865280149194</v>
+        <v>-151.7872425378259</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-154.8822726643871</v>
+        <v>-155.0239910366464</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-158.2788877535085</v>
+        <v>-158.3399831602359</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-156.9803458274446</v>
+        <v>-156.8353789864127</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-153.3925721593851</v>
+        <v>-153.2675349910697</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-150.7940826566542</v>
+        <v>-150.7135418232075</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-149.2052637613831</v>
+        <v>-149.1590758726461</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-148.41405451324</v>
+        <v>-148.3956841957576</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-148.3127611222247</v>
+        <v>-148.3197064584764</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-148.8860606153084</v>
+        <v>-148.9190815844621</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-150.2068143302811</v>
+        <v>-150.270172738737</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-152.4561759953889</v>
+        <v>-152.5581866093931</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-155.8536106058557</v>
+        <v>-155.9931860556723</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-159.0023396113901</v>
+        <v>-159.0230373135944</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-156.8812900396094</v>
+        <v>-156.7326731934735</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-153.3145625026294</v>
+        <v>-153.1998813754311</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-150.8692504286339</v>
+        <v>-150.7970654921997</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-149.4196856182362</v>
+        <v>-149.3797533254922</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-148.7594981152183</v>
+        <v>-148.7460717732315</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-148.7961746788905</v>
+        <v>-148.8074083595952</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-149.5319665260155</v>
+        <v>-149.569274938149</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-151.0653381786397</v>
+        <v>-151.1338403381369</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-153.6147282231442</v>
+        <v>-153.7232572217213</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-157.326596790094</v>
+        <v>-157.4597523865271</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-159.4973993954275</v>
+        <v>-159.4428212370518</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-156.2660918842871</v>
+        <v>-156.1228085965382</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-152.9182186874929</v>
+        <v>-152.8191982951723</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-150.759403976544</v>
+        <v>-150.699011655127</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-149.5475172614278</v>
+        <v>-149.5165058225385</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-149.1025818415798</v>
+        <v>-149.0965049879691</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-149.3603237462803</v>
+        <v>-149.3783513805167</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-150.3531090834456</v>
+        <v>-150.3976960267747</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-152.2220530349943</v>
+        <v>-152.2996800064616</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-155.233287118821</v>
+        <v>-155.3519722432303</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-159.1492255830671</v>
+        <v>-159.2477216029573</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-159.1357050707878</v>
+        <v>-159.0104377981945</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-155.2836958851829</v>
+        <v>-155.1583825610035</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-152.3605090925075</v>
+        <v>-152.2798806658368</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-150.5790314912926</v>
+        <v>-150.5320606388968</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-149.6763803971535</v>
+        <v>-149.6557826532238</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-149.5164121829598</v>
+        <v>-149.5192990009245</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-150.0736602471551</v>
+        <v>-150.1004729624106</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-151.4245989956848</v>
+        <v>-151.4792486891255</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-153.7738600832825</v>
+        <v>-153.8644649671523</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-157.3917874610982</v>
+        <v>-157.5174064198072</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-160.5620146539547</v>
+        <v>-160.55589666004</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-157.8330184335241</v>
+        <v>-157.6917656143242</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-154.1771690188512</v>
+        <v>-154.0767064057105</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-151.7936566223682</v>
+        <v>-151.7319734549769</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-150.4377455868631</v>
+        <v>-150.4047418603653</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-149.8939448213481</v>
+        <v>-149.8846601246248</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-150.0793386666227</v>
+        <v>-150.0925343376999</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-151.0170516870502</v>
+        <v>-151.0546967779438</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-152.8461100003877</v>
+        <v>-152.9140583854465</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-155.851512000466</v>
+        <v>-155.95826726514</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-159.9381113954366</v>
+        <v>-160.0356894588046</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-160.1861485125503</v>
+        <v>-160.0673714145124</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-156.1764335802529</v>
+        <v>-156.05742966369</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-153.1585360001758</v>
+        <v>-153.0828183773277</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-151.3393011233333</v>
+        <v>-151.2952911516722</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-150.4282398750372</v>
+        <v>-150.408781323697</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-150.280507240057</v>
+        <v>-150.2828149508256</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-150.870862000448</v>
+        <v>-150.8953861079883</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.2839705549706</v>
+        <v>-152.3345384981179</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-154.7466390193186</v>
+        <v>-154.8312849417568</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-158.5571677073658</v>
+        <v>-158.673558221055</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-161.5600701035976</v>
+        <v>-161.530369823188</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-158.3103943049558</v>
+        <v>-158.1787997048029</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-154.6630234053168</v>
+        <v>-154.5739792710817</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-152.3576114839863</v>
+        <v>-152.3037836891471</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-151.0820521978258</v>
+        <v>-151.05405267501</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-150.6228700378835</v>
+        <v>-150.6164026753669</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-150.9066600798168</v>
+        <v>-150.9208900099275</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-151.9717377081929</v>
+        <v>-152.0089174811949</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-153.985394374079</v>
+        <v>-154.0516619364632</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-157.2766779580946</v>
+        <v>-157.3798487594676</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-161.4598545414532</v>
+        <v>-161.5267002904017</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-160.4478955913834</v>
+        <v>-160.3217625117416</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-156.3168166409632</v>
+        <v>-156.2153015548659</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-153.4903603728709</v>
+        <v>-153.4276190494584</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-151.8392066152155</v>
+        <v>-151.8040050171616</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-151.0763161271962</v>
+        <v>-151.0627925300453</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-151.0765319660741</v>
+        <v>-151.0827251646239</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-151.8355729510296</v>
+        <v>-151.8624980683875</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-153.4687242500029</v>
+        <v>-153.5207975054619</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-156.2553768246223</v>
+        <v>-156.3411745358662</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-160.4431429095479</v>
+        <v>-160.5489257007761</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-162.2291522501091</v>
+        <v>-162.1497230174763</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-158.1450293823526</v>
+        <v>-158.0325595685644</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-154.7566461064939</v>
+        <v>-154.6850954340623</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-152.7023132787252</v>
+        <v>-152.6604487890758</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-151.6297864152344</v>
+        <v>-151.6100958920201</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-151.3550823600669</v>
+        <v>-151.3544975750239</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-151.8313263135983</v>
+        <v>-151.8498067532769</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-153.1277757559428</v>
+        <v>-153.1682810462833</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-155.4621472593882</v>
+        <v>-155.5317796025582</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-159.2131085754075</v>
+        <v>-159.3173351160521</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-163.0285271896244</v>
+        <v>-163.0387972009403</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-160.1646391877118</v>
+        <v>-160.0462019847555</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-156.1987783750866</v>
+        <v>-156.1178751353088</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-153.6920285813588</v>
+        <v>-153.643517006458</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-152.288063712582</v>
+        <v>-152.262662430507</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-151.733461104366</v>
+        <v>-151.7269241891912</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-151.9350614140872</v>
+        <v>-151.9463850341032</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-152.9189278770279</v>
+        <v>-152.9498656521319</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-154.8437995248136</v>
+        <v>-154.8996855421689</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-158.0581944811901</v>
+        <v>-158.1480897086055</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-162.5443262693109</v>
+        <v>-162.6270180674251</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-162.2883575504756</v>
+        <v>-162.1805601858755</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-157.8883821264338</v>
+        <v>-157.795959029364</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-154.8519098352977</v>
+        <v>-154.7952169901229</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-153.0738125392966</v>
+        <v>-153.0418609523158</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-152.2194139136569</v>
+        <v>-152.2064985835466</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-152.1409744517253</v>
+        <v>-152.1450754806174</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-152.8208963746533</v>
+        <v>-152.8426519180814</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-154.3634119669966</v>
+        <v>-154.4064544270498</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-157.0447372788337</v>
+        <v>-157.1169592765307</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-161.2582611957905</v>
+        <v>-161.3585217209716</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-164.0203679281584</v>
+        <v>-163.9698932490038</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-159.923832493008</v>
+        <v>-159.8191024749434</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-156.2547494612384</v>
+        <v>-156.1882387787549</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-154.0299324843406</v>
+        <v>-153.9906121578142</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-152.8370468533064</v>
+        <v>-152.8173758841953</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-152.4590909890647</v>
+        <v>-152.4558881450659</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-152.8302974077881</v>
+        <v>-152.8431304449523</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-154.0032242318545</v>
+        <v>-154.0341949070503</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-156.1767133454534</v>
+        <v>-156.2314563005478</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-159.7613654981334</v>
+        <v>-159.847937167513</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-164.2843254547573</v>
+        <v>-164.3284819896393</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-162.3753788782951</v>
+        <v>-162.2651133417446</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-158.0196263793881</v>
+        <v>-157.9415610021216</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-155.2298162034623</v>
+        <v>-155.1825258189969</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-153.6325796373222</v>
+        <v>-153.6062066920618</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-152.9183535822462</v>
+        <v>-152.908303586001</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-152.962647692608</v>
+        <v>-152.9674368177481</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-153.766017206278</v>
+        <v>-153.7864649444036</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-155.4548964469038</v>
+        <v>-155.4945748968938</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-158.3456793728817</v>
+        <v>-158.4121050372405</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-162.8413093888425</v>
+        <v>-162.9281127087592</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-164.867660616681</v>
+        <v>-164.7947932845926</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-160.3302060637515</v>
+        <v>-160.2391799822227</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-156.7945699812221</v>
+        <v>-156.7383316445955</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-154.6835058368306</v>
+        <v>-154.6504165046535</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-153.5715929004019</v>
+        <v>-153.5552339956702</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-153.2547729059392</v>
+        <v>-153.2525166142044</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-153.676022728734</v>
+        <v>-153.6875812509655</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-154.8949645493751</v>
+        <v>-154.9222488524925</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-157.1211043570713</v>
+        <v>-157.1692010078957</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-160.7957832871637</v>
+        <v>-160.8723790397184</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-165.4871993986541</v>
+        <v>-165.5248919779399</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-163.380770170655</v>
+        <v>-163.2810237920222</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-158.930046144285</v>
+        <v>-158.8617031064387</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-156.1195274467972</v>
+        <v>-156.0783365633056</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-154.5074813267786</v>
+        <v>-154.4844020353385</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.7719809454578</v>
+        <v>-153.7628991918465</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-153.7831087696528</v>
+        <v>-153.7866200603092</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-154.534905252726</v>
+        <v>-154.5515758111472</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-156.1426100558266</v>
+        <v>-156.1752778606932</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-158.906559097788</v>
+        <v>-158.9616235433471</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-163.3258404422546</v>
+        <v>-163.4050051544228</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-166.423330507348</v>
+        <v>-166.3785049359937</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-161.9792594176872</v>
+        <v>-161.8953748962265</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-158.1661627796568</v>
+        <v>-158.1144057623668</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-155.8742267402095</v>
+        <v>-155.8435951581527</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-154.6221487399092</v>
+        <v>-154.6062793718776</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-154.171665252008</v>
+        <v>-154.1678580905592</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-154.4425345022721</v>
+        <v>-154.450161995046</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-155.4678913948793</v>
+        <v>-155.4880912878796</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-157.413554837363</v>
+        <v>-157.4498681816565</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-160.6672550177674</v>
+        <v>-160.726824200201</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-165.5865451041059</v>
+        <v>-165.6543002968343</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-166.1168905980326</v>
+        <v>-166.0378274295091</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-161.2433721116584</v>
+        <v>-161.176401645324</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-157.9371461292116</v>
+        <v>-157.8969373718723</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-155.9897036441379</v>
+        <v>-155.9665954497119</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-154.9836839202327</v>
+        <v>-154.9730361019474</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-154.7337079915737</v>
+        <v>-154.7336563576745</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-155.1909334785656</v>
+        <v>-155.2012897086999</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-156.4156825435174</v>
+        <v>-156.4378957523132</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-158.6125902417279</v>
+        <v>-158.650559642998</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-162.2360106310524</v>
+        <v>-162.296998506063</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-167.3163817349645</v>
+        <v>-167.3661219725025</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-165.968176674723</v>
+        <v>-165.8917025866163</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-161.2232642679873</v>
+        <v>-161.1701601654536</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-158.2212328018335</v>
+        <v>-158.1903646423771</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-156.4775983746121</v>
+        <v>-156.4611672671161</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-155.6210293249023</v>
+        <v>-155.6154742152527</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-155.4938467657581</v>
+        <v>-155.4978225238268</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-156.0631806637469</v>
+        <v>-156.0767724322991</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-157.4024319056759</v>
+        <v>-157.4272334691493</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-159.7340497082424</v>
+        <v>-159.774130079102</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-163.5442495568971</v>
+        <v>-163.6075127084094</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-168.7077663323506</v>
+        <v>-168.7592951788919</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-166.76994647298</v>
+        <v>-166.7115894804688</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-162.1296096139635</v>
+        <v>-162.0925085463191</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-159.2760984192745</v>
+        <v>-159.2589957404478</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-157.6653566108583</v>
+        <v>-157.6626494167009</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-156.9443317217951</v>
+        <v>-156.9542159741615</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-156.9743222762952</v>
+        <v>-156.9977875483665</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-157.7506908143187</v>
+        <v>-157.7925871593688</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-159.413390270853</v>
+        <v>-159.4899908740451</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-162.4773520686122</v>
+        <v>-162.7007986553833</v>
       </c>
     </row>
     <row r="502">

--- a/RT_radpat_80deg.xlsx
+++ b/RT_radpat_80deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-135.0264471772326</v>
+        <v>-135.0240421038298</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-135.0246531673644</v>
+        <v>-135.0226228232745</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-135.0576467969855</v>
+        <v>-135.0560077036641</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-135.128646546677</v>
+        <v>-135.127419902591</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-135.2414332591001</v>
+        <v>-135.2406444307005</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-135.4004849315792</v>
+        <v>-135.4001648324933</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-135.6111523359375</v>
+        <v>-135.6113389556278</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-135.8798888421968</v>
+        <v>-135.8806283320999</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-136.2145503178971</v>
+        <v>-136.2158995985405</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-136.6247849458398</v>
+        <v>-136.6268134316509</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-137.1225245829757</v>
+        <v>-137.1253169517749</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-137.722562080942</v>
+        <v>-137.7262197622518</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-138.443079290161</v>
+        <v>-138.4477180337651</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-139.3056232596115</v>
+        <v>-139.3113576282975</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-140.3328411491575</v>
+        <v>-140.339730487997</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-141.5385486081741</v>
+        <v>-141.5464232279608</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-142.8936627214097</v>
+        <v>-142.9016320737489</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-144.2287251053621</v>
+        <v>-144.2340657558585</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-145.0664357966388</v>
+        <v>-145.0639868783656</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-144.7614037924858</v>
+        <v>-144.7485442745509</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-143.3117174022672</v>
+        <v>-143.293211185142</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-141.3623404592796</v>
+        <v>-141.3434364313237</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-139.3926600323504</v>
+        <v>-139.3753884526833</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-137.5736122675189</v>
+        <v>-137.55829109864</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-135.9350888722476</v>
+        <v>-135.921531188951</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-134.4638254921786</v>
+        <v>-134.4517589936926</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-133.1376470492656</v>
+        <v>-133.1268274042821</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-131.9354650699459</v>
+        <v>-131.9256941966721</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-130.8395601083135</v>
+        <v>-130.8306825839762</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-129.8356126378282</v>
+        <v>-129.8275069422639</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-128.9121765696061</v>
+        <v>-128.9047467954659</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-128.0601037684864</v>
+        <v>-128.0532743817585</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-127.2720533697213</v>
+        <v>-127.2657636420138</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-126.5421033858764</v>
+        <v>-126.5363045523109</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-125.8654524657662</v>
+        <v>-125.8601045513401</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-125.2381915917369</v>
+        <v>-125.2332621405526</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-124.6571310340309</v>
+        <v>-124.6525932688033</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-124.1196670017291</v>
+        <v>-124.1154989907117</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-123.6236797558638</v>
+        <v>-123.6198632903435</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-123.1674542450414</v>
+        <v>-123.1639745440871</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-122.7496191531534</v>
+        <v>-122.7464640781293</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-122.3690989570164</v>
+        <v>-122.3662589157417</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-122.0250774541487</v>
+        <v>-122.0225447377453</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-121.716969044656</v>
+        <v>-121.7147380360544</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-121.4443978112301</v>
+        <v>-121.4424644183919</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-121.2071815921131</v>
+        <v>-121.2055434312424</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-121.0053216548498</v>
+        <v>-121.0039777821246</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-120.8389964908791</v>
+        <v>-120.8379473868767</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-120.7085597279146</v>
+        <v>-120.7078073565775</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-120.6145422000442</v>
+        <v>-120.6140899517211</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-120.5576579921657</v>
+        <v>-120.5575107639521</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-120.5388148560367</v>
+        <v>-120.5389791320087</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-120.5591295533834</v>
+        <v>-120.5596135475079</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-120.6199488692939</v>
+        <v>-120.6207626803599</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-120.7228774302762</v>
+        <v>-120.7240332641554</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-120.8698139423792</v>
+        <v>-120.8713264512829</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-121.0629981205089</v>
+        <v>-121.0648847939393</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-121.3050713297454</v>
+        <v>-121.3073529506706</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-121.5991553793786</v>
+        <v>-121.6018568348651</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-121.9489556572701</v>
+        <v>-121.9521066078488</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-122.3588973352614</v>
+        <v>-122.3625336096327</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-122.8343078242937</v>
+        <v>-122.8384728808021</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-123.3816646008914</v>
+        <v>-123.3864116460961</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-124.0089375801218</v>
+        <v>-124.0143328855659</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-124.726071095533</v>
+        <v>-124.7321981828319</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-125.5456769508188</v>
+        <v>-125.5526429621564</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-126.484050345416</v>
+        <v>-126.4919955820522</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-127.5626942015343</v>
+        <v>-127.5718064785961</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-128.810636151365</v>
+        <v>-128.8211736050933</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-130.2679399959734</v>
+        <v>-130.2802653716373</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-131.9906682217541</v>
+        <v>-132.0052969163746</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-134.0554844165103</v>
+        <v>-134.0731161468241</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-136.5480085027431</v>
+        <v>-136.5692961082872</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-139.4334080342526</v>
+        <v>-139.4569120189875</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-141.8777453789226</v>
+        <v>-141.8915140584135</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-141.7654540901866</v>
+        <v>-141.7567834773034</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-139.5949872990456</v>
+        <v>-139.5795295749077</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-137.3496353234111</v>
+        <v>-137.336337345531</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-135.5489623417962</v>
+        <v>-135.5388144740027</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-134.1715356026736</v>
+        <v>-134.1640810313476</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-133.1347852127256</v>
+        <v>-133.1295218454854</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-132.372585915951</v>
+        <v>-132.3691450760026</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-131.8392521195482</v>
+        <v>-131.8373849180224</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-131.5045260833259</v>
+        <v>-131.5040728135532</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-131.349220282603</v>
+        <v>-131.3500883939133</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-131.3623975255969</v>
+        <v>-131.3645470932076</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-131.5397668507416</v>
+        <v>-131.5432047602694</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-131.8829840726218</v>
+        <v>-131.8877633464375</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-132.3996944422818</v>
+        <v>-132.4059194502785</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-133.1042944121393</v>
+        <v>-133.1121328948571</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-134.0194850152952</v>
+        <v>-134.0291884766578</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-135.1786498357674</v>
+        <v>-135.1905844390132</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-136.6283510403571</v>
+        <v>-136.6430315988254</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-138.4261685854438</v>
+        <v>-138.4442319043445</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-140.6086087889988</v>
+        <v>-140.630347792404</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-143.0123485122498</v>
+        <v>-143.035084783492</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-144.6934453534562</v>
+        <v>-144.7052459179263</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-144.1914588905102</v>
+        <v>-144.1848033892806</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-142.2146231213881</v>
+        <v>-142.2017463213963</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-140.1777604441068</v>
+        <v>-140.1660854920199</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-138.5068167145688</v>
+        <v>-138.4977976715783</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-137.2185372199025</v>
+        <v>-137.2120978989999</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-136.2601338458099</v>
+        <v>-136.2559775630046</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-135.5827980033162</v>
+        <v>-135.5806739665337</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-135.1517821154303</v>
+        <v>-135.1515231374648</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-134.9451201250587</v>
+        <v>-134.9466392447787</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-134.9513538578096</v>
+        <v>-134.954636259162</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-135.1681012652645</v>
+        <v>-135.1732035966184</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-135.6016980629719</v>
+        <v>-135.6087561582569</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-136.2679282834472</v>
+        <v>-136.2771752606257</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-137.193865705623</v>
+        <v>-137.2056624992333</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-138.4205213314954</v>
+        <v>-138.4354039869652</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-140.0036607288732</v>
+        <v>-140.0223614714382</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-141.9976748860405</v>
+        <v>-142.0208867407738</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-144.3458244168703</v>
+        <v>-144.3724000115126</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-146.4115195349692</v>
+        <v>-146.4315625507236</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-146.5784333291033</v>
+        <v>-146.5769485853661</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-144.7730787432908</v>
+        <v>-144.7598661202911</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-142.6242732858586</v>
+        <v>-142.6110435300714</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-140.8242064946778</v>
+        <v>-140.8139062293621</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-139.4464936007467</v>
+        <v>-139.4393089020286</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-138.4417506518397</v>
+        <v>-138.4373949457502</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-137.7576263422993</v>
+        <v>-137.7558281663036</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-137.3571868368828</v>
+        <v>-137.3577759176186</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-137.2187825634155</v>
+        <v>-137.2216966101986</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-137.3339590086138</v>
+        <v>-137.3392411376285</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-137.7064143193494</v>
+        <v>-137.7142224419235</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-138.3525069947981</v>
+        <v>-138.3631391711909</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-139.3033613820209</v>
+        <v>-139.3173012504335</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-140.6078908602261</v>
+        <v>-140.6258691276715</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-142.3314632263707</v>
+        <v>-142.3544513597002</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-144.5187714795942</v>
+        <v>-144.5473212899491</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-146.960218551652</v>
+        <v>-146.9900970801151</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-148.4256162443828</v>
+        <v>-148.4379648547652</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-147.3924975818173</v>
+        <v>-147.3812251819634</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-145.139856907196</v>
+        <v>-145.1236013237146</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-143.0691931827445</v>
+        <v>-143.0557615987189</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-141.4678891606139</v>
+        <v>-141.4583651057225</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-140.3059852658011</v>
+        <v>-140.3001048187847</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-139.5212200517637</v>
+        <v>-139.5186240347435</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-139.0673264175098</v>
+        <v>-139.067781482122</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-138.9175165924048</v>
+        <v>-138.9209407999022</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-139.0622361441505</v>
+        <v>-139.068701195867</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-139.508001691776</v>
+        <v>-139.5177510497166</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-140.2784155503736</v>
+        <v>-140.2919049205015</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-141.4172795107606</v>
+        <v>-141.4352521869666</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-142.9911296609235</v>
+        <v>-143.0146799339801</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-145.0722118347064</v>
+        <v>-145.1024455081187</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-147.587725301061</v>
+        <v>-147.6225266656651</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-149.6055098408952</v>
+        <v>-149.6267192610095</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.1054553200016</v>
+        <v>-149.0954612830651</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-146.8126296973997</v>
+        <v>-146.7932095377172</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-144.5752743002261</v>
+        <v>-144.5588752037957</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-142.8514150780988</v>
+        <v>-142.8398539475907</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-141.621021441071</v>
+        <v>-141.6139749016861</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-140.8126792024344</v>
+        <v>-140.8096827095502</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-140.3739462123935</v>
+        <v>-140.3747112103035</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-140.2763378816134</v>
+        <v>-140.2807874977418</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-140.5127479645632</v>
+        <v>-140.5210224808604</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-141.0965845012556</v>
+        <v>-141.1090753399109</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-142.0639449784945</v>
+        <v>-142.0813663116372</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-143.4778261358817</v>
+        <v>-143.5013195984371</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-145.4238660741669</v>
+        <v>-145.4549024397197</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-147.9242129385409</v>
+        <v>-147.9624939910886</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-150.3799805640836</v>
+        <v>-150.4108552509013</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-150.5963684609076</v>
+        <v>-150.5901960329391</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-148.3638354214004</v>
+        <v>-148.3409490741245</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-145.9479601844386</v>
+        <v>-145.9278825006997</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-144.0799283541023</v>
+        <v>-144.0657492644587</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-142.7628478071233</v>
+        <v>-142.7541893665494</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-141.9149295331826</v>
+        <v>-141.9111808218713</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-141.475871108309</v>
+        <v>-141.476662717365</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-141.4144434581712</v>
+        <v>-141.4196922658372</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-141.7254653613724</v>
+        <v>-141.7353849029904</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-142.4292252535439</v>
+        <v>-142.4443718951449</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-143.5748788737033</v>
+        <v>-143.5962654810904</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-145.2447170016053</v>
+        <v>-145.2739079013971</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-147.5305892940458</v>
+        <v>-147.5690353687339</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-150.279417305015</v>
+        <v>-150.3214640494838</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-151.9173829054596</v>
+        <v>-151.9287707488029</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-150.3806979277965</v>
+        <v>-150.3566613735962</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-147.7446061063205</v>
+        <v>-147.7189120194523</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-145.5790579291879</v>
+        <v>-145.5601797720124</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-144.0385144547768</v>
+        <v>-144.0264798159509</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-143.0350389137806</v>
+        <v>-143.0290145066118</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-142.4915900425712</v>
+        <v>-142.4910146367094</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-142.3660524618287</v>
+        <v>-142.3707441458653</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-142.6481345207169</v>
+        <v>-142.6582912596646</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-143.3579669429228</v>
+        <v>-143.3742191265756</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-144.5497939057364</v>
+        <v>-144.5733400234384</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-146.3168801117505</v>
+        <v>-146.3495846459788</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.7575556072301</v>
+        <v>-148.800830170541</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-151.603234553716</v>
+        <v>-151.6468140596754</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-152.7367403941109</v>
+        <v>-152.7362494297856</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-150.6066908748715</v>
+        <v>-150.5756525690953</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-147.9234748452367</v>
+        <v>-147.8957242219656</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-145.8692453415577</v>
+        <v>-145.849960935888</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-144.4667134834182</v>
+        <v>-144.4551279001105</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-143.6118104717478</v>
+        <v>-143.6069439702247</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-143.2326417032306</v>
+        <v>-143.2339728219808</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-143.2974088716114</v>
+        <v>-143.3048981141</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-143.8103293787039</v>
+        <v>-143.8244347856381</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-144.8127781259824</v>
+        <v>-144.8345657701951</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-146.3898344743568</v>
+        <v>-146.4211575087895</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-148.6619329936264</v>
+        <v>-148.7050102150241</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-151.5798470725148</v>
+        <v>-151.630100643111</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-153.6094222962232</v>
+        <v>-153.6235693554886</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-152.0348418009382</v>
+        <v>-152.0014579504789</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-149.1816777186322</v>
+        <v>-149.1482168968645</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-146.9184576597993</v>
+        <v>-146.8948142311702</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-145.3721866092299</v>
+        <v>-145.3576524762381</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-144.4273260514734</v>
+        <v>-144.4206226910098</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-143.9985062792474</v>
+        <v>-143.9989260330972</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-144.047110414328</v>
+        <v>-144.054549439289</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-144.5762990487904</v>
+        <v>-144.5912626045853</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-145.6320503074886</v>
+        <v>-145.6557777163483</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-147.3107610241024</v>
+        <v>-147.3454353312872</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-149.7448621195887</v>
+        <v>-149.792817867736</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-152.7965205683166</v>
+        <v>-152.8486931709691</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-154.330830590375</v>
+        <v>-154.3301114094368</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-152.1023483015837</v>
+        <v>-152.0614474102772</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-149.2290337301804</v>
+        <v>-149.1940758381709</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-147.098263841343</v>
+        <v>-147.0747041089396</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-145.6997780428486</v>
+        <v>-145.686093899396</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-144.9079004220839</v>
+        <v>-144.9027345537369</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-144.6459956377025</v>
+        <v>-144.6487407946905</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-144.8886046630032</v>
+        <v>-144.8993776500893</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-145.6571646928441</v>
+        <v>-145.6768529974327</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-147.0249119446596</v>
+        <v>-147.0553819407501</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-149.1234449938587</v>
+        <v>-149.1675779052431</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-152.0469279783906</v>
+        <v>-152.1042505916631</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-154.8270860599448</v>
+        <v>-154.8585379844637</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-153.9482411401294</v>
+        <v>-153.9098591847008</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-150.8870909347202</v>
+        <v>-150.843885302724</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-148.3878024820222</v>
+        <v>-148.357387288744</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-146.7092960459043</v>
+        <v>-146.6906548782079</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-145.7120639136698</v>
+        <v>-145.7033293810253</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-145.2934499365356</v>
+        <v>-145.293641438983</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-145.4106299235938</v>
+        <v>-145.4196371561455</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.0738807065875</v>
+        <v>-146.0924702887619</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-147.3494038871751</v>
+        <v>-147.3794215844549</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-149.3691261525686</v>
+        <v>-149.413662694196</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-152.267719105345</v>
+        <v>-152.3277334424694</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-155.3022784139952</v>
+        <v>-155.3421575982503</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-154.7844481904138</v>
+        <v>-154.7444347144283</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-151.6416329354718</v>
+        <v>-151.5935793820969</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-149.0345202058787</v>
+        <v>-149.0008172825681</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-147.2975989618345</v>
+        <v>-147.2770447834901</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-146.2788377158651</v>
+        <v>-146.2692402433513</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-145.8670964477512</v>
+        <v>-145.8673305099364</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-146.0178115596632</v>
+        <v>-146.0277767032437</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-146.7452589141913</v>
+        <v>-146.7658805669841</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-148.1265295604311</v>
+        <v>-148.1600094124597</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-150.3118739127951</v>
+        <v>-150.3618067226407</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-153.4181641387694</v>
+        <v>-153.4837057267618</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-156.2132415063597</v>
+        <v>-156.2394003906254</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-154.7507099060805</v>
+        <v>-154.6992964437486</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-151.5079344317381</v>
+        <v>-151.4594888345934</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-149.0610845610867</v>
+        <v>-149.0287580883155</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-147.492577139206</v>
+        <v>-147.4739387104663</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-146.6365731309688</v>
+        <v>-146.6294430907427</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-146.3947206833612</v>
+        <v>-146.3981878584218</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-146.739012537827</v>
+        <v>-146.7533148950242</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-147.7058212088567</v>
+        <v>-147.7324388599104</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-149.4052182715335</v>
+        <v>-149.4472419427038</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-152.0202988389952</v>
+        <v>-152.0817392135873</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-155.4397751706377</v>
+        <v>-155.506497003313</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-156.7132124515078</v>
+        <v>-156.6920997897329</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-153.7304830511262</v>
+        <v>-153.6716228869635</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-150.7174187710524</v>
+        <v>-150.6742067761179</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-148.6825246892007</v>
+        <v>-148.655852085574</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-147.4718948935922</v>
+        <v>-147.4587339170675</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-146.9397029091388</v>
+        <v>-146.9383719981946</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-147.0223777478179</v>
+        <v>-147.0325647041898</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-147.7276339109072</v>
+        <v>-147.7503495097195</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-149.137179515129</v>
+        <v>-149.1750792765481</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-151.4209697340166</v>
+        <v>-151.4786084243681</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-154.7152238351967</v>
+        <v>-154.791333585865</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-157.443719302392</v>
+        <v>-157.4628413489148</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-155.3863477488181</v>
+        <v>-155.3241545932048</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-152.0411866953235</v>
+        <v>-151.989264547918</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-149.6699921223357</v>
+        <v>-149.6369999744137</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-148.2151167814373</v>
+        <v>-148.1975972701817</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-147.497047446013</v>
+        <v>-147.4926805737681</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-147.4257459338677</v>
+        <v>-147.4338193210379</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-147.9908176038401</v>
+        <v>-148.0120906405243</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-149.2592024004396</v>
+        <v>-149.2961844878386</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-151.3912674603155</v>
+        <v>-151.4487350550451</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-154.5830362185599</v>
+        <v>-154.6635021835056</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-157.810978708223</v>
+        <v>-157.8530011238189</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-156.3978383765005</v>
+        <v>-156.335018617987</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-152.900591258947</v>
+        <v>-152.842845565253</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-150.3539683032382</v>
+        <v>-150.3170166888757</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-148.7831000575854</v>
+        <v>-148.7632346290386</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-147.9884266689961</v>
+        <v>-147.9829120771475</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-147.8658754125568</v>
+        <v>-147.8737936556339</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-148.3981702642023</v>
+        <v>-148.4202545255799</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-149.650372815846</v>
+        <v>-149.6892864711266</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-151.7872425378259</v>
+        <v>-151.8482371266871</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-155.0239910366464</v>
+        <v>-155.1105239988013</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-158.3399831602359</v>
+        <v>-158.3858266943936</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-156.8353789864127</v>
+        <v>-156.7678376011234</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-153.2675349910697</v>
+        <v>-153.2070016238049</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-150.7135418232075</v>
+        <v>-150.6754325693077</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-149.1590758726461</v>
+        <v>-149.1391961070997</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-148.3956841957576</v>
+        <v>-148.3911458146536</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-148.3197064584764</v>
+        <v>-148.3296390108932</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-148.9190815844621</v>
+        <v>-148.9444507663789</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-150.270172738737</v>
+        <v>-150.3141801140441</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-152.5581866093931</v>
+        <v>-152.6270207398724</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-155.9931860556723</v>
+        <v>-156.088834292938</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-159.0230373135944</v>
+        <v>-159.0513366811458</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-156.7326731934735</v>
+        <v>-156.6568603849348</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-153.1998813754311</v>
+        <v>-153.1397702322305</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-150.7970654921997</v>
+        <v>-150.7605519649684</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-149.3797533254922</v>
+        <v>-149.3621042414302</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-148.7460717732315</v>
+        <v>-148.744568126619</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-148.8074083595952</v>
+        <v>-148.8215043680208</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-149.569274938149</v>
+        <v>-149.6004907389772</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-151.1338403381369</v>
+        <v>-151.1863809727593</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-153.7232572217213</v>
+        <v>-153.8046672150668</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-157.4597523865271</v>
+        <v>-157.5634160284335</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-159.4428212370518</v>
+        <v>-159.4257714046907</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-156.1228085965382</v>
+        <v>-156.0419451887907</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-152.8191982951723</v>
+        <v>-152.7630103104837</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-150.699011655127</v>
+        <v>-150.6667214018422</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-149.5165058225385</v>
+        <v>-149.5033170724172</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-149.0965049879691</v>
+        <v>-149.1002074685789</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-149.3783513805167</v>
+        <v>-149.3990357990816</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-150.3976960267747</v>
+        <v>-150.4378607567804</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-152.2996800064616</v>
+        <v>-152.3651895592506</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-155.3519722432303</v>
+        <v>-155.4513934177192</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-159.2477216029573</v>
+        <v>-159.3405258589978</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-159.0104377981945</v>
+        <v>-158.9403948709397</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-155.1583825610035</v>
+        <v>-155.0805670829035</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-152.2798806658368</v>
+        <v>-152.2308521804459</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-150.5320606388968</v>
+        <v>-150.5063585331683</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-149.6557826532238</v>
+        <v>-149.6492450317135</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-149.5192990009245</v>
+        <v>-149.5305714290156</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-150.1004729624106</v>
+        <v>-150.1306561107358</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-151.4792486891255</v>
+        <v>-151.5324218177811</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-153.8644649671523</v>
+        <v>-153.948995817231</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-157.5174064198072</v>
+        <v>-157.637077460568</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-160.55589666004</v>
+        <v>-160.5769242110316</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-157.6917656143242</v>
+        <v>-157.5975926348655</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-154.0767064057105</v>
+        <v>-154.0082206722431</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-151.7319734549769</v>
+        <v>-151.6921377013419</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-150.4047418603653</v>
+        <v>-150.3873539943127</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-149.8846601246248</v>
+        <v>-149.8866946640978</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-150.0925343376999</v>
+        <v>-150.1137863363103</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-151.0546967779438</v>
+        <v>-151.0977707357384</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-152.9140583854465</v>
+        <v>-152.9855137871922</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-155.95826726514</v>
+        <v>-156.0689307967596</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-160.0356894588046</v>
+        <v>-160.1488124226911</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-160.0673714145124</v>
+        <v>-159.9883845808997</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-156.05742966369</v>
+        <v>-155.9678075400104</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-153.0828183773277</v>
+        <v>-153.0269492714131</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-151.2952911516722</v>
+        <v>-151.2661708800381</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-150.408781323697</v>
+        <v>-150.4014230595193</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-150.2828149508256</v>
+        <v>-150.295639808939</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-150.8953861079883</v>
+        <v>-150.9297210366362</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-152.3345384981179</v>
+        <v>-152.3952886266967</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-154.8312849417568</v>
+        <v>-154.9286749699783</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-158.673558221055</v>
+        <v>-158.8111687036996</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-161.530369823188</v>
+        <v>-161.5319317095974</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-158.1787997048029</v>
+        <v>-158.070227441732</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-154.5739792710817</v>
+        <v>-154.499490742664</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-152.3037836891471</v>
+        <v>-152.2613979532955</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-151.05405267501</v>
+        <v>-151.0365613010556</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-150.6164026753669</v>
+        <v>-150.6206374184967</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-150.9208900099275</v>
+        <v>-150.9469460900613</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-152.0089174811949</v>
+        <v>-152.0602736024773</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-154.0516619364632</v>
+        <v>-154.1367779415156</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-157.3798487594676</v>
+        <v>-157.5116101466427</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-161.5267002904017</v>
+        <v>-161.630592494536</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-160.3217625117416</v>
+        <v>-160.2100934962007</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-156.2153015548659</v>
+        <v>-156.1192949303606</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-153.4276190494584</v>
+        <v>-153.369786713014</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-151.8040050171616</v>
+        <v>-151.7750866596991</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-151.0627925300453</v>
+        <v>-151.0576895591817</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-151.0827251646239</v>
+        <v>-151.1001969154928</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-151.8624980683875</v>
+        <v>-151.9046897987451</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-153.5207975054619</v>
+        <v>-153.5943335455615</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-156.3411745358662</v>
+        <v>-156.4591938255854</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-160.5489257007761</v>
+        <v>-160.7009404175083</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-162.1497230174763</v>
+        <v>-162.0805966550313</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-158.0325595685644</v>
+        <v>-157.9132409974333</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-154.6850954340623</v>
+        <v>-154.6093416593348</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-152.6604487890758</v>
+        <v>-152.6187279585943</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-151.6100958920201</v>
+        <v>-151.594921026872</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-151.3544975750239</v>
+        <v>-151.3630896488434</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-151.8498067532769</v>
+        <v>-151.883027060191</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-153.1682810462833</v>
+        <v>-153.2310827681066</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-155.5317796025582</v>
+        <v>-155.6354545550382</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-159.3173351160521</v>
+        <v>-159.4737614912711</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-163.0387972009403</v>
+        <v>-163.0761562508776</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-160.0462019847555</v>
+        <v>-159.9070483905453</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-156.1178751353088</v>
+        <v>-156.0209949549428</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-153.643517006458</v>
+        <v>-153.587034009539</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-152.262662430507</v>
+        <v>-152.2362599163229</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-151.7269241891912</v>
+        <v>-151.7259419794553</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-151.9463850341032</v>
+        <v>-151.9702986560665</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-152.9498656521319</v>
+        <v>-153.0020626935641</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-154.8996855421689</v>
+        <v>-154.9891957661888</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-158.1480897086055</v>
+        <v>-158.2912048661184</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-162.6270180674251</v>
+        <v>-162.7681502638507</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-162.1805601858755</v>
+        <v>-162.0461035328056</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-157.795959029364</v>
+        <v>-157.6750811707088</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-154.7952169901229</v>
+        <v>-154.7220317779743</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-153.0418609523158</v>
+        <v>-153.003331139992</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-152.2064985835466</v>
+        <v>-152.1956388871845</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-152.1450754806174</v>
+        <v>-152.1598224590132</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-152.8426519180814</v>
+        <v>-152.8849037680577</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-154.4064544270498</v>
+        <v>-154.4830793688401</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-157.1169592765307</v>
+        <v>-157.2428560207876</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-161.3585217209716</v>
+        <v>-161.5377551451296</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-163.9698932490038</v>
+        <v>-163.9155576546357</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-159.8191024749434</v>
+        <v>-159.6713943035913</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-156.1882387787549</v>
+        <v>-156.0943055920642</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-153.9906121578142</v>
+        <v>-153.9376634880639</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-152.8173758841953</v>
+        <v>-152.7953409238887</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-152.4558881450659</v>
+        <v>-152.4608049520593</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-152.8431304449523</v>
+        <v>-152.875338088833</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-154.0341949070503</v>
+        <v>-154.0985490235612</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-156.2314563005478</v>
+        <v>-156.3399138940484</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-159.847937167513</v>
+        <v>-160.0202001862106</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-164.3284819896393</v>
+        <v>-164.4399908526015</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-162.2651133417446</v>
+        <v>-162.0994429332643</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-157.9415610021216</v>
+        <v>-157.8197651122429</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-155.1825258189969</v>
+        <v>-155.1105352046239</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-153.6062066920618</v>
+        <v>-153.5699855326299</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-152.908303586001</v>
+        <v>-152.9012581852371</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-152.9674368177481</v>
+        <v>-152.9880583192302</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-153.7864649444036</v>
+        <v>-153.8375715143822</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-155.4945748968938</v>
+        <v>-155.5848698879843</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-158.4121050372405</v>
+        <v>-158.5602180303419</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-162.9281127087592</v>
+        <v>-163.131135553172</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-164.7947932845926</v>
+        <v>-164.6876361630758</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-160.2391799822227</v>
+        <v>-160.0798203508974</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-156.7383316445955</v>
+        <v>-156.6396249400623</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-154.6504165046535</v>
+        <v>-154.5951494603096</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-153.5552339956702</v>
+        <v>-153.5328311764902</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-153.2525166142044</v>
+        <v>-153.259013681763</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-153.6875812509655</v>
+        <v>-153.7236109797946</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-154.9222488524925</v>
+        <v>-154.9933876868832</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-157.1692010078957</v>
+        <v>-157.289119052408</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-160.8723790397184</v>
+        <v>-161.0646729764127</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-165.5248919779399</v>
+        <v>-165.6467162194359</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-163.2810237920222</v>
+        <v>-163.0893290111647</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-158.8617031064387</v>
+        <v>-158.7249989408814</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-156.0783365633056</v>
+        <v>-155.9971652869805</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-154.4844020353385</v>
+        <v>-154.4423058989298</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.7628991918465</v>
+        <v>-153.7523068932578</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-153.7866200603092</v>
+        <v>-153.805603729553</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-154.5515758111472</v>
+        <v>-154.6027841790459</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-156.1752778606932</v>
+        <v>-156.2674481432323</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-158.9616235433471</v>
+        <v>-159.1142813019759</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-163.4050051544228</v>
+        <v>-163.6318418402417</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-166.3785049359937</v>
+        <v>-166.3014082885369</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-161.8953748962265</v>
+        <v>-161.7051050023015</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-158.1144057623668</v>
+        <v>-157.9951226055686</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-155.8435951581527</v>
+        <v>-155.774502794251</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-154.6062793718776</v>
+        <v>-154.5738633900178</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-154.1678580905592</v>
+        <v>-154.1666359078336</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-154.450161995046</v>
+        <v>-154.4797738354561</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-155.4880912878796</v>
+        <v>-155.5530747545981</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-157.4498681816565</v>
+        <v>-157.5622858068067</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-160.726824200201</v>
+        <v>-160.9118258058516</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-165.6543002968343</v>
+        <v>-165.8782475096169</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-166.0378274295091</v>
+        <v>-165.840677958408</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-161.176401645324</v>
+        <v>-160.9973520553696</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-157.8969373718723</v>
+        <v>-157.7876930777274</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-155.9665954497119</v>
+        <v>-155.9043755601613</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-154.9730361019474</v>
+        <v>-154.9464275061711</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-154.7336563576745</v>
+        <v>-154.7385045021489</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-155.2012897086999</v>
+        <v>-155.238362960411</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-156.4378957523132</v>
+        <v>-156.5132745486372</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-158.650559642998</v>
+        <v>-158.7792289761588</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-162.296998506063</v>
+        <v>-162.5080168003769</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-167.3661219725025</v>
+        <v>-167.547756040686</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-165.8917025866163</v>
+        <v>-165.6496376187754</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-161.1701601654536</v>
+        <v>-160.9931214694073</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-158.1903646423771</v>
+        <v>-158.0819523852532</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-156.4611672671161</v>
+        <v>-156.3986413897472</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-155.6154742152527</v>
+        <v>-155.5882859451886</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-155.4978225238268</v>
+        <v>-155.5023397926325</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-156.0767724322991</v>
+        <v>-156.1142254791116</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-157.4272334691493</v>
+        <v>-157.5043791121472</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-159.774130079102</v>
+        <v>-159.9072340248694</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-163.6075127084094</v>
+        <v>-163.8265928682858</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-168.7592951788919</v>
+        <v>-168.9023734805445</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-166.7115894804688</v>
+        <v>-166.4322274405536</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-162.0925085463191</v>
+        <v>-161.896276152959</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-159.2589957404478</v>
+        <v>-159.1323605777172</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-157.6626494167009</v>
+        <v>-157.580072073339</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-156.9542159741615</v>
+        <v>-156.9029326486161</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-156.9977875483665</v>
+        <v>-156.9706386102029</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-157.7925871593688</v>
+        <v>-157.7831704196562</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-159.4899908740451</v>
+        <v>-159.4816696467791</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-162.7007986553833</v>
+        <v>-162.5475459050726</v>
       </c>
     </row>
     <row r="502">
